--- a/info/count1.xlsx
+++ b/info/count1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\86180\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/placenameday/R study/yajuan_phd/info/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1F40675-C729-45D3-B2EA-609DFDD5D07B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2816D683-1405-F74F-AAD5-487385A15774}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-34380" yWindow="5780" windowWidth="26920" windowHeight="20620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="994" uniqueCount="346">
   <si>
     <t>baseline</t>
   </si>
@@ -1054,27 +1054,31 @@
     <t>trial</t>
   </si>
   <si>
-    <t>picture</t>
+    <t>target1_g</t>
+  </si>
+  <si>
+    <t>target2_g</t>
+  </si>
+  <si>
+    <t>target3_g</t>
+  </si>
+  <si>
+    <t>target4_g</t>
+  </si>
+  <si>
+    <t>pic</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>target1_g</t>
-  </si>
-  <si>
-    <t>target2_g</t>
-  </si>
-  <si>
-    <t>target3_g</t>
-  </si>
-  <si>
-    <t>target4_g</t>
-  </si>
-  <si>
-    <t>count_yuduan</t>
+    <t>words_yuduan</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>count_question</t>
+    <t>words_question</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>words</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1086,7 +1090,7 @@
     <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1415,23 +1419,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F330"/>
+  <dimension ref="A1:G330"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A304" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" zoomScale="168" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.46484375" customWidth="1"/>
+    <col min="1" max="1" width="10.5" customWidth="1"/>
     <col min="2" max="2" width="10.6640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="14.46484375" customWidth="1"/>
-    <col min="4" max="4" width="12.1328125" customWidth="1"/>
+    <col min="3" max="3" width="14.5" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" customWidth="1"/>
     <col min="5" max="5" width="19.33203125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="16.3984375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>336</v>
       </c>
@@ -1442,7 +1446,7 @@
         <v>15</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>343</v>
@@ -1450,8 +1454,11 @@
       <c r="F1" s="4" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G1" s="1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1470,8 +1477,11 @@
       <c r="F2" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G2" s="4">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -1490,8 +1500,11 @@
       <c r="F3" s="5">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G3" s="4">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -1510,8 +1523,11 @@
       <c r="F4" s="5">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G4" s="4">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -1530,8 +1546,11 @@
       <c r="F5" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G5" s="4">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1550,8 +1569,11 @@
       <c r="F6" s="4">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G6" s="4">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1570,8 +1592,11 @@
       <c r="F7" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G7" s="4">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -1590,8 +1615,11 @@
       <c r="F8" s="5">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G8" s="4">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -1610,8 +1638,11 @@
       <c r="F9" s="5">
         <v>25</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G9" s="4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
@@ -1630,8 +1661,11 @@
       <c r="F10" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G10" s="4">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
@@ -1650,8 +1684,11 @@
       <c r="F11" s="4">
         <v>20</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G11" s="4">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
         <v>5</v>
       </c>
@@ -1670,8 +1707,11 @@
       <c r="F12" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G12" s="4">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
         <v>5</v>
       </c>
@@ -1690,8 +1730,11 @@
       <c r="F13" s="5">
         <v>16</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G13" s="4">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
@@ -1710,8 +1753,11 @@
       <c r="F14" s="5">
         <v>25</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G14" s="4">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
         <v>5</v>
       </c>
@@ -1730,8 +1776,11 @@
       <c r="F15" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G15" s="4">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
         <v>5</v>
       </c>
@@ -1750,8 +1799,11 @@
       <c r="F16" s="4">
         <v>20</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G16" s="4">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
         <v>5</v>
       </c>
@@ -1770,8 +1822,11 @@
       <c r="F17" s="5">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G17" s="4">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
         <v>5</v>
       </c>
@@ -1790,8 +1845,11 @@
       <c r="F18" s="5">
         <v>25</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G18" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
         <v>5</v>
       </c>
@@ -1810,8 +1868,11 @@
       <c r="F19" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G19" s="4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
         <v>5</v>
       </c>
@@ -1830,8 +1891,11 @@
       <c r="F20" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G20" s="4">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
         <v>5</v>
       </c>
@@ -1850,8 +1914,11 @@
       <c r="F21" s="4">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G21" s="4">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
         <v>5</v>
       </c>
@@ -1870,8 +1937,11 @@
       <c r="F22" s="5">
         <v>16</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G22" s="4">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
         <v>5</v>
       </c>
@@ -1890,8 +1960,11 @@
       <c r="F23" s="5">
         <v>25</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G23" s="4">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
         <v>5</v>
       </c>
@@ -1910,8 +1983,11 @@
       <c r="F24" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G24" s="4">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
         <v>5</v>
       </c>
@@ -1930,8 +2006,11 @@
       <c r="F25" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G25" s="4">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
         <v>5</v>
       </c>
@@ -1950,8 +2029,11 @@
       <c r="F26" s="4">
         <v>20</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G26" s="4">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
         <v>5</v>
       </c>
@@ -1970,8 +2052,11 @@
       <c r="F27" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G27" s="4">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
         <v>5</v>
       </c>
@@ -1990,8 +2075,11 @@
       <c r="F28" s="5">
         <v>16</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G28" s="4">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
         <v>5</v>
       </c>
@@ -2010,8 +2098,11 @@
       <c r="F29" s="5">
         <v>25</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G29" s="4">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
         <v>5</v>
       </c>
@@ -2030,8 +2121,11 @@
       <c r="F30" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G30" s="4">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
         <v>5</v>
       </c>
@@ -2050,8 +2144,11 @@
       <c r="F31" s="4">
         <v>20</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G31" s="4">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
         <v>5</v>
       </c>
@@ -2070,8 +2167,11 @@
       <c r="F32" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G32" s="4">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
         <v>5</v>
       </c>
@@ -2090,8 +2190,11 @@
       <c r="F33" s="5">
         <v>16</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G33" s="4">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
         <v>5</v>
       </c>
@@ -2110,8 +2213,11 @@
       <c r="F34" s="5">
         <v>25</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G34" s="4">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
         <v>5</v>
       </c>
@@ -2130,8 +2236,11 @@
       <c r="F35" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G35" s="4">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
         <v>5</v>
       </c>
@@ -2150,8 +2259,11 @@
       <c r="F36" s="4">
         <v>20</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G36" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
         <v>5</v>
       </c>
@@ -2170,8 +2282,11 @@
       <c r="F37" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G37" s="4">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
         <v>5</v>
       </c>
@@ -2190,8 +2305,11 @@
       <c r="F38" s="5">
         <v>16</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G38" s="4">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
         <v>5</v>
       </c>
@@ -2210,8 +2328,11 @@
       <c r="F39" s="5">
         <v>25</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G39" s="4">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
         <v>5</v>
       </c>
@@ -2230,8 +2351,11 @@
       <c r="F40" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G40" s="4">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
         <v>5</v>
       </c>
@@ -2250,8 +2374,11 @@
       <c r="F41" s="4">
         <v>20</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G41" s="4">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
         <v>5</v>
       </c>
@@ -2270,8 +2397,11 @@
       <c r="F42" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G42" s="4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
         <v>5</v>
       </c>
@@ -2290,8 +2420,11 @@
       <c r="F43" s="5">
         <v>16</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G43" s="4">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
         <v>5</v>
       </c>
@@ -2310,8 +2443,11 @@
       <c r="F44" s="5">
         <v>25</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G44" s="4">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
         <v>5</v>
       </c>
@@ -2330,8 +2466,11 @@
       <c r="F45" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G45" s="4">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
         <v>5</v>
       </c>
@@ -2350,8 +2489,11 @@
       <c r="F46" s="4">
         <v>20</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G46" s="4">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
         <v>5</v>
       </c>
@@ -2370,8 +2512,11 @@
       <c r="F47" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G47" s="4">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
         <v>5</v>
       </c>
@@ -2390,8 +2535,11 @@
       <c r="F48" s="5">
         <v>16</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G48" s="4">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
         <v>5</v>
       </c>
@@ -2410,8 +2558,11 @@
       <c r="F49" s="5">
         <v>25</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G49" s="4">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
         <v>5</v>
       </c>
@@ -2430,8 +2581,11 @@
       <c r="F50" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G50" s="4">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
         <v>5</v>
       </c>
@@ -2450,8 +2604,11 @@
       <c r="F51" s="4">
         <v>20</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G51" s="4">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
         <v>5</v>
       </c>
@@ -2470,8 +2627,11 @@
       <c r="F52" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G52" s="4">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
         <v>5</v>
       </c>
@@ -2490,8 +2650,11 @@
       <c r="F53" s="5">
         <v>16</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G53" s="4">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
         <v>5</v>
       </c>
@@ -2510,8 +2673,11 @@
       <c r="F54" s="5">
         <v>25</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G54" s="4">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
         <v>5</v>
       </c>
@@ -2530,8 +2696,11 @@
       <c r="F55" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G55" s="4">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
         <v>5</v>
       </c>
@@ -2550,8 +2719,11 @@
       <c r="F56" s="4">
         <v>20</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G56" s="4">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
         <v>5</v>
       </c>
@@ -2570,8 +2742,11 @@
       <c r="F57" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G57" s="4">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
         <v>5</v>
       </c>
@@ -2590,8 +2765,11 @@
       <c r="F58" s="5">
         <v>16</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G58" s="4">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
         <v>5</v>
       </c>
@@ -2610,8 +2788,11 @@
       <c r="F59" s="5">
         <v>25</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G59" s="4">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
         <v>5</v>
       </c>
@@ -2630,8 +2811,11 @@
       <c r="F60" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G60" s="4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
         <v>5</v>
       </c>
@@ -2650,8 +2834,11 @@
       <c r="F61" s="4">
         <v>20</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G61" s="4">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
         <v>5</v>
       </c>
@@ -2670,8 +2857,11 @@
       <c r="F62" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G62" s="4">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
         <v>5</v>
       </c>
@@ -2690,8 +2880,11 @@
       <c r="F63" s="5">
         <v>16</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G63" s="4">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
         <v>5</v>
       </c>
@@ -2710,8 +2903,11 @@
       <c r="F64" s="5">
         <v>25</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G64" s="4">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
         <v>5</v>
       </c>
@@ -2730,8 +2926,11 @@
       <c r="F65" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G65" s="4">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
         <v>5</v>
       </c>
@@ -2750,8 +2949,11 @@
       <c r="F66" s="4">
         <v>20</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G66" s="4">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
         <v>5</v>
       </c>
@@ -2770,8 +2972,11 @@
       <c r="F67" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G67" s="4">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
         <v>5</v>
       </c>
@@ -2790,8 +2995,11 @@
       <c r="F68" s="5">
         <v>16</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G68" s="4">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
         <v>5</v>
       </c>
@@ -2810,8 +3018,11 @@
       <c r="F69" s="5">
         <v>25</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G69" s="4">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
         <v>5</v>
       </c>
@@ -2830,8 +3041,11 @@
       <c r="F70" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G70" s="4">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
         <v>5</v>
       </c>
@@ -2850,8 +3064,11 @@
       <c r="F71" s="4">
         <v>20</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G71" s="4">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
         <v>5</v>
       </c>
@@ -2870,8 +3087,11 @@
       <c r="F72" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G72" s="4">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
         <v>5</v>
       </c>
@@ -2890,8 +3110,11 @@
       <c r="F73" s="5">
         <v>16</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G73" s="4">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
         <v>5</v>
       </c>
@@ -2910,8 +3133,11 @@
       <c r="F74" s="5">
         <v>25</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G74" s="4">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
         <v>5</v>
       </c>
@@ -2930,8 +3156,11 @@
       <c r="F75" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G75" s="4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
         <v>5</v>
       </c>
@@ -2950,8 +3179,11 @@
       <c r="F76" s="4">
         <v>20</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G76" s="4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
         <v>5</v>
       </c>
@@ -2970,8 +3202,11 @@
       <c r="F77" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G77" s="4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
         <v>5</v>
       </c>
@@ -2990,8 +3225,11 @@
       <c r="F78" s="5">
         <v>16</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G78" s="4">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
         <v>5</v>
       </c>
@@ -3010,8 +3248,11 @@
       <c r="F79" s="5">
         <v>25</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G79" s="4">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
         <v>5</v>
       </c>
@@ -3030,8 +3271,11 @@
       <c r="F80" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G80" s="4">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
         <v>5</v>
       </c>
@@ -3050,8 +3294,11 @@
       <c r="F81" s="4">
         <v>20</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G81" s="4">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
         <v>5</v>
       </c>
@@ -3070,8 +3317,11 @@
       <c r="F82" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G82" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
         <v>5</v>
       </c>
@@ -3090,8 +3340,11 @@
       <c r="F83" s="5">
         <v>16</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G83" s="4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
         <v>5</v>
       </c>
@@ -3110,8 +3363,11 @@
       <c r="F84" s="5">
         <v>25</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G84" s="4">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
         <v>5</v>
       </c>
@@ -3130,8 +3386,11 @@
       <c r="F85" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G85" s="4">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
         <v>5</v>
       </c>
@@ -3150,8 +3409,11 @@
       <c r="F86" s="4">
         <v>20</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G86" s="4">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
         <v>5</v>
       </c>
@@ -3170,8 +3432,11 @@
       <c r="F87" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G87" s="4">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
         <v>5</v>
       </c>
@@ -3190,8 +3455,11 @@
       <c r="F88" s="5">
         <v>16</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G88" s="4">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
         <v>5</v>
       </c>
@@ -3210,8 +3478,11 @@
       <c r="F89" s="5">
         <v>25</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G89" s="4">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
         <v>5</v>
       </c>
@@ -3230,8 +3501,11 @@
       <c r="F90" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G90" s="4">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
         <v>5</v>
       </c>
@@ -3250,8 +3524,11 @@
       <c r="F91" s="4">
         <v>20</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G91" s="4">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
         <v>5</v>
       </c>
@@ -3270,8 +3547,11 @@
       <c r="F92" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G92" s="4">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
         <v>5</v>
       </c>
@@ -3290,8 +3570,11 @@
       <c r="F93" s="5">
         <v>16</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G93" s="4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
         <v>5</v>
       </c>
@@ -3310,8 +3593,11 @@
       <c r="F94" s="5">
         <v>25</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G94" s="4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
         <v>5</v>
       </c>
@@ -3330,8 +3616,11 @@
       <c r="F95" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G95" s="4">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
         <v>5</v>
       </c>
@@ -3350,8 +3639,11 @@
       <c r="F96" s="4">
         <v>20</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G96" s="4">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
         <v>5</v>
       </c>
@@ -3370,8 +3662,11 @@
       <c r="F97" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G97" s="4">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
         <v>5</v>
       </c>
@@ -3390,8 +3685,11 @@
       <c r="F98" s="5">
         <v>16</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G98" s="4">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
         <v>5</v>
       </c>
@@ -3410,8 +3708,11 @@
       <c r="F99" s="5">
         <v>25</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G99" s="4">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
         <v>5</v>
       </c>
@@ -3430,8 +3731,11 @@
       <c r="F100" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G100" s="4">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
         <v>5</v>
       </c>
@@ -3450,8 +3754,11 @@
       <c r="F101" s="4">
         <v>20</v>
       </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G101" s="4">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
         <v>5</v>
       </c>
@@ -3470,8 +3777,11 @@
       <c r="F102" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G102" s="4">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
         <v>5</v>
       </c>
@@ -3490,8 +3800,11 @@
       <c r="F103" s="5">
         <v>16</v>
       </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G103" s="4">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
         <v>5</v>
       </c>
@@ -3510,8 +3823,11 @@
       <c r="F104" s="5">
         <v>25</v>
       </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G104" s="4">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
       <c r="A105" s="1" t="s">
         <v>5</v>
       </c>
@@ -3530,8 +3846,11 @@
       <c r="F105" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G105" s="4">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
       <c r="A106" s="1" t="s">
         <v>5</v>
       </c>
@@ -3550,8 +3869,11 @@
       <c r="F106" s="4">
         <v>20</v>
       </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G106" s="4">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
       <c r="A107" s="1" t="s">
         <v>5</v>
       </c>
@@ -3570,8 +3892,11 @@
       <c r="F107" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G107" s="4">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
       <c r="A108" s="1" t="s">
         <v>5</v>
       </c>
@@ -3590,8 +3915,11 @@
       <c r="F108" s="5">
         <v>16</v>
       </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G108" s="4">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
       <c r="A109" s="1" t="s">
         <v>5</v>
       </c>
@@ -3610,8 +3938,11 @@
       <c r="F109" s="5">
         <v>25</v>
       </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G109" s="4">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
       <c r="A110" s="1" t="s">
         <v>5</v>
       </c>
@@ -3630,8 +3961,11 @@
       <c r="F110" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G110" s="4">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
       <c r="A111" s="1" t="s">
         <v>5</v>
       </c>
@@ -3650,8 +3984,11 @@
       <c r="F111" s="4">
         <v>20</v>
       </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G111" s="4">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
       <c r="A112" s="1" t="s">
         <v>5</v>
       </c>
@@ -3670,8 +4007,11 @@
       <c r="F112" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G112" s="4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
       <c r="A113" s="1" t="s">
         <v>5</v>
       </c>
@@ -3690,8 +4030,11 @@
       <c r="F113" s="5">
         <v>16</v>
       </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G113" s="4">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
       <c r="A114" s="1" t="s">
         <v>5</v>
       </c>
@@ -3710,8 +4053,11 @@
       <c r="F114" s="5">
         <v>25</v>
       </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G114" s="4">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
       <c r="A115" s="1" t="s">
         <v>5</v>
       </c>
@@ -3730,8 +4076,11 @@
       <c r="F115" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G115" s="4">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
       <c r="A116" s="1" t="s">
         <v>5</v>
       </c>
@@ -3750,8 +4099,11 @@
       <c r="F116" s="4">
         <v>20</v>
       </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G116" s="4">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
       <c r="A117" s="1" t="s">
         <v>5</v>
       </c>
@@ -3770,8 +4122,11 @@
       <c r="F117" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G117" s="4">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
       <c r="A118" s="1" t="s">
         <v>5</v>
       </c>
@@ -3790,8 +4145,11 @@
       <c r="F118" s="5">
         <v>16</v>
       </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G118" s="4">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
       <c r="A119" s="1" t="s">
         <v>5</v>
       </c>
@@ -3810,8 +4168,11 @@
       <c r="F119" s="5">
         <v>25</v>
       </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G119" s="4">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
       <c r="A120" s="1" t="s">
         <v>5</v>
       </c>
@@ -3830,8 +4191,11 @@
       <c r="F120" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G120" s="4">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
       <c r="A121" s="1" t="s">
         <v>5</v>
       </c>
@@ -3850,8 +4214,11 @@
       <c r="F121" s="4">
         <v>20</v>
       </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G121" s="4">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
       <c r="A122" s="1" t="s">
         <v>5</v>
       </c>
@@ -3870,8 +4237,11 @@
       <c r="F122" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G122" s="4">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
       <c r="A123" s="1" t="s">
         <v>5</v>
       </c>
@@ -3890,8 +4260,11 @@
       <c r="F123" s="5">
         <v>16</v>
       </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G123" s="4">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
       <c r="A124" s="1" t="s">
         <v>5</v>
       </c>
@@ -3910,8 +4283,11 @@
       <c r="F124" s="5">
         <v>25</v>
       </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G124" s="4">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
       <c r="A125" s="1" t="s">
         <v>5</v>
       </c>
@@ -3930,8 +4306,11 @@
       <c r="F125" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G125" s="4">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
       <c r="A126" s="1" t="s">
         <v>5</v>
       </c>
@@ -3950,8 +4329,11 @@
       <c r="F126" s="4">
         <v>20</v>
       </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G126" s="4">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
       <c r="A127" s="1" t="s">
         <v>5</v>
       </c>
@@ -3970,8 +4352,11 @@
       <c r="F127" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G127" s="4">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7">
       <c r="A128" s="1" t="s">
         <v>5</v>
       </c>
@@ -3990,8 +4375,11 @@
       <c r="F128" s="5">
         <v>16</v>
       </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G128" s="4">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7">
       <c r="A129" s="1" t="s">
         <v>5</v>
       </c>
@@ -4010,8 +4398,11 @@
       <c r="F129" s="5">
         <v>25</v>
       </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G129" s="4">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7">
       <c r="A130" s="1" t="s">
         <v>5</v>
       </c>
@@ -4030,8 +4421,11 @@
       <c r="F130" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G130" s="4">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7">
       <c r="A131" s="1" t="s">
         <v>5</v>
       </c>
@@ -4050,8 +4444,11 @@
       <c r="F131" s="4">
         <v>20</v>
       </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G131" s="4">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7">
       <c r="A132" s="1" t="s">
         <v>5</v>
       </c>
@@ -4070,8 +4467,11 @@
       <c r="F132" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G132" s="4">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7">
       <c r="A133" s="1" t="s">
         <v>5</v>
       </c>
@@ -4090,8 +4490,11 @@
       <c r="F133" s="5">
         <v>16</v>
       </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G133" s="4">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7">
       <c r="A134" s="1" t="s">
         <v>5</v>
       </c>
@@ -4110,8 +4513,11 @@
       <c r="F134" s="5">
         <v>25</v>
       </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G134" s="4">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7">
       <c r="A135" s="1" t="s">
         <v>5</v>
       </c>
@@ -4130,8 +4536,11 @@
       <c r="F135" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G135" s="4">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
       <c r="A136" s="1" t="s">
         <v>5</v>
       </c>
@@ -4150,8 +4559,11 @@
       <c r="F136" s="4">
         <v>20</v>
       </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G136" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7">
       <c r="A137" s="1" t="s">
         <v>5</v>
       </c>
@@ -4170,8 +4582,11 @@
       <c r="F137" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G137" s="4">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7">
       <c r="A138" s="1" t="s">
         <v>5</v>
       </c>
@@ -4190,8 +4605,11 @@
       <c r="F138" s="5">
         <v>16</v>
       </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G138" s="4">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7">
       <c r="A139" s="1" t="s">
         <v>5</v>
       </c>
@@ -4210,8 +4628,11 @@
       <c r="F139" s="5">
         <v>25</v>
       </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G139" s="4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7">
       <c r="A140" s="1" t="s">
         <v>5</v>
       </c>
@@ -4230,8 +4651,11 @@
       <c r="F140" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G140" s="4">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7">
       <c r="A141" s="1" t="s">
         <v>5</v>
       </c>
@@ -4250,8 +4674,11 @@
       <c r="F141" s="4">
         <v>20</v>
       </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G141" s="4">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7">
       <c r="A142" s="1" t="s">
         <v>5</v>
       </c>
@@ -4270,8 +4697,11 @@
       <c r="F142" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G142" s="4">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7">
       <c r="A143" s="1" t="s">
         <v>5</v>
       </c>
@@ -4290,8 +4720,11 @@
       <c r="F143" s="5">
         <v>16</v>
       </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G143" s="4">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7">
       <c r="A144" s="1" t="s">
         <v>5</v>
       </c>
@@ -4310,8 +4743,11 @@
       <c r="F144" s="5">
         <v>25</v>
       </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G144" s="4">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7">
       <c r="A145" s="1" t="s">
         <v>5</v>
       </c>
@@ -4330,8 +4766,11 @@
       <c r="F145" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G145" s="4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7">
       <c r="A146" s="1" t="s">
         <v>5</v>
       </c>
@@ -4350,8 +4789,11 @@
       <c r="F146" s="4">
         <v>20</v>
       </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G146" s="4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7">
       <c r="A147" s="1" t="s">
         <v>5</v>
       </c>
@@ -4370,8 +4812,11 @@
       <c r="F147" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G147" s="4">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7">
       <c r="A148" s="1" t="s">
         <v>5</v>
       </c>
@@ -4390,8 +4835,11 @@
       <c r="F148" s="5">
         <v>16</v>
       </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G148" s="4">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7">
       <c r="A149" s="1" t="s">
         <v>5</v>
       </c>
@@ -4410,8 +4858,11 @@
       <c r="F149" s="5">
         <v>25</v>
       </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G149" s="4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7">
       <c r="A150" s="1" t="s">
         <v>5</v>
       </c>
@@ -4430,8 +4881,11 @@
       <c r="F150" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G150" s="4">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7">
       <c r="A151" s="1" t="s">
         <v>5</v>
       </c>
@@ -4450,8 +4904,11 @@
       <c r="F151" s="4">
         <v>20</v>
       </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G151" s="4">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7">
       <c r="A152" s="1" t="s">
         <v>5</v>
       </c>
@@ -4470,8 +4927,11 @@
       <c r="F152" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G152" s="4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7">
       <c r="A153" s="1" t="s">
         <v>5</v>
       </c>
@@ -4490,8 +4950,11 @@
       <c r="F153" s="5">
         <v>16</v>
       </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G153" s="4">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7">
       <c r="A154" s="1" t="s">
         <v>5</v>
       </c>
@@ -4510,8 +4973,11 @@
       <c r="F154" s="5">
         <v>25</v>
       </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G154" s="4">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7">
       <c r="A155" s="1" t="s">
         <v>5</v>
       </c>
@@ -4530,8 +4996,11 @@
       <c r="F155" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G155" s="4">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7">
       <c r="A156" s="1" t="s">
         <v>5</v>
       </c>
@@ -4550,8 +5019,11 @@
       <c r="F156" s="4">
         <v>20</v>
       </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G156" s="4">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7">
       <c r="A157" s="1" t="s">
         <v>5</v>
       </c>
@@ -4570,8 +5042,11 @@
       <c r="F157" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G157" s="4">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7">
       <c r="A158" s="1" t="s">
         <v>5</v>
       </c>
@@ -4590,8 +5065,11 @@
       <c r="F158" s="5">
         <v>16</v>
       </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G158" s="4">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7">
       <c r="A159" s="1" t="s">
         <v>5</v>
       </c>
@@ -4610,8 +5088,11 @@
       <c r="F159" s="5">
         <v>25</v>
       </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G159" s="4">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7">
       <c r="A160" s="1" t="s">
         <v>5</v>
       </c>
@@ -4630,8 +5111,11 @@
       <c r="F160" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G160" s="4">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7">
       <c r="A161" s="1" t="s">
         <v>5</v>
       </c>
@@ -4650,8 +5134,11 @@
       <c r="F161" s="4">
         <v>20</v>
       </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G161" s="4">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7">
       <c r="A162" s="1" t="s">
         <v>5</v>
       </c>
@@ -4670,8 +5157,11 @@
       <c r="F162" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G162" s="4">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7">
       <c r="A163" s="1" t="s">
         <v>5</v>
       </c>
@@ -4690,8 +5180,11 @@
       <c r="F163" s="5">
         <v>16</v>
       </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G163" s="4">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7">
       <c r="A164" s="1" t="s">
         <v>5</v>
       </c>
@@ -4710,8 +5203,11 @@
       <c r="F164" s="5">
         <v>25</v>
       </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G164" s="4">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7">
       <c r="A165" s="1" t="s">
         <v>5</v>
       </c>
@@ -4730,8 +5226,11 @@
       <c r="F165" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G165" s="4">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7">
       <c r="A166" s="1" t="s">
         <v>5</v>
       </c>
@@ -4750,8 +5249,11 @@
       <c r="F166" s="4">
         <v>20</v>
       </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G166" s="4">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7">
       <c r="A167" s="1" t="s">
         <v>5</v>
       </c>
@@ -4770,8 +5272,11 @@
       <c r="F167" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G167" s="4">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7">
       <c r="A168" s="1" t="s">
         <v>5</v>
       </c>
@@ -4790,8 +5295,11 @@
       <c r="F168" s="5">
         <v>16</v>
       </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G168" s="4">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7">
       <c r="A169" s="1" t="s">
         <v>5</v>
       </c>
@@ -4810,8 +5318,11 @@
       <c r="F169" s="5">
         <v>25</v>
       </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G169" s="4">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7">
       <c r="A170" s="1" t="s">
         <v>5</v>
       </c>
@@ -4830,8 +5341,11 @@
       <c r="F170" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G170" s="4">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7">
       <c r="A171" s="1" t="s">
         <v>5</v>
       </c>
@@ -4850,8 +5364,11 @@
       <c r="F171" s="4">
         <v>20</v>
       </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G171" s="4">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7">
       <c r="A172" s="1" t="s">
         <v>5</v>
       </c>
@@ -4870,8 +5387,11 @@
       <c r="F172" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G172" s="4">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7">
       <c r="A173" s="1" t="s">
         <v>5</v>
       </c>
@@ -4890,8 +5410,11 @@
       <c r="F173" s="5">
         <v>16</v>
       </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G173" s="4">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7">
       <c r="A174" s="1" t="s">
         <v>5</v>
       </c>
@@ -4910,8 +5433,11 @@
       <c r="F174" s="5">
         <v>25</v>
       </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G174" s="4">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7">
       <c r="A175" s="1" t="s">
         <v>5</v>
       </c>
@@ -4930,8 +5456,11 @@
       <c r="F175" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G175" s="4">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7">
       <c r="A176" s="1" t="s">
         <v>5</v>
       </c>
@@ -4950,8 +5479,11 @@
       <c r="F176" s="4">
         <v>20</v>
       </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G176" s="4">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7">
       <c r="A177" s="1" t="s">
         <v>5</v>
       </c>
@@ -4970,8 +5502,11 @@
       <c r="F177" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G177" s="4">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7">
       <c r="A178" s="1" t="s">
         <v>5</v>
       </c>
@@ -4990,8 +5525,11 @@
       <c r="F178" s="5">
         <v>16</v>
       </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G178" s="4">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7">
       <c r="A179" s="1" t="s">
         <v>5</v>
       </c>
@@ -5010,8 +5548,11 @@
       <c r="F179" s="5">
         <v>25</v>
       </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G179" s="4">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7">
       <c r="A180" s="1" t="s">
         <v>5</v>
       </c>
@@ -5030,8 +5571,11 @@
       <c r="F180" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G180" s="4">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7">
       <c r="A181" s="1" t="s">
         <v>5</v>
       </c>
@@ -5050,8 +5594,11 @@
       <c r="F181" s="4">
         <v>20</v>
       </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G181" s="4">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7">
       <c r="A182" s="1" t="s">
         <v>5</v>
       </c>
@@ -5070,8 +5617,11 @@
       <c r="F182" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G182" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7">
       <c r="A183" s="1" t="s">
         <v>5</v>
       </c>
@@ -5090,8 +5640,11 @@
       <c r="F183" s="5">
         <v>16</v>
       </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G183" s="4">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7">
       <c r="A184" s="1" t="s">
         <v>5</v>
       </c>
@@ -5110,8 +5663,11 @@
       <c r="F184" s="5">
         <v>25</v>
       </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G184" s="4">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7">
       <c r="A185" s="1" t="s">
         <v>5</v>
       </c>
@@ -5130,8 +5686,11 @@
       <c r="F185" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G185" s="4">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7">
       <c r="A186" s="1" t="s">
         <v>5</v>
       </c>
@@ -5150,8 +5709,11 @@
       <c r="F186" s="4">
         <v>20</v>
       </c>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G186" s="4">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7">
       <c r="A187" s="1" t="s">
         <v>5</v>
       </c>
@@ -5170,8 +5732,11 @@
       <c r="F187" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G187" s="4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7">
       <c r="A188" s="1" t="s">
         <v>5</v>
       </c>
@@ -5190,8 +5755,11 @@
       <c r="F188" s="5">
         <v>16</v>
       </c>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G188" s="4">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7">
       <c r="A189" s="1" t="s">
         <v>5</v>
       </c>
@@ -5210,8 +5778,11 @@
       <c r="F189" s="5">
         <v>25</v>
       </c>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G189" s="4">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7">
       <c r="A190" s="1" t="s">
         <v>5</v>
       </c>
@@ -5230,8 +5801,11 @@
       <c r="F190" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G190" s="4">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7">
       <c r="A191" s="1" t="s">
         <v>5</v>
       </c>
@@ -5250,8 +5824,11 @@
       <c r="F191" s="4">
         <v>20</v>
       </c>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G191" s="4">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7">
       <c r="A192" s="1" t="s">
         <v>5</v>
       </c>
@@ -5270,8 +5847,11 @@
       <c r="F192" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G192" s="4">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7">
       <c r="A193" s="1" t="s">
         <v>5</v>
       </c>
@@ -5290,8 +5870,11 @@
       <c r="F193" s="5">
         <v>16</v>
       </c>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G193" s="4">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7">
       <c r="A194" s="1" t="s">
         <v>5</v>
       </c>
@@ -5310,8 +5893,11 @@
       <c r="F194" s="5">
         <v>25</v>
       </c>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G194" s="4">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7">
       <c r="A195" s="1" t="s">
         <v>5</v>
       </c>
@@ -5330,8 +5916,11 @@
       <c r="F195" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G195" s="4">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7">
       <c r="A196" s="1" t="s">
         <v>5</v>
       </c>
@@ -5350,8 +5939,11 @@
       <c r="F196" s="4">
         <v>20</v>
       </c>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G196" s="4">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7">
       <c r="A197" s="1" t="s">
         <v>5</v>
       </c>
@@ -5370,8 +5962,11 @@
       <c r="F197" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G197" s="4">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7">
       <c r="A198" s="1" t="s">
         <v>5</v>
       </c>
@@ -5390,8 +5985,11 @@
       <c r="F198" s="5">
         <v>16</v>
       </c>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G198" s="4">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7">
       <c r="A199" s="1" t="s">
         <v>5</v>
       </c>
@@ -5410,8 +6008,11 @@
       <c r="F199" s="5">
         <v>25</v>
       </c>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G199" s="4">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7">
       <c r="A200" s="1" t="s">
         <v>5</v>
       </c>
@@ -5430,8 +6031,11 @@
       <c r="F200" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G200" s="4">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7">
       <c r="A201" s="1" t="s">
         <v>5</v>
       </c>
@@ -5450,8 +6054,11 @@
       <c r="F201" s="4">
         <v>20</v>
       </c>
-    </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G201" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7">
       <c r="A202" s="1" t="s">
         <v>5</v>
       </c>
@@ -5470,8 +6077,11 @@
       <c r="F202" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G202" s="4">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7">
       <c r="A203" s="1" t="s">
         <v>5</v>
       </c>
@@ -5490,8 +6100,11 @@
       <c r="F203" s="5">
         <v>16</v>
       </c>
-    </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G203" s="4">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7">
       <c r="A204" s="1" t="s">
         <v>5</v>
       </c>
@@ -5510,8 +6123,11 @@
       <c r="F204" s="5">
         <v>25</v>
       </c>
-    </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G204" s="4">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7">
       <c r="A205" s="1" t="s">
         <v>5</v>
       </c>
@@ -5530,8 +6146,11 @@
       <c r="F205" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G205" s="4">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7">
       <c r="A206" s="1" t="s">
         <v>5</v>
       </c>
@@ -5550,8 +6169,11 @@
       <c r="F206" s="4">
         <v>20</v>
       </c>
-    </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G206" s="4">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7">
       <c r="A207" s="1" t="s">
         <v>5</v>
       </c>
@@ -5570,8 +6192,11 @@
       <c r="F207" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G207" s="4">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7">
       <c r="A208" s="1" t="s">
         <v>5</v>
       </c>
@@ -5590,8 +6215,11 @@
       <c r="F208" s="5">
         <v>16</v>
       </c>
-    </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G208" s="4">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7">
       <c r="A209" s="1" t="s">
         <v>5</v>
       </c>
@@ -5610,8 +6238,11 @@
       <c r="F209" s="5">
         <v>25</v>
       </c>
-    </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G209" s="4">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7">
       <c r="A210" s="1" t="s">
         <v>5</v>
       </c>
@@ -5630,8 +6261,11 @@
       <c r="F210" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G210" s="4">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7">
       <c r="A211" s="1" t="s">
         <v>5</v>
       </c>
@@ -5650,8 +6284,11 @@
       <c r="F211" s="4">
         <v>20</v>
       </c>
-    </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G211" s="4">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7">
       <c r="A212" s="1" t="s">
         <v>5</v>
       </c>
@@ -5670,8 +6307,11 @@
       <c r="F212" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G212" s="4">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7">
       <c r="A213" s="1" t="s">
         <v>5</v>
       </c>
@@ -5690,8 +6330,11 @@
       <c r="F213" s="5">
         <v>16</v>
       </c>
-    </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G213" s="4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7">
       <c r="A214" s="1" t="s">
         <v>5</v>
       </c>
@@ -5710,8 +6353,11 @@
       <c r="F214" s="5">
         <v>25</v>
       </c>
-    </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G214" s="4">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7">
       <c r="A215" s="1" t="s">
         <v>5</v>
       </c>
@@ -5730,8 +6376,11 @@
       <c r="F215" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G215" s="4">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7">
       <c r="A216" s="1" t="s">
         <v>5</v>
       </c>
@@ -5750,8 +6399,11 @@
       <c r="F216" s="4">
         <v>20</v>
       </c>
-    </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G216" s="4">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7">
       <c r="A217" s="1" t="s">
         <v>5</v>
       </c>
@@ -5770,8 +6422,11 @@
       <c r="F217" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G217" s="4">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7">
       <c r="A218" s="1" t="s">
         <v>5</v>
       </c>
@@ -5790,8 +6445,11 @@
       <c r="F218" s="5">
         <v>16</v>
       </c>
-    </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G218" s="4">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7">
       <c r="A219" s="1" t="s">
         <v>5</v>
       </c>
@@ -5810,8 +6468,11 @@
       <c r="F219" s="5">
         <v>25</v>
       </c>
-    </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G219" s="4">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7">
       <c r="A220" s="1" t="s">
         <v>5</v>
       </c>
@@ -5830,8 +6491,11 @@
       <c r="F220" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G220" s="4">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7">
       <c r="A221" s="1" t="s">
         <v>5</v>
       </c>
@@ -5850,8 +6514,11 @@
       <c r="F221" s="4">
         <v>20</v>
       </c>
-    </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G221" s="4">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7">
       <c r="A222" s="1" t="s">
         <v>5</v>
       </c>
@@ -5870,8 +6537,11 @@
       <c r="F222" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G222" s="4">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7">
       <c r="A223" s="1" t="s">
         <v>5</v>
       </c>
@@ -5890,8 +6560,11 @@
       <c r="F223" s="5">
         <v>16</v>
       </c>
-    </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G223" s="4">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7">
       <c r="A224" s="1" t="s">
         <v>5</v>
       </c>
@@ -5910,8 +6583,11 @@
       <c r="F224" s="5">
         <v>25</v>
       </c>
-    </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G224" s="4">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7">
       <c r="A225" s="1" t="s">
         <v>5</v>
       </c>
@@ -5930,8 +6606,11 @@
       <c r="F225" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G225" s="4">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7">
       <c r="A226" s="1" t="s">
         <v>5</v>
       </c>
@@ -5950,8 +6629,11 @@
       <c r="F226" s="4">
         <v>20</v>
       </c>
-    </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G226" s="4">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7">
       <c r="A227" s="1" t="s">
         <v>5</v>
       </c>
@@ -5959,7 +6641,7 @@
         <v>46</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D227" s="1" t="s">
         <v>236</v>
@@ -5970,8 +6652,11 @@
       <c r="F227" s="5">
         <v>16</v>
       </c>
-    </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G227" s="4">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7">
       <c r="A228" s="1" t="s">
         <v>5</v>
       </c>
@@ -5979,7 +6664,7 @@
         <v>46</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D228" s="1" t="s">
         <v>237</v>
@@ -5990,8 +6675,11 @@
       <c r="F228" s="5">
         <v>25</v>
       </c>
-    </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G228" s="4">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7">
       <c r="A229" s="1" t="s">
         <v>5</v>
       </c>
@@ -5999,7 +6687,7 @@
         <v>46</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D229" s="1" t="s">
         <v>238</v>
@@ -6010,8 +6698,11 @@
       <c r="F229" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G229" s="4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7">
       <c r="A230" s="1" t="s">
         <v>5</v>
       </c>
@@ -6019,7 +6710,7 @@
         <v>46</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D230" s="1" t="s">
         <v>239</v>
@@ -6030,8 +6721,11 @@
       <c r="F230" s="4">
         <v>20</v>
       </c>
-    </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G230" s="4">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7">
       <c r="A231" s="1" t="s">
         <v>5</v>
       </c>
@@ -6039,7 +6733,7 @@
         <v>47</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D231" s="1" t="s">
         <v>240</v>
@@ -6050,8 +6744,11 @@
       <c r="F231" s="5">
         <v>16</v>
       </c>
-    </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G231" s="4">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7">
       <c r="A232" s="1" t="s">
         <v>5</v>
       </c>
@@ -6059,7 +6756,7 @@
         <v>47</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D232" s="1" t="s">
         <v>241</v>
@@ -6070,8 +6767,11 @@
       <c r="F232" s="5">
         <v>25</v>
       </c>
-    </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G232" s="4">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7">
       <c r="A233" s="1" t="s">
         <v>5</v>
       </c>
@@ -6079,7 +6779,7 @@
         <v>47</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D233" s="1" t="s">
         <v>242</v>
@@ -6090,8 +6790,11 @@
       <c r="F233" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G233" s="4">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7">
       <c r="A234" s="1" t="s">
         <v>5</v>
       </c>
@@ -6099,7 +6802,7 @@
         <v>47</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D234" s="1" t="s">
         <v>243</v>
@@ -6110,8 +6813,11 @@
       <c r="F234" s="4">
         <v>20</v>
       </c>
-    </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G234" s="4">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7">
       <c r="A235" s="1" t="s">
         <v>5</v>
       </c>
@@ -6119,7 +6825,7 @@
         <v>48</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D235" s="1" t="s">
         <v>244</v>
@@ -6130,8 +6836,11 @@
       <c r="F235" s="5">
         <v>16</v>
       </c>
-    </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G235" s="4">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7">
       <c r="A236" s="1" t="s">
         <v>5</v>
       </c>
@@ -6139,7 +6848,7 @@
         <v>48</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D236" s="1" t="s">
         <v>245</v>
@@ -6150,8 +6859,11 @@
       <c r="F236" s="5">
         <v>25</v>
       </c>
-    </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G236" s="4">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7">
       <c r="A237" s="1" t="s">
         <v>5</v>
       </c>
@@ -6159,7 +6871,7 @@
         <v>48</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D237" s="1" t="s">
         <v>246</v>
@@ -6170,8 +6882,11 @@
       <c r="F237" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G237" s="4">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7">
       <c r="A238" s="1" t="s">
         <v>5</v>
       </c>
@@ -6179,7 +6894,7 @@
         <v>48</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D238" s="1" t="s">
         <v>247</v>
@@ -6190,8 +6905,11 @@
       <c r="F238" s="4">
         <v>20</v>
       </c>
-    </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G238" s="4">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7">
       <c r="A239" s="1" t="s">
         <v>5</v>
       </c>
@@ -6199,7 +6917,7 @@
         <v>49</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D239" s="1" t="s">
         <v>248</v>
@@ -6210,8 +6928,11 @@
       <c r="F239" s="5">
         <v>16</v>
       </c>
-    </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G239" s="4">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7">
       <c r="A240" s="1" t="s">
         <v>5</v>
       </c>
@@ -6219,7 +6940,7 @@
         <v>49</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D240" s="1" t="s">
         <v>249</v>
@@ -6230,8 +6951,11 @@
       <c r="F240" s="5">
         <v>25</v>
       </c>
-    </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G240" s="4">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7">
       <c r="A241" s="1" t="s">
         <v>5</v>
       </c>
@@ -6239,7 +6963,7 @@
         <v>49</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D241" s="1" t="s">
         <v>250</v>
@@ -6250,8 +6974,11 @@
       <c r="F241" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G241" s="4">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7">
       <c r="A242" s="1" t="s">
         <v>5</v>
       </c>
@@ -6259,7 +6986,7 @@
         <v>49</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D242" s="1" t="s">
         <v>251</v>
@@ -6270,8 +6997,11 @@
       <c r="F242" s="4">
         <v>20</v>
       </c>
-    </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G242" s="4">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7">
       <c r="A243" s="1" t="s">
         <v>5</v>
       </c>
@@ -6279,7 +7009,7 @@
         <v>50</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D243" s="1" t="s">
         <v>252</v>
@@ -6290,8 +7020,11 @@
       <c r="F243" s="5">
         <v>16</v>
       </c>
-    </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G243" s="4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7">
       <c r="A244" s="1" t="s">
         <v>5</v>
       </c>
@@ -6299,7 +7032,7 @@
         <v>50</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D244" s="1" t="s">
         <v>253</v>
@@ -6310,8 +7043,11 @@
       <c r="F244" s="5">
         <v>25</v>
       </c>
-    </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G244" s="4">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7">
       <c r="A245" s="1" t="s">
         <v>5</v>
       </c>
@@ -6319,7 +7055,7 @@
         <v>50</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D245" s="1" t="s">
         <v>254</v>
@@ -6330,8 +7066,11 @@
       <c r="F245" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G245" s="4">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7">
       <c r="A246" s="1" t="s">
         <v>5</v>
       </c>
@@ -6339,7 +7078,7 @@
         <v>50</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D246" s="1" t="s">
         <v>255</v>
@@ -6350,8 +7089,11 @@
       <c r="F246" s="4">
         <v>20</v>
       </c>
-    </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G246" s="4">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7">
       <c r="A247" s="1" t="s">
         <v>5</v>
       </c>
@@ -6359,7 +7101,7 @@
         <v>51</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D247" s="1" t="s">
         <v>256</v>
@@ -6370,8 +7112,11 @@
       <c r="F247" s="5">
         <v>16</v>
       </c>
-    </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G247" s="4">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7">
       <c r="A248" s="1" t="s">
         <v>5</v>
       </c>
@@ -6379,7 +7124,7 @@
         <v>51</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D248" s="1" t="s">
         <v>257</v>
@@ -6390,8 +7135,11 @@
       <c r="F248" s="5">
         <v>25</v>
       </c>
-    </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G248" s="4">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7">
       <c r="A249" s="1" t="s">
         <v>5</v>
       </c>
@@ -6399,7 +7147,7 @@
         <v>51</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D249" s="1" t="s">
         <v>258</v>
@@ -6410,8 +7158,11 @@
       <c r="F249" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G249" s="4">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7">
       <c r="A250" s="1" t="s">
         <v>5</v>
       </c>
@@ -6419,7 +7170,7 @@
         <v>51</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D250" s="1" t="s">
         <v>259</v>
@@ -6430,8 +7181,11 @@
       <c r="F250" s="4">
         <v>20</v>
       </c>
-    </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G250" s="4">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7">
       <c r="A251" s="1" t="s">
         <v>5</v>
       </c>
@@ -6439,7 +7193,7 @@
         <v>52</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D251" s="1" t="s">
         <v>260</v>
@@ -6450,8 +7204,11 @@
       <c r="F251" s="5">
         <v>16</v>
       </c>
-    </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G251" s="4">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7">
       <c r="A252" s="1" t="s">
         <v>5</v>
       </c>
@@ -6459,7 +7216,7 @@
         <v>52</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D252" s="1" t="s">
         <v>261</v>
@@ -6470,8 +7227,11 @@
       <c r="F252" s="5">
         <v>25</v>
       </c>
-    </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G252" s="4">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7">
       <c r="A253" s="1" t="s">
         <v>5</v>
       </c>
@@ -6479,7 +7239,7 @@
         <v>52</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D253" s="1" t="s">
         <v>262</v>
@@ -6490,8 +7250,11 @@
       <c r="F253" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G253" s="4">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7">
       <c r="A254" s="1" t="s">
         <v>5</v>
       </c>
@@ -6499,7 +7262,7 @@
         <v>52</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D254" s="1" t="s">
         <v>263</v>
@@ -6510,8 +7273,11 @@
       <c r="F254" s="4">
         <v>20</v>
       </c>
-    </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G254" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7">
       <c r="A255" s="1" t="s">
         <v>5</v>
       </c>
@@ -6519,7 +7285,7 @@
         <v>53</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D255" s="1" t="s">
         <v>264</v>
@@ -6530,8 +7296,11 @@
       <c r="F255" s="5">
         <v>16</v>
       </c>
-    </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G255" s="4">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7">
       <c r="A256" s="1" t="s">
         <v>5</v>
       </c>
@@ -6539,7 +7308,7 @@
         <v>53</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D256" s="1" t="s">
         <v>265</v>
@@ -6550,8 +7319,11 @@
       <c r="F256" s="5">
         <v>25</v>
       </c>
-    </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G256" s="4">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7">
       <c r="A257" s="1" t="s">
         <v>5</v>
       </c>
@@ -6559,7 +7331,7 @@
         <v>53</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D257" s="1" t="s">
         <v>266</v>
@@ -6570,8 +7342,11 @@
       <c r="F257" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G257" s="4">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7">
       <c r="A258" s="1" t="s">
         <v>5</v>
       </c>
@@ -6579,7 +7354,7 @@
         <v>53</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D258" s="1" t="s">
         <v>267</v>
@@ -6590,8 +7365,11 @@
       <c r="F258" s="4">
         <v>20</v>
       </c>
-    </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G258" s="4">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7">
       <c r="A259" s="1" t="s">
         <v>5</v>
       </c>
@@ -6599,7 +7377,7 @@
         <v>54</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D259" s="1" t="s">
         <v>268</v>
@@ -6610,8 +7388,11 @@
       <c r="F259" s="5">
         <v>16</v>
       </c>
-    </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G259" s="4">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7">
       <c r="A260" s="1" t="s">
         <v>5</v>
       </c>
@@ -6619,7 +7400,7 @@
         <v>54</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D260" s="1" t="s">
         <v>269</v>
@@ -6630,8 +7411,11 @@
       <c r="F260" s="5">
         <v>25</v>
       </c>
-    </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G260" s="4">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7">
       <c r="A261" s="1" t="s">
         <v>5</v>
       </c>
@@ -6639,7 +7423,7 @@
         <v>54</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D261" s="1" t="s">
         <v>270</v>
@@ -6650,8 +7434,11 @@
       <c r="F261" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G261" s="4">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7">
       <c r="A262" s="1" t="s">
         <v>5</v>
       </c>
@@ -6659,7 +7446,7 @@
         <v>54</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D262" s="1" t="s">
         <v>271</v>
@@ -6670,8 +7457,11 @@
       <c r="F262" s="4">
         <v>20</v>
       </c>
-    </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G262" s="4">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7">
       <c r="A263" s="1" t="s">
         <v>5</v>
       </c>
@@ -6679,7 +7469,7 @@
         <v>55</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D263" s="1" t="s">
         <v>272</v>
@@ -6690,8 +7480,11 @@
       <c r="F263" s="5">
         <v>16</v>
       </c>
-    </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G263" s="4">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7">
       <c r="A264" s="1" t="s">
         <v>5</v>
       </c>
@@ -6699,7 +7492,7 @@
         <v>55</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D264" s="1" t="s">
         <v>273</v>
@@ -6710,8 +7503,11 @@
       <c r="F264" s="5">
         <v>25</v>
       </c>
-    </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G264" s="4">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7">
       <c r="A265" s="1" t="s">
         <v>5</v>
       </c>
@@ -6719,7 +7515,7 @@
         <v>55</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D265" s="1" t="s">
         <v>274</v>
@@ -6730,8 +7526,11 @@
       <c r="F265" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G265" s="4">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7">
       <c r="A266" s="1" t="s">
         <v>5</v>
       </c>
@@ -6739,7 +7538,7 @@
         <v>55</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D266" s="1" t="s">
         <v>275</v>
@@ -6750,8 +7549,11 @@
       <c r="F266" s="4">
         <v>20</v>
       </c>
-    </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G266" s="4">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7">
       <c r="A267" s="1" t="s">
         <v>5</v>
       </c>
@@ -6759,7 +7561,7 @@
         <v>56</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D267" s="1" t="s">
         <v>276</v>
@@ -6770,8 +7572,11 @@
       <c r="F267" s="5">
         <v>16</v>
       </c>
-    </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G267" s="4">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7">
       <c r="A268" s="1" t="s">
         <v>5</v>
       </c>
@@ -6779,7 +7584,7 @@
         <v>56</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D268" s="1" t="s">
         <v>277</v>
@@ -6790,8 +7595,11 @@
       <c r="F268" s="5">
         <v>25</v>
       </c>
-    </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G268" s="4">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7">
       <c r="A269" s="1" t="s">
         <v>5</v>
       </c>
@@ -6799,7 +7607,7 @@
         <v>56</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D269" s="1" t="s">
         <v>278</v>
@@ -6810,8 +7618,11 @@
       <c r="F269" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G269" s="4">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7">
       <c r="A270" s="1" t="s">
         <v>5</v>
       </c>
@@ -6819,7 +7630,7 @@
         <v>56</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D270" s="1" t="s">
         <v>279</v>
@@ -6830,8 +7641,11 @@
       <c r="F270" s="4">
         <v>20</v>
       </c>
-    </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G270" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7">
       <c r="A271" s="1" t="s">
         <v>5</v>
       </c>
@@ -6839,7 +7653,7 @@
         <v>57</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D271" s="1" t="s">
         <v>280</v>
@@ -6850,8 +7664,11 @@
       <c r="F271" s="5">
         <v>16</v>
       </c>
-    </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G271" s="4">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7">
       <c r="A272" s="1" t="s">
         <v>5</v>
       </c>
@@ -6859,7 +7676,7 @@
         <v>57</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D272" s="1" t="s">
         <v>281</v>
@@ -6870,8 +7687,11 @@
       <c r="F272" s="5">
         <v>25</v>
       </c>
-    </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G272" s="4">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7">
       <c r="A273" s="1" t="s">
         <v>5</v>
       </c>
@@ -6879,7 +7699,7 @@
         <v>57</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D273" s="1" t="s">
         <v>282</v>
@@ -6890,8 +7710,11 @@
       <c r="F273" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G273" s="4">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7">
       <c r="A274" s="1" t="s">
         <v>5</v>
       </c>
@@ -6899,7 +7722,7 @@
         <v>57</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D274" s="1" t="s">
         <v>283</v>
@@ -6910,8 +7733,11 @@
       <c r="F274" s="4">
         <v>20</v>
       </c>
-    </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G274" s="4">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7">
       <c r="A275" s="1" t="s">
         <v>5</v>
       </c>
@@ -6919,7 +7745,7 @@
         <v>58</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D275" s="1" t="s">
         <v>284</v>
@@ -6930,8 +7756,11 @@
       <c r="F275" s="5">
         <v>16</v>
       </c>
-    </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G275" s="4">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7">
       <c r="A276" s="1" t="s">
         <v>5</v>
       </c>
@@ -6939,7 +7768,7 @@
         <v>58</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D276" s="1" t="s">
         <v>285</v>
@@ -6950,8 +7779,11 @@
       <c r="F276" s="5">
         <v>25</v>
       </c>
-    </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G276" s="4">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7">
       <c r="A277" s="1" t="s">
         <v>5</v>
       </c>
@@ -6959,7 +7791,7 @@
         <v>58</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D277" s="1" t="s">
         <v>286</v>
@@ -6970,8 +7802,11 @@
       <c r="F277" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G277" s="4">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7">
       <c r="A278" s="1" t="s">
         <v>5</v>
       </c>
@@ -6979,7 +7814,7 @@
         <v>58</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D278" s="1" t="s">
         <v>287</v>
@@ -6990,8 +7825,11 @@
       <c r="F278" s="4">
         <v>20</v>
       </c>
-    </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G278" s="4">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7">
       <c r="A279" s="1" t="s">
         <v>5</v>
       </c>
@@ -6999,7 +7837,7 @@
         <v>59</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D279" s="1" t="s">
         <v>288</v>
@@ -7010,8 +7848,11 @@
       <c r="F279" s="5">
         <v>16</v>
       </c>
-    </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G279" s="4">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7">
       <c r="A280" s="1" t="s">
         <v>5</v>
       </c>
@@ -7019,7 +7860,7 @@
         <v>59</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D280" s="1" t="s">
         <v>289</v>
@@ -7030,8 +7871,11 @@
       <c r="F280" s="5">
         <v>25</v>
       </c>
-    </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G280" s="4">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7">
       <c r="A281" s="1" t="s">
         <v>5</v>
       </c>
@@ -7039,7 +7883,7 @@
         <v>59</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D281" s="1" t="s">
         <v>290</v>
@@ -7050,8 +7894,11 @@
       <c r="F281" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G281" s="4">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7">
       <c r="A282" s="1" t="s">
         <v>5</v>
       </c>
@@ -7059,7 +7906,7 @@
         <v>59</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D282" s="1" t="s">
         <v>291</v>
@@ -7070,8 +7917,11 @@
       <c r="F282" s="4">
         <v>20</v>
       </c>
-    </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G282" s="4">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7">
       <c r="A283" s="1" t="s">
         <v>5</v>
       </c>
@@ -7079,7 +7929,7 @@
         <v>60</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D283" s="1" t="s">
         <v>292</v>
@@ -7090,8 +7940,11 @@
       <c r="F283" s="5">
         <v>16</v>
       </c>
-    </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G283" s="4">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7">
       <c r="A284" s="1" t="s">
         <v>5</v>
       </c>
@@ -7099,7 +7952,7 @@
         <v>60</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D284" s="1" t="s">
         <v>293</v>
@@ -7110,8 +7963,11 @@
       <c r="F284" s="5">
         <v>25</v>
       </c>
-    </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G284" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7">
       <c r="A285" s="1" t="s">
         <v>5</v>
       </c>
@@ -7119,7 +7975,7 @@
         <v>60</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D285" s="1" t="s">
         <v>294</v>
@@ -7130,8 +7986,11 @@
       <c r="F285" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G285" s="4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7">
       <c r="A286" s="1" t="s">
         <v>5</v>
       </c>
@@ -7139,7 +7998,7 @@
         <v>60</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D286" s="1" t="s">
         <v>295</v>
@@ -7150,8 +8009,11 @@
       <c r="F286" s="4">
         <v>20</v>
       </c>
-    </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G286" s="4">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7">
       <c r="A287" s="1" t="s">
         <v>5</v>
       </c>
@@ -7159,7 +8021,7 @@
         <v>61</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D287" s="1" t="s">
         <v>296</v>
@@ -7170,8 +8032,11 @@
       <c r="F287" s="5">
         <v>16</v>
       </c>
-    </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G287" s="4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7">
       <c r="A288" s="1" t="s">
         <v>5</v>
       </c>
@@ -7179,7 +8044,7 @@
         <v>61</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D288" s="1" t="s">
         <v>297</v>
@@ -7190,8 +8055,11 @@
       <c r="F288" s="5">
         <v>25</v>
       </c>
-    </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G288" s="4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7">
       <c r="A289" s="1" t="s">
         <v>5</v>
       </c>
@@ -7199,7 +8067,7 @@
         <v>61</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D289" s="1" t="s">
         <v>298</v>
@@ -7210,8 +8078,11 @@
       <c r="F289" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G289" s="4">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7">
       <c r="A290" s="1" t="s">
         <v>5</v>
       </c>
@@ -7219,7 +8090,7 @@
         <v>61</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D290" s="1" t="s">
         <v>299</v>
@@ -7230,8 +8101,11 @@
       <c r="F290" s="4">
         <v>20</v>
       </c>
-    </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G290" s="4">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7">
       <c r="A291" s="1" t="s">
         <v>5</v>
       </c>
@@ -7239,7 +8113,7 @@
         <v>62</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D291" s="1" t="s">
         <v>300</v>
@@ -7250,8 +8124,11 @@
       <c r="F291" s="5">
         <v>16</v>
       </c>
-    </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G291" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7">
       <c r="A292" s="1" t="s">
         <v>5</v>
       </c>
@@ -7259,7 +8136,7 @@
         <v>62</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D292" s="1" t="s">
         <v>301</v>
@@ -7270,8 +8147,11 @@
       <c r="F292" s="5">
         <v>25</v>
       </c>
-    </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G292" s="4">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7">
       <c r="A293" s="1" t="s">
         <v>5</v>
       </c>
@@ -7279,7 +8159,7 @@
         <v>62</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D293" s="1" t="s">
         <v>302</v>
@@ -7290,8 +8170,11 @@
       <c r="F293" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G293" s="4">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7">
       <c r="A294" s="1" t="s">
         <v>5</v>
       </c>
@@ -7299,7 +8182,7 @@
         <v>62</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D294" s="1" t="s">
         <v>303</v>
@@ -7310,8 +8193,11 @@
       <c r="F294" s="4">
         <v>20</v>
       </c>
-    </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G294" s="4">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7">
       <c r="A295" s="1" t="s">
         <v>5</v>
       </c>
@@ -7319,7 +8205,7 @@
         <v>63</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D295" s="1" t="s">
         <v>304</v>
@@ -7330,8 +8216,11 @@
       <c r="F295" s="5">
         <v>16</v>
       </c>
-    </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G295" s="4">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7">
       <c r="A296" s="1" t="s">
         <v>5</v>
       </c>
@@ -7339,7 +8228,7 @@
         <v>63</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D296" s="1" t="s">
         <v>305</v>
@@ -7350,8 +8239,11 @@
       <c r="F296" s="5">
         <v>25</v>
       </c>
-    </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G296" s="4">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7">
       <c r="A297" s="1" t="s">
         <v>5</v>
       </c>
@@ -7359,7 +8251,7 @@
         <v>63</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D297" s="1" t="s">
         <v>306</v>
@@ -7370,8 +8262,11 @@
       <c r="F297" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G297" s="4">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7">
       <c r="A298" s="1" t="s">
         <v>5</v>
       </c>
@@ -7379,7 +8274,7 @@
         <v>63</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D298" s="1" t="s">
         <v>307</v>
@@ -7390,8 +8285,11 @@
       <c r="F298" s="4">
         <v>20</v>
       </c>
-    </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G298" s="4">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7">
       <c r="A299" s="1" t="s">
         <v>5</v>
       </c>
@@ -7399,7 +8297,7 @@
         <v>64</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D299" s="1" t="s">
         <v>308</v>
@@ -7410,8 +8308,11 @@
       <c r="F299" s="5">
         <v>16</v>
       </c>
-    </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G299" s="4">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7">
       <c r="A300" s="1" t="s">
         <v>5</v>
       </c>
@@ -7419,7 +8320,7 @@
         <v>64</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D300" s="1" t="s">
         <v>309</v>
@@ -7430,8 +8331,11 @@
       <c r="F300" s="5">
         <v>25</v>
       </c>
-    </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G300" s="4">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7">
       <c r="A301" s="1" t="s">
         <v>5</v>
       </c>
@@ -7439,7 +8343,7 @@
         <v>64</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D301" s="1" t="s">
         <v>310</v>
@@ -7450,8 +8354,11 @@
       <c r="F301" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G301" s="4">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7">
       <c r="A302" s="1" t="s">
         <v>5</v>
       </c>
@@ -7459,7 +8366,7 @@
         <v>64</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D302" s="1" t="s">
         <v>311</v>
@@ -7470,8 +8377,11 @@
       <c r="F302" s="4">
         <v>20</v>
       </c>
-    </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G302" s="4">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7">
       <c r="A303" s="1" t="s">
         <v>5</v>
       </c>
@@ -7479,7 +8389,7 @@
         <v>65</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D303" s="1" t="s">
         <v>312</v>
@@ -7490,8 +8400,11 @@
       <c r="F303" s="5">
         <v>16</v>
       </c>
-    </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G303" s="4">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7">
       <c r="A304" s="1" t="s">
         <v>5</v>
       </c>
@@ -7499,7 +8412,7 @@
         <v>65</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D304" s="1" t="s">
         <v>313</v>
@@ -7510,8 +8423,11 @@
       <c r="F304" s="5">
         <v>25</v>
       </c>
-    </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G304" s="4">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7">
       <c r="A305" s="1" t="s">
         <v>5</v>
       </c>
@@ -7519,7 +8435,7 @@
         <v>65</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D305" s="1" t="s">
         <v>314</v>
@@ -7530,8 +8446,11 @@
       <c r="F305" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G305" s="4">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7">
       <c r="A306" s="1" t="s">
         <v>5</v>
       </c>
@@ -7539,7 +8458,7 @@
         <v>65</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D306" s="1" t="s">
         <v>315</v>
@@ -7550,8 +8469,11 @@
       <c r="F306" s="4">
         <v>20</v>
       </c>
-    </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G306" s="4">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7">
       <c r="A307" s="1" t="s">
         <v>5</v>
       </c>
@@ -7559,7 +8481,7 @@
         <v>66</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D307" s="1" t="s">
         <v>316</v>
@@ -7570,8 +8492,11 @@
       <c r="F307" s="5">
         <v>16</v>
       </c>
-    </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G307" s="4">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7">
       <c r="A308" s="1" t="s">
         <v>5</v>
       </c>
@@ -7579,7 +8504,7 @@
         <v>66</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D308" s="1" t="s">
         <v>317</v>
@@ -7590,8 +8515,11 @@
       <c r="F308" s="5">
         <v>25</v>
       </c>
-    </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G308" s="4">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7">
       <c r="A309" s="1" t="s">
         <v>5</v>
       </c>
@@ -7599,7 +8527,7 @@
         <v>66</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D309" s="1" t="s">
         <v>318</v>
@@ -7610,8 +8538,11 @@
       <c r="F309" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G309" s="4">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7">
       <c r="A310" s="1" t="s">
         <v>5</v>
       </c>
@@ -7619,7 +8550,7 @@
         <v>66</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D310" s="1" t="s">
         <v>319</v>
@@ -7630,8 +8561,11 @@
       <c r="F310" s="4">
         <v>20</v>
       </c>
-    </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G310" s="4">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7">
       <c r="A311" s="1" t="s">
         <v>5</v>
       </c>
@@ -7639,7 +8573,7 @@
         <v>67</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D311" s="1" t="s">
         <v>320</v>
@@ -7650,8 +8584,11 @@
       <c r="F311" s="5">
         <v>16</v>
       </c>
-    </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G311" s="4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7">
       <c r="A312" s="1" t="s">
         <v>5</v>
       </c>
@@ -7659,7 +8596,7 @@
         <v>67</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D312" s="1" t="s">
         <v>321</v>
@@ -7670,8 +8607,11 @@
       <c r="F312" s="5">
         <v>25</v>
       </c>
-    </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G312" s="4">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7">
       <c r="A313" s="1" t="s">
         <v>5</v>
       </c>
@@ -7679,7 +8619,7 @@
         <v>67</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D313" s="1" t="s">
         <v>322</v>
@@ -7690,8 +8630,11 @@
       <c r="F313" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G313" s="4">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7">
       <c r="A314" s="1" t="s">
         <v>5</v>
       </c>
@@ -7699,7 +8642,7 @@
         <v>67</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D314" s="1" t="s">
         <v>323</v>
@@ -7710,8 +8653,11 @@
       <c r="F314" s="4">
         <v>20</v>
       </c>
-    </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G314" s="4">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="315" spans="1:7">
       <c r="A315" s="1" t="s">
         <v>5</v>
       </c>
@@ -7719,7 +8665,7 @@
         <v>68</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D315" s="1" t="s">
         <v>324</v>
@@ -7730,8 +8676,11 @@
       <c r="F315" s="5">
         <v>16</v>
       </c>
-    </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G315" s="4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="316" spans="1:7">
       <c r="A316" s="1" t="s">
         <v>5</v>
       </c>
@@ -7739,7 +8688,7 @@
         <v>68</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D316" s="1" t="s">
         <v>325</v>
@@ -7750,8 +8699,11 @@
       <c r="F316" s="5">
         <v>25</v>
       </c>
-    </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G316" s="4">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7">
       <c r="A317" s="1" t="s">
         <v>5</v>
       </c>
@@ -7759,7 +8711,7 @@
         <v>68</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D317" s="1" t="s">
         <v>326</v>
@@ -7770,8 +8722,11 @@
       <c r="F317" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G317" s="4">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="318" spans="1:7">
       <c r="A318" s="1" t="s">
         <v>5</v>
       </c>
@@ -7779,7 +8734,7 @@
         <v>68</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D318" s="1" t="s">
         <v>327</v>
@@ -7790,8 +8745,11 @@
       <c r="F318" s="4">
         <v>20</v>
       </c>
-    </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G318" s="4">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="319" spans="1:7">
       <c r="A319" s="1" t="s">
         <v>5</v>
       </c>
@@ -7799,7 +8757,7 @@
         <v>69</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D319" s="1" t="s">
         <v>328</v>
@@ -7810,8 +8768,11 @@
       <c r="F319" s="5">
         <v>16</v>
       </c>
-    </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G319" s="4">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="320" spans="1:7">
       <c r="A320" s="1" t="s">
         <v>5</v>
       </c>
@@ -7819,7 +8780,7 @@
         <v>69</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D320" s="1" t="s">
         <v>329</v>
@@ -7830,8 +8791,11 @@
       <c r="F320" s="5">
         <v>25</v>
       </c>
-    </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G320" s="4">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="321" spans="1:7">
       <c r="A321" s="1" t="s">
         <v>5</v>
       </c>
@@ -7839,7 +8803,7 @@
         <v>69</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D321" s="1" t="s">
         <v>330</v>
@@ -7850,8 +8814,11 @@
       <c r="F321" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G321" s="4">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="322" spans="1:7">
       <c r="A322" s="1" t="s">
         <v>5</v>
       </c>
@@ -7859,7 +8826,7 @@
         <v>69</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D322" s="1" t="s">
         <v>331</v>
@@ -7870,8 +8837,11 @@
       <c r="F322" s="4">
         <v>20</v>
       </c>
-    </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G322" s="4">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="323" spans="1:7">
       <c r="A323" s="1" t="s">
         <v>5</v>
       </c>
@@ -7879,7 +8849,7 @@
         <v>70</v>
       </c>
       <c r="C323" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D323" s="1" t="s">
         <v>332</v>
@@ -7890,8 +8860,11 @@
       <c r="F323" s="5">
         <v>16</v>
       </c>
-    </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G323" s="4">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="324" spans="1:7">
       <c r="A324" s="1" t="s">
         <v>5</v>
       </c>
@@ -7899,7 +8872,7 @@
         <v>70</v>
       </c>
       <c r="C324" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D324" s="1" t="s">
         <v>333</v>
@@ -7910,8 +8883,11 @@
       <c r="F324" s="5">
         <v>25</v>
       </c>
-    </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G324" s="4">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="325" spans="1:7">
       <c r="A325" s="1" t="s">
         <v>5</v>
       </c>
@@ -7919,7 +8895,7 @@
         <v>70</v>
       </c>
       <c r="C325" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D325" s="1" t="s">
         <v>334</v>
@@ -7930,8 +8906,11 @@
       <c r="F325" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G325" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="326" spans="1:7">
       <c r="A326" s="1" t="s">
         <v>5</v>
       </c>
@@ -7939,7 +8918,7 @@
         <v>70</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D326" s="1" t="s">
         <v>335</v>
@@ -7950,8 +8929,11 @@
       <c r="F326" s="4">
         <v>20</v>
       </c>
-    </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G326" s="4">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="327" spans="1:7">
       <c r="A327" s="1" t="s">
         <v>5</v>
       </c>
@@ -7959,7 +8941,7 @@
         <v>71</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D327" s="1" t="s">
         <v>11</v>
@@ -7970,8 +8952,11 @@
       <c r="F327" s="5">
         <v>16</v>
       </c>
-    </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G327" s="4">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="328" spans="1:7">
       <c r="A328" s="1" t="s">
         <v>5</v>
       </c>
@@ -7979,7 +8964,7 @@
         <v>71</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D328" s="1" t="s">
         <v>12</v>
@@ -7990,8 +8975,11 @@
       <c r="F328" s="5">
         <v>25</v>
       </c>
-    </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G328" s="4">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="329" spans="1:7">
       <c r="A329" s="1" t="s">
         <v>5</v>
       </c>
@@ -7999,7 +8987,7 @@
         <v>71</v>
       </c>
       <c r="C329" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D329" s="1" t="s">
         <v>13</v>
@@ -8010,8 +8998,11 @@
       <c r="F329" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G329" s="4">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="330" spans="1:7">
       <c r="A330" s="1" t="s">
         <v>5</v>
       </c>
@@ -8019,7 +9010,7 @@
         <v>71</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D330" s="1" t="s">
         <v>14</v>
@@ -8029,6 +9020,9 @@
       </c>
       <c r="F330" s="4">
         <v>20</v>
+      </c>
+      <c r="G330" s="4">
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/info/count1.xlsx
+++ b/info/count1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/placenameday/R study/yajuan_phd/info/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2816D683-1405-F74F-AAD5-487385A15774}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C1D8EBC-3BE9-AF49-8C6C-A775E2D47D40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-34380" yWindow="5780" windowWidth="26920" windowHeight="20620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1051,9 +1051,6 @@
     <t>participants</t>
   </si>
   <si>
-    <t>trial</t>
-  </si>
-  <si>
     <t>target1_g</t>
   </si>
   <si>
@@ -1079,6 +1076,10 @@
   </si>
   <si>
     <t>words</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>block</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1422,7 +1423,7 @@
   <dimension ref="A1:G330"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="168" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1440,22 +1441,22 @@
         <v>336</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="1" t="s">
         <v>344</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1808,7 +1809,7 @@
         <v>5</v>
       </c>
       <c r="B17" s="2">
-        <v>3.6071428571428599</v>
+        <v>3</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>1</v>
@@ -1831,7 +1832,7 @@
         <v>5</v>
       </c>
       <c r="B18" s="2">
-        <v>3.78571428571429</v>
+        <v>3</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>2</v>
@@ -1854,7 +1855,7 @@
         <v>5</v>
       </c>
       <c r="B19" s="2">
-        <v>3.96428571428571</v>
+        <v>3</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>3</v>
@@ -1900,7 +1901,7 @@
         <v>5</v>
       </c>
       <c r="B21" s="2">
-        <v>4.1428571428571397</v>
+        <v>4</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>4</v>
@@ -6641,7 +6642,7 @@
         <v>46</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D227" s="1" t="s">
         <v>236</v>
@@ -6664,7 +6665,7 @@
         <v>46</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D228" s="1" t="s">
         <v>237</v>
@@ -6687,7 +6688,7 @@
         <v>46</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D229" s="1" t="s">
         <v>238</v>
@@ -6710,7 +6711,7 @@
         <v>46</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D230" s="1" t="s">
         <v>239</v>
@@ -6733,7 +6734,7 @@
         <v>47</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D231" s="1" t="s">
         <v>240</v>
@@ -6756,7 +6757,7 @@
         <v>47</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D232" s="1" t="s">
         <v>241</v>
@@ -6779,7 +6780,7 @@
         <v>47</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D233" s="1" t="s">
         <v>242</v>
@@ -6802,7 +6803,7 @@
         <v>47</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D234" s="1" t="s">
         <v>243</v>
@@ -6825,7 +6826,7 @@
         <v>48</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D235" s="1" t="s">
         <v>244</v>
@@ -6848,7 +6849,7 @@
         <v>48</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D236" s="1" t="s">
         <v>245</v>
@@ -6871,7 +6872,7 @@
         <v>48</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D237" s="1" t="s">
         <v>246</v>
@@ -6894,7 +6895,7 @@
         <v>48</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D238" s="1" t="s">
         <v>247</v>
@@ -6917,7 +6918,7 @@
         <v>49</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D239" s="1" t="s">
         <v>248</v>
@@ -6940,7 +6941,7 @@
         <v>49</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D240" s="1" t="s">
         <v>249</v>
@@ -6963,7 +6964,7 @@
         <v>49</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D241" s="1" t="s">
         <v>250</v>
@@ -6986,7 +6987,7 @@
         <v>49</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D242" s="1" t="s">
         <v>251</v>
@@ -7009,7 +7010,7 @@
         <v>50</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D243" s="1" t="s">
         <v>252</v>
@@ -7032,7 +7033,7 @@
         <v>50</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D244" s="1" t="s">
         <v>253</v>
@@ -7055,7 +7056,7 @@
         <v>50</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D245" s="1" t="s">
         <v>254</v>
@@ -7078,7 +7079,7 @@
         <v>50</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D246" s="1" t="s">
         <v>255</v>
@@ -7101,7 +7102,7 @@
         <v>51</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D247" s="1" t="s">
         <v>256</v>
@@ -7124,7 +7125,7 @@
         <v>51</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D248" s="1" t="s">
         <v>257</v>
@@ -7147,7 +7148,7 @@
         <v>51</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D249" s="1" t="s">
         <v>258</v>
@@ -7170,7 +7171,7 @@
         <v>51</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D250" s="1" t="s">
         <v>259</v>
@@ -7193,7 +7194,7 @@
         <v>52</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D251" s="1" t="s">
         <v>260</v>
@@ -7216,7 +7217,7 @@
         <v>52</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D252" s="1" t="s">
         <v>261</v>
@@ -7239,7 +7240,7 @@
         <v>52</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D253" s="1" t="s">
         <v>262</v>
@@ -7262,7 +7263,7 @@
         <v>52</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D254" s="1" t="s">
         <v>263</v>
@@ -7285,7 +7286,7 @@
         <v>53</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D255" s="1" t="s">
         <v>264</v>
@@ -7308,7 +7309,7 @@
         <v>53</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D256" s="1" t="s">
         <v>265</v>
@@ -7331,7 +7332,7 @@
         <v>53</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D257" s="1" t="s">
         <v>266</v>
@@ -7354,7 +7355,7 @@
         <v>53</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D258" s="1" t="s">
         <v>267</v>
@@ -7377,7 +7378,7 @@
         <v>54</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D259" s="1" t="s">
         <v>268</v>
@@ -7400,7 +7401,7 @@
         <v>54</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D260" s="1" t="s">
         <v>269</v>
@@ -7423,7 +7424,7 @@
         <v>54</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D261" s="1" t="s">
         <v>270</v>
@@ -7446,7 +7447,7 @@
         <v>54</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D262" s="1" t="s">
         <v>271</v>
@@ -7469,7 +7470,7 @@
         <v>55</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D263" s="1" t="s">
         <v>272</v>
@@ -7492,7 +7493,7 @@
         <v>55</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D264" s="1" t="s">
         <v>273</v>
@@ -7515,7 +7516,7 @@
         <v>55</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D265" s="1" t="s">
         <v>274</v>
@@ -7538,7 +7539,7 @@
         <v>55</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D266" s="1" t="s">
         <v>275</v>
@@ -7561,7 +7562,7 @@
         <v>56</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D267" s="1" t="s">
         <v>276</v>
@@ -7584,7 +7585,7 @@
         <v>56</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D268" s="1" t="s">
         <v>277</v>
@@ -7607,7 +7608,7 @@
         <v>56</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D269" s="1" t="s">
         <v>278</v>
@@ -7630,7 +7631,7 @@
         <v>56</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D270" s="1" t="s">
         <v>279</v>
@@ -7653,7 +7654,7 @@
         <v>57</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D271" s="1" t="s">
         <v>280</v>
@@ -7676,7 +7677,7 @@
         <v>57</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D272" s="1" t="s">
         <v>281</v>
@@ -7699,7 +7700,7 @@
         <v>57</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D273" s="1" t="s">
         <v>282</v>
@@ -7722,7 +7723,7 @@
         <v>57</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D274" s="1" t="s">
         <v>283</v>
@@ -7745,7 +7746,7 @@
         <v>58</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D275" s="1" t="s">
         <v>284</v>
@@ -7768,7 +7769,7 @@
         <v>58</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D276" s="1" t="s">
         <v>285</v>
@@ -7791,7 +7792,7 @@
         <v>58</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D277" s="1" t="s">
         <v>286</v>
@@ -7814,7 +7815,7 @@
         <v>58</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D278" s="1" t="s">
         <v>287</v>
@@ -7837,7 +7838,7 @@
         <v>59</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D279" s="1" t="s">
         <v>288</v>
@@ -7860,7 +7861,7 @@
         <v>59</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D280" s="1" t="s">
         <v>289</v>
@@ -7883,7 +7884,7 @@
         <v>59</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D281" s="1" t="s">
         <v>290</v>
@@ -7906,7 +7907,7 @@
         <v>59</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D282" s="1" t="s">
         <v>291</v>
@@ -7929,7 +7930,7 @@
         <v>60</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D283" s="1" t="s">
         <v>292</v>
@@ -7952,7 +7953,7 @@
         <v>60</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D284" s="1" t="s">
         <v>293</v>
@@ -7975,7 +7976,7 @@
         <v>60</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D285" s="1" t="s">
         <v>294</v>
@@ -7998,7 +7999,7 @@
         <v>60</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D286" s="1" t="s">
         <v>295</v>
@@ -8021,7 +8022,7 @@
         <v>61</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D287" s="1" t="s">
         <v>296</v>
@@ -8044,7 +8045,7 @@
         <v>61</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D288" s="1" t="s">
         <v>297</v>
@@ -8067,7 +8068,7 @@
         <v>61</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D289" s="1" t="s">
         <v>298</v>
@@ -8090,7 +8091,7 @@
         <v>61</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D290" s="1" t="s">
         <v>299</v>
@@ -8113,7 +8114,7 @@
         <v>62</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D291" s="1" t="s">
         <v>300</v>
@@ -8136,7 +8137,7 @@
         <v>62</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D292" s="1" t="s">
         <v>301</v>
@@ -8159,7 +8160,7 @@
         <v>62</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D293" s="1" t="s">
         <v>302</v>
@@ -8182,7 +8183,7 @@
         <v>62</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D294" s="1" t="s">
         <v>303</v>
@@ -8205,7 +8206,7 @@
         <v>63</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D295" s="1" t="s">
         <v>304</v>
@@ -8228,7 +8229,7 @@
         <v>63</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D296" s="1" t="s">
         <v>305</v>
@@ -8251,7 +8252,7 @@
         <v>63</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D297" s="1" t="s">
         <v>306</v>
@@ -8274,7 +8275,7 @@
         <v>63</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D298" s="1" t="s">
         <v>307</v>
@@ -8297,7 +8298,7 @@
         <v>64</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D299" s="1" t="s">
         <v>308</v>
@@ -8320,7 +8321,7 @@
         <v>64</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D300" s="1" t="s">
         <v>309</v>
@@ -8343,7 +8344,7 @@
         <v>64</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D301" s="1" t="s">
         <v>310</v>
@@ -8366,7 +8367,7 @@
         <v>64</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D302" s="1" t="s">
         <v>311</v>
@@ -8389,7 +8390,7 @@
         <v>65</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D303" s="1" t="s">
         <v>312</v>
@@ -8412,7 +8413,7 @@
         <v>65</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D304" s="1" t="s">
         <v>313</v>
@@ -8435,7 +8436,7 @@
         <v>65</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D305" s="1" t="s">
         <v>314</v>
@@ -8458,7 +8459,7 @@
         <v>65</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D306" s="1" t="s">
         <v>315</v>
@@ -8481,7 +8482,7 @@
         <v>66</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D307" s="1" t="s">
         <v>316</v>
@@ -8504,7 +8505,7 @@
         <v>66</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D308" s="1" t="s">
         <v>317</v>
@@ -8527,7 +8528,7 @@
         <v>66</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D309" s="1" t="s">
         <v>318</v>
@@ -8550,7 +8551,7 @@
         <v>66</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D310" s="1" t="s">
         <v>319</v>
@@ -8573,7 +8574,7 @@
         <v>67</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D311" s="1" t="s">
         <v>320</v>
@@ -8596,7 +8597,7 @@
         <v>67</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D312" s="1" t="s">
         <v>321</v>
@@ -8619,7 +8620,7 @@
         <v>67</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D313" s="1" t="s">
         <v>322</v>
@@ -8642,7 +8643,7 @@
         <v>67</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D314" s="1" t="s">
         <v>323</v>
@@ -8665,7 +8666,7 @@
         <v>68</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D315" s="1" t="s">
         <v>324</v>
@@ -8688,7 +8689,7 @@
         <v>68</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D316" s="1" t="s">
         <v>325</v>
@@ -8711,7 +8712,7 @@
         <v>68</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D317" s="1" t="s">
         <v>326</v>
@@ -8734,7 +8735,7 @@
         <v>68</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D318" s="1" t="s">
         <v>327</v>
@@ -8757,7 +8758,7 @@
         <v>69</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D319" s="1" t="s">
         <v>328</v>
@@ -8780,7 +8781,7 @@
         <v>69</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D320" s="1" t="s">
         <v>329</v>
@@ -8803,7 +8804,7 @@
         <v>69</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D321" s="1" t="s">
         <v>330</v>
@@ -8826,7 +8827,7 @@
         <v>69</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D322" s="1" t="s">
         <v>331</v>
@@ -8849,7 +8850,7 @@
         <v>70</v>
       </c>
       <c r="C323" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D323" s="1" t="s">
         <v>332</v>
@@ -8872,7 +8873,7 @@
         <v>70</v>
       </c>
       <c r="C324" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D324" s="1" t="s">
         <v>333</v>
@@ -8895,7 +8896,7 @@
         <v>70</v>
       </c>
       <c r="C325" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D325" s="1" t="s">
         <v>334</v>
@@ -8918,7 +8919,7 @@
         <v>70</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D326" s="1" t="s">
         <v>335</v>
@@ -8941,7 +8942,7 @@
         <v>71</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D327" s="1" t="s">
         <v>11</v>
@@ -8964,7 +8965,7 @@
         <v>71</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D328" s="1" t="s">
         <v>12</v>
@@ -8987,7 +8988,7 @@
         <v>71</v>
       </c>
       <c r="C329" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D329" s="1" t="s">
         <v>13</v>
@@ -9010,7 +9011,7 @@
         <v>71</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D330" s="1" t="s">
         <v>14</v>

--- a/info/count1.xlsx
+++ b/info/count1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/placenameday/R study/yajuan_phd/info/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R\yajuan_phd\info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C1D8EBC-3BE9-AF49-8C6C-A775E2D47D40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EBB2809-9EAA-4644-BCCE-7B11C6F78A99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-34380" yWindow="5780" windowWidth="26920" windowHeight="20620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1087,11 +1087,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="176" formatCode="0_ "/>
+  <numFmts count="1">
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1127,15 +1126,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1423,24 +1418,24 @@
   <dimension ref="A1:G330"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="168" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="10.5" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="14.5" customWidth="1"/>
-    <col min="4" max="4" width="12.1640625" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="16.33203125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="10.46484375" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="14.46484375" customWidth="1"/>
+    <col min="4" max="4" width="12.1328125" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>345</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -1449,21 +1444,21 @@
       <c r="D1" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="2" t="s">
         <v>343</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="3">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -1472,21 +1467,21 @@
       <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="2">
         <v>95</v>
       </c>
-      <c r="F2" s="5">
-        <v>15</v>
-      </c>
-      <c r="G2" s="4">
+      <c r="F2" s="3">
+        <v>15</v>
+      </c>
+      <c r="G2" s="2">
         <v>110</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="3">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -1495,21 +1490,21 @@
       <c r="D3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="2">
         <v>99</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="3">
         <v>16</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="2">
         <v>115</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="3">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -1518,21 +1513,21 @@
       <c r="D4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="2">
         <v>99</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="3">
         <v>25</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="2">
         <v>124</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="3">
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -1541,21 +1536,21 @@
       <c r="D5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="2">
         <v>99</v>
       </c>
-      <c r="F5" s="5">
-        <v>15</v>
-      </c>
-      <c r="G5" s="4">
+      <c r="F5" s="3">
+        <v>15</v>
+      </c>
+      <c r="G5" s="2">
         <v>114</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="3">
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -1564,21 +1559,21 @@
       <c r="D6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="2">
         <v>99</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="2">
         <v>20</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="2">
         <v>119</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="3">
         <v>2</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -1587,21 +1582,21 @@
       <c r="D7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="2">
         <v>73</v>
       </c>
-      <c r="F7" s="5">
-        <v>15</v>
-      </c>
-      <c r="G7" s="4">
+      <c r="F7" s="3">
+        <v>15</v>
+      </c>
+      <c r="G7" s="2">
         <v>88</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="3">
         <v>2</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -1610,21 +1605,21 @@
       <c r="D8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="2">
         <v>76</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="3">
         <v>16</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="2">
         <v>92</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="3">
         <v>2</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -1633,21 +1628,21 @@
       <c r="D9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="2">
         <v>76</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="3">
         <v>25</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="2">
         <v>101</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="3">
         <v>2</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -1656,21 +1651,21 @@
       <c r="D10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="2">
         <v>76</v>
       </c>
-      <c r="F10" s="5">
-        <v>15</v>
-      </c>
-      <c r="G10" s="4">
+      <c r="F10" s="3">
+        <v>15</v>
+      </c>
+      <c r="G10" s="2">
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="3">
         <v>2</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -1679,21 +1674,21 @@
       <c r="D11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="2">
         <v>76</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="2">
         <v>20</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="2">
         <v>96</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="3">
         <v>3</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -1702,21 +1697,21 @@
       <c r="D12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="2">
         <v>96</v>
       </c>
-      <c r="F12" s="5">
-        <v>15</v>
-      </c>
-      <c r="G12" s="4">
+      <c r="F12" s="3">
+        <v>15</v>
+      </c>
+      <c r="G12" s="2">
         <v>111</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="3">
         <v>3</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -1725,21 +1720,21 @@
       <c r="D13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="2">
         <v>97</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="3">
         <v>16</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="2">
         <v>113</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="3">
         <v>3</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -1748,21 +1743,21 @@
       <c r="D14" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="2">
         <v>97</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="3">
         <v>25</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="2">
         <v>122</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="3">
         <v>3</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -1771,21 +1766,21 @@
       <c r="D15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="2">
         <v>97</v>
       </c>
-      <c r="F15" s="5">
-        <v>15</v>
-      </c>
-      <c r="G15" s="4">
+      <c r="F15" s="3">
+        <v>15</v>
+      </c>
+      <c r="G15" s="2">
         <v>112</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="3">
         <v>3</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -1794,22 +1789,22 @@
       <c r="D16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="2">
         <v>97</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="2">
         <v>20</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="2">
         <v>117</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="2">
-        <v>3</v>
+      <c r="B17" s="3">
+        <v>4</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>1</v>
@@ -1817,22 +1812,22 @@
       <c r="D17" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="2">
         <v>75</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F17" s="3">
         <v>16</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G17" s="2">
         <v>91</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="2">
-        <v>3</v>
+      <c r="B18" s="3">
+        <v>4</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>2</v>
@@ -1840,22 +1835,22 @@
       <c r="D18" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="2">
         <v>75</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F18" s="3">
         <v>25</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G18" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="2">
-        <v>3</v>
+      <c r="B19" s="3">
+        <v>4</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>3</v>
@@ -1863,21 +1858,21 @@
       <c r="D19" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="2">
         <v>75</v>
       </c>
-      <c r="F19" s="5">
-        <v>15</v>
-      </c>
-      <c r="G19" s="4">
+      <c r="F19" s="3">
+        <v>15</v>
+      </c>
+      <c r="G19" s="2">
         <v>90</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="3">
         <v>4</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -1886,21 +1881,21 @@
       <c r="D20" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="2">
         <v>77</v>
       </c>
-      <c r="F20" s="5">
-        <v>15</v>
-      </c>
-      <c r="G20" s="4">
+      <c r="F20" s="3">
+        <v>15</v>
+      </c>
+      <c r="G20" s="2">
         <v>92</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="3">
         <v>4</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -1909,22 +1904,22 @@
       <c r="D21" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="2">
         <v>75</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="2">
         <v>20</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G21" s="2">
         <v>95</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B22" s="2">
-        <v>4.5</v>
+      <c r="B22" s="3">
+        <v>5</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>1</v>
@@ -1932,22 +1927,22 @@
       <c r="D22" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22" s="2">
         <v>69</v>
       </c>
-      <c r="F22" s="5">
+      <c r="F22" s="3">
         <v>16</v>
       </c>
-      <c r="G22" s="4">
+      <c r="G22" s="2">
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="2">
-        <v>4.6785714285714297</v>
+      <c r="B23" s="3">
+        <v>5</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>2</v>
@@ -1955,22 +1950,22 @@
       <c r="D23" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E23" s="2">
         <v>69</v>
       </c>
-      <c r="F23" s="5">
+      <c r="F23" s="3">
         <v>25</v>
       </c>
-      <c r="G23" s="4">
+      <c r="G23" s="2">
         <v>94</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B24" s="2">
-        <v>4.8571428571428603</v>
+      <c r="B24" s="3">
+        <v>5</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>3</v>
@@ -1978,21 +1973,21 @@
       <c r="D24" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E24" s="2">
         <v>69</v>
       </c>
-      <c r="F24" s="5">
-        <v>15</v>
-      </c>
-      <c r="G24" s="4">
+      <c r="F24" s="3">
+        <v>15</v>
+      </c>
+      <c r="G24" s="2">
         <v>84</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="3">
         <v>5</v>
       </c>
       <c r="C25" s="1" t="s">
@@ -2001,22 +1996,22 @@
       <c r="D25" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E25" s="2">
         <v>71</v>
       </c>
-      <c r="F25" s="5">
-        <v>15</v>
-      </c>
-      <c r="G25" s="4">
+      <c r="F25" s="3">
+        <v>15</v>
+      </c>
+      <c r="G25" s="2">
         <v>86</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B26" s="2">
-        <v>5.03571428571429</v>
+      <c r="B26" s="3">
+        <v>5</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>4</v>
@@ -2024,21 +2019,21 @@
       <c r="D26" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E26" s="2">
         <v>69</v>
       </c>
-      <c r="F26" s="4">
+      <c r="F26" s="2">
         <v>20</v>
       </c>
-      <c r="G26" s="4">
+      <c r="G26" s="2">
         <v>89</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="3">
         <v>6</v>
       </c>
       <c r="C27" s="1" t="s">
@@ -2047,21 +2042,21 @@
       <c r="D27" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E27" s="4">
+      <c r="E27" s="2">
         <v>72</v>
       </c>
-      <c r="F27" s="5">
-        <v>15</v>
-      </c>
-      <c r="G27" s="4">
+      <c r="F27" s="3">
+        <v>15</v>
+      </c>
+      <c r="G27" s="2">
         <v>87</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" s="3">
         <v>6</v>
       </c>
       <c r="C28" s="1" t="s">
@@ -2070,21 +2065,21 @@
       <c r="D28" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E28" s="4">
+      <c r="E28" s="2">
         <v>69</v>
       </c>
-      <c r="F28" s="5">
+      <c r="F28" s="3">
         <v>16</v>
       </c>
-      <c r="G28" s="4">
+      <c r="G28" s="2">
         <v>85</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29" s="3">
         <v>6</v>
       </c>
       <c r="C29" s="1" t="s">
@@ -2093,21 +2088,21 @@
       <c r="D29" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E29" s="4">
+      <c r="E29" s="2">
         <v>69</v>
       </c>
-      <c r="F29" s="5">
+      <c r="F29" s="3">
         <v>25</v>
       </c>
-      <c r="G29" s="4">
+      <c r="G29" s="2">
         <v>94</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30" s="3">
         <v>6</v>
       </c>
       <c r="C30" s="1" t="s">
@@ -2116,21 +2111,21 @@
       <c r="D30" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E30" s="4">
+      <c r="E30" s="2">
         <v>69</v>
       </c>
-      <c r="F30" s="5">
-        <v>15</v>
-      </c>
-      <c r="G30" s="4">
+      <c r="F30" s="3">
+        <v>15</v>
+      </c>
+      <c r="G30" s="2">
         <v>84</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A31" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31" s="3">
         <v>6</v>
       </c>
       <c r="C31" s="1" t="s">
@@ -2139,21 +2134,21 @@
       <c r="D31" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E31" s="4">
+      <c r="E31" s="2">
         <v>69</v>
       </c>
-      <c r="F31" s="4">
+      <c r="F31" s="2">
         <v>20</v>
       </c>
-      <c r="G31" s="4">
+      <c r="G31" s="2">
         <v>89</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A32" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32" s="3">
         <v>7</v>
       </c>
       <c r="C32" s="1" t="s">
@@ -2162,21 +2157,21 @@
       <c r="D32" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E32" s="4">
+      <c r="E32" s="2">
         <v>99</v>
       </c>
-      <c r="F32" s="5">
-        <v>15</v>
-      </c>
-      <c r="G32" s="4">
+      <c r="F32" s="3">
+        <v>15</v>
+      </c>
+      <c r="G32" s="2">
         <v>114</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A33" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B33" s="3">
         <v>7</v>
       </c>
       <c r="C33" s="1" t="s">
@@ -2185,21 +2180,21 @@
       <c r="D33" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E33" s="4">
+      <c r="E33" s="2">
         <v>100</v>
       </c>
-      <c r="F33" s="5">
+      <c r="F33" s="3">
         <v>16</v>
       </c>
-      <c r="G33" s="4">
+      <c r="G33" s="2">
         <v>116</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A34" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B34" s="3">
         <v>7</v>
       </c>
       <c r="C34" s="1" t="s">
@@ -2208,21 +2203,21 @@
       <c r="D34" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E34" s="4">
+      <c r="E34" s="2">
         <v>100</v>
       </c>
-      <c r="F34" s="5">
+      <c r="F34" s="3">
         <v>25</v>
       </c>
-      <c r="G34" s="4">
+      <c r="G34" s="2">
         <v>125</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A35" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B35" s="3">
         <v>7</v>
       </c>
       <c r="C35" s="1" t="s">
@@ -2231,21 +2226,21 @@
       <c r="D35" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E35" s="4">
+      <c r="E35" s="2">
         <v>100</v>
       </c>
-      <c r="F35" s="5">
-        <v>15</v>
-      </c>
-      <c r="G35" s="4">
+      <c r="F35" s="3">
+        <v>15</v>
+      </c>
+      <c r="G35" s="2">
         <v>115</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A36" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B36" s="3">
         <v>7</v>
       </c>
       <c r="C36" s="1" t="s">
@@ -2254,21 +2249,21 @@
       <c r="D36" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E36" s="4">
+      <c r="E36" s="2">
         <v>100</v>
       </c>
-      <c r="F36" s="4">
+      <c r="F36" s="2">
         <v>20</v>
       </c>
-      <c r="G36" s="4">
+      <c r="G36" s="2">
         <v>120</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A37" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B37" s="2">
+      <c r="B37" s="3">
         <v>8</v>
       </c>
       <c r="C37" s="1" t="s">
@@ -2277,21 +2272,21 @@
       <c r="D37" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E37" s="4">
+      <c r="E37" s="2">
         <v>95</v>
       </c>
-      <c r="F37" s="5">
-        <v>15</v>
-      </c>
-      <c r="G37" s="4">
+      <c r="F37" s="3">
+        <v>15</v>
+      </c>
+      <c r="G37" s="2">
         <v>110</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A38" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B38" s="2">
+      <c r="B38" s="3">
         <v>8</v>
       </c>
       <c r="C38" s="1" t="s">
@@ -2300,21 +2295,21 @@
       <c r="D38" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E38" s="4">
+      <c r="E38" s="2">
         <v>94</v>
       </c>
-      <c r="F38" s="5">
+      <c r="F38" s="3">
         <v>16</v>
       </c>
-      <c r="G38" s="4">
+      <c r="G38" s="2">
         <v>110</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A39" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B39" s="2">
+      <c r="B39" s="3">
         <v>8</v>
       </c>
       <c r="C39" s="1" t="s">
@@ -2323,21 +2318,21 @@
       <c r="D39" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E39" s="4">
+      <c r="E39" s="2">
         <v>94</v>
       </c>
-      <c r="F39" s="5">
+      <c r="F39" s="3">
         <v>25</v>
       </c>
-      <c r="G39" s="4">
+      <c r="G39" s="2">
         <v>119</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A40" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B40" s="2">
+      <c r="B40" s="3">
         <v>8</v>
       </c>
       <c r="C40" s="1" t="s">
@@ -2346,21 +2341,21 @@
       <c r="D40" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E40" s="4">
+      <c r="E40" s="2">
         <v>94</v>
       </c>
-      <c r="F40" s="5">
-        <v>15</v>
-      </c>
-      <c r="G40" s="4">
+      <c r="F40" s="3">
+        <v>15</v>
+      </c>
+      <c r="G40" s="2">
         <v>109</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A41" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B41" s="2">
+      <c r="B41" s="3">
         <v>8</v>
       </c>
       <c r="C41" s="1" t="s">
@@ -2369,21 +2364,21 @@
       <c r="D41" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E41" s="4">
+      <c r="E41" s="2">
         <v>94</v>
       </c>
-      <c r="F41" s="4">
+      <c r="F41" s="2">
         <v>20</v>
       </c>
-      <c r="G41" s="4">
+      <c r="G41" s="2">
         <v>114</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A42" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B42" s="2">
+      <c r="B42" s="3">
         <v>9</v>
       </c>
       <c r="C42" s="1" t="s">
@@ -2392,21 +2387,21 @@
       <c r="D42" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E42" s="4">
+      <c r="E42" s="2">
         <v>65</v>
       </c>
-      <c r="F42" s="5">
-        <v>15</v>
-      </c>
-      <c r="G42" s="4">
+      <c r="F42" s="3">
+        <v>15</v>
+      </c>
+      <c r="G42" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A43" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B43" s="2">
+      <c r="B43" s="3">
         <v>9</v>
       </c>
       <c r="C43" s="1" t="s">
@@ -2415,21 +2410,21 @@
       <c r="D43" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E43" s="4">
+      <c r="E43" s="2">
         <v>58</v>
       </c>
-      <c r="F43" s="5">
+      <c r="F43" s="3">
         <v>16</v>
       </c>
-      <c r="G43" s="4">
+      <c r="G43" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A44" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B44" s="2">
+      <c r="B44" s="3">
         <v>9</v>
       </c>
       <c r="C44" s="1" t="s">
@@ -2438,21 +2433,21 @@
       <c r="D44" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E44" s="4">
+      <c r="E44" s="2">
         <v>58</v>
       </c>
-      <c r="F44" s="5">
+      <c r="F44" s="3">
         <v>25</v>
       </c>
-      <c r="G44" s="4">
+      <c r="G44" s="2">
         <v>83</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A45" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B45" s="2">
+      <c r="B45" s="3">
         <v>9</v>
       </c>
       <c r="C45" s="1" t="s">
@@ -2461,21 +2456,21 @@
       <c r="D45" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E45" s="4">
+      <c r="E45" s="2">
         <v>58</v>
       </c>
-      <c r="F45" s="5">
-        <v>15</v>
-      </c>
-      <c r="G45" s="4">
+      <c r="F45" s="3">
+        <v>15</v>
+      </c>
+      <c r="G45" s="2">
         <v>73</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A46" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B46" s="2">
+      <c r="B46" s="3">
         <v>9</v>
       </c>
       <c r="C46" s="1" t="s">
@@ -2484,21 +2479,21 @@
       <c r="D46" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E46" s="4">
+      <c r="E46" s="2">
         <v>58</v>
       </c>
-      <c r="F46" s="4">
+      <c r="F46" s="2">
         <v>20</v>
       </c>
-      <c r="G46" s="4">
+      <c r="G46" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A47" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B47" s="2">
+      <c r="B47" s="3">
         <v>10</v>
       </c>
       <c r="C47" s="1" t="s">
@@ -2507,21 +2502,21 @@
       <c r="D47" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E47" s="4">
+      <c r="E47" s="2">
         <v>74</v>
       </c>
-      <c r="F47" s="5">
-        <v>15</v>
-      </c>
-      <c r="G47" s="4">
+      <c r="F47" s="3">
+        <v>15</v>
+      </c>
+      <c r="G47" s="2">
         <v>89</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A48" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B48" s="2">
+      <c r="B48" s="3">
         <v>10</v>
       </c>
       <c r="C48" s="1" t="s">
@@ -2530,21 +2525,21 @@
       <c r="D48" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E48" s="4">
+      <c r="E48" s="2">
         <v>77</v>
       </c>
-      <c r="F48" s="5">
+      <c r="F48" s="3">
         <v>16</v>
       </c>
-      <c r="G48" s="4">
+      <c r="G48" s="2">
         <v>93</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A49" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B49" s="2">
+      <c r="B49" s="3">
         <v>10</v>
       </c>
       <c r="C49" s="1" t="s">
@@ -2553,21 +2548,21 @@
       <c r="D49" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E49" s="4">
+      <c r="E49" s="2">
         <v>77</v>
       </c>
-      <c r="F49" s="5">
+      <c r="F49" s="3">
         <v>25</v>
       </c>
-      <c r="G49" s="4">
+      <c r="G49" s="2">
         <v>102</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A50" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B50" s="2">
+      <c r="B50" s="3">
         <v>10</v>
       </c>
       <c r="C50" s="1" t="s">
@@ -2576,21 +2571,21 @@
       <c r="D50" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E50" s="4">
+      <c r="E50" s="2">
         <v>77</v>
       </c>
-      <c r="F50" s="5">
-        <v>15</v>
-      </c>
-      <c r="G50" s="4">
+      <c r="F50" s="3">
+        <v>15</v>
+      </c>
+      <c r="G50" s="2">
         <v>92</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A51" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B51" s="2">
+      <c r="B51" s="3">
         <v>10</v>
       </c>
       <c r="C51" s="1" t="s">
@@ -2599,21 +2594,21 @@
       <c r="D51" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E51" s="4">
+      <c r="E51" s="2">
         <v>77</v>
       </c>
-      <c r="F51" s="4">
+      <c r="F51" s="2">
         <v>20</v>
       </c>
-      <c r="G51" s="4">
+      <c r="G51" s="2">
         <v>97</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A52" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B52" s="2">
+      <c r="B52" s="3">
         <v>11</v>
       </c>
       <c r="C52" s="1" t="s">
@@ -2622,21 +2617,21 @@
       <c r="D52" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E52" s="4">
+      <c r="E52" s="2">
         <v>97</v>
       </c>
-      <c r="F52" s="5">
-        <v>15</v>
-      </c>
-      <c r="G52" s="4">
+      <c r="F52" s="3">
+        <v>15</v>
+      </c>
+      <c r="G52" s="2">
         <v>112</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A53" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B53" s="2">
+      <c r="B53" s="3">
         <v>11</v>
       </c>
       <c r="C53" s="1" t="s">
@@ -2645,21 +2640,21 @@
       <c r="D53" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E53" s="4">
+      <c r="E53" s="2">
         <v>97</v>
       </c>
-      <c r="F53" s="5">
+      <c r="F53" s="3">
         <v>16</v>
       </c>
-      <c r="G53" s="4">
+      <c r="G53" s="2">
         <v>113</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A54" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B54" s="2">
+      <c r="B54" s="3">
         <v>11</v>
       </c>
       <c r="C54" s="1" t="s">
@@ -2668,21 +2663,21 @@
       <c r="D54" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E54" s="4">
+      <c r="E54" s="2">
         <v>97</v>
       </c>
-      <c r="F54" s="5">
+      <c r="F54" s="3">
         <v>25</v>
       </c>
-      <c r="G54" s="4">
+      <c r="G54" s="2">
         <v>122</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A55" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B55" s="2">
+      <c r="B55" s="3">
         <v>11</v>
       </c>
       <c r="C55" s="1" t="s">
@@ -2691,21 +2686,21 @@
       <c r="D55" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E55" s="4">
+      <c r="E55" s="2">
         <v>97</v>
       </c>
-      <c r="F55" s="5">
-        <v>15</v>
-      </c>
-      <c r="G55" s="4">
+      <c r="F55" s="3">
+        <v>15</v>
+      </c>
+      <c r="G55" s="2">
         <v>112</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A56" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B56" s="2">
+      <c r="B56" s="3">
         <v>11</v>
       </c>
       <c r="C56" s="1" t="s">
@@ -2714,21 +2709,21 @@
       <c r="D56" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E56" s="4">
+      <c r="E56" s="2">
         <v>97</v>
       </c>
-      <c r="F56" s="4">
+      <c r="F56" s="2">
         <v>20</v>
       </c>
-      <c r="G56" s="4">
+      <c r="G56" s="2">
         <v>117</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A57" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B57" s="2">
+      <c r="B57" s="3">
         <v>12</v>
       </c>
       <c r="C57" s="1" t="s">
@@ -2737,21 +2732,21 @@
       <c r="D57" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E57" s="4">
+      <c r="E57" s="2">
         <v>90</v>
       </c>
-      <c r="F57" s="5">
-        <v>15</v>
-      </c>
-      <c r="G57" s="4">
+      <c r="F57" s="3">
+        <v>15</v>
+      </c>
+      <c r="G57" s="2">
         <v>105</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A58" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B58" s="2">
+      <c r="B58" s="3">
         <v>12</v>
       </c>
       <c r="C58" s="1" t="s">
@@ -2760,21 +2755,21 @@
       <c r="D58" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E58" s="4">
+      <c r="E58" s="2">
         <v>91</v>
       </c>
-      <c r="F58" s="5">
+      <c r="F58" s="3">
         <v>16</v>
       </c>
-      <c r="G58" s="4">
+      <c r="G58" s="2">
         <v>107</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A59" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B59" s="2">
+      <c r="B59" s="3">
         <v>12</v>
       </c>
       <c r="C59" s="1" t="s">
@@ -2783,21 +2778,21 @@
       <c r="D59" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E59" s="4">
+      <c r="E59" s="2">
         <v>91</v>
       </c>
-      <c r="F59" s="5">
+      <c r="F59" s="3">
         <v>25</v>
       </c>
-      <c r="G59" s="4">
+      <c r="G59" s="2">
         <v>116</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A60" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B60" s="2">
+      <c r="B60" s="3">
         <v>12</v>
       </c>
       <c r="C60" s="1" t="s">
@@ -2806,21 +2801,21 @@
       <c r="D60" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E60" s="4">
+      <c r="E60" s="2">
         <v>91</v>
       </c>
-      <c r="F60" s="5">
-        <v>15</v>
-      </c>
-      <c r="G60" s="4">
+      <c r="F60" s="3">
+        <v>15</v>
+      </c>
+      <c r="G60" s="2">
         <v>106</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A61" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B61" s="2">
+      <c r="B61" s="3">
         <v>12</v>
       </c>
       <c r="C61" s="1" t="s">
@@ -2829,21 +2824,21 @@
       <c r="D61" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E61" s="4">
+      <c r="E61" s="2">
         <v>91</v>
       </c>
-      <c r="F61" s="4">
+      <c r="F61" s="2">
         <v>20</v>
       </c>
-      <c r="G61" s="4">
+      <c r="G61" s="2">
         <v>111</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A62" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B62" s="2">
+      <c r="B62" s="3">
         <v>13</v>
       </c>
       <c r="C62" s="1" t="s">
@@ -2852,21 +2847,21 @@
       <c r="D62" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E62" s="4">
+      <c r="E62" s="2">
         <v>137</v>
       </c>
-      <c r="F62" s="5">
-        <v>15</v>
-      </c>
-      <c r="G62" s="4">
+      <c r="F62" s="3">
+        <v>15</v>
+      </c>
+      <c r="G62" s="2">
         <v>152</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A63" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B63" s="2">
+      <c r="B63" s="3">
         <v>13</v>
       </c>
       <c r="C63" s="1" t="s">
@@ -2875,21 +2870,21 @@
       <c r="D63" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E63" s="4">
+      <c r="E63" s="2">
         <v>126</v>
       </c>
-      <c r="F63" s="5">
+      <c r="F63" s="3">
         <v>16</v>
       </c>
-      <c r="G63" s="4">
+      <c r="G63" s="2">
         <v>142</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A64" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B64" s="2">
+      <c r="B64" s="3">
         <v>13</v>
       </c>
       <c r="C64" s="1" t="s">
@@ -2898,21 +2893,21 @@
       <c r="D64" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E64" s="4">
+      <c r="E64" s="2">
         <v>126</v>
       </c>
-      <c r="F64" s="5">
+      <c r="F64" s="3">
         <v>25</v>
       </c>
-      <c r="G64" s="4">
+      <c r="G64" s="2">
         <v>151</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A65" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B65" s="2">
+      <c r="B65" s="3">
         <v>13</v>
       </c>
       <c r="C65" s="1" t="s">
@@ -2921,21 +2916,21 @@
       <c r="D65" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E65" s="4">
+      <c r="E65" s="2">
         <v>126</v>
       </c>
-      <c r="F65" s="5">
-        <v>15</v>
-      </c>
-      <c r="G65" s="4">
+      <c r="F65" s="3">
+        <v>15</v>
+      </c>
+      <c r="G65" s="2">
         <v>141</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A66" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B66" s="2">
+      <c r="B66" s="3">
         <v>13</v>
       </c>
       <c r="C66" s="1" t="s">
@@ -2944,21 +2939,21 @@
       <c r="D66" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E66" s="4">
+      <c r="E66" s="2">
         <v>126</v>
       </c>
-      <c r="F66" s="4">
+      <c r="F66" s="2">
         <v>20</v>
       </c>
-      <c r="G66" s="4">
+      <c r="G66" s="2">
         <v>146</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A67" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B67" s="2">
+      <c r="B67" s="3">
         <v>14</v>
       </c>
       <c r="C67" s="1" t="s">
@@ -2967,21 +2962,21 @@
       <c r="D67" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E67" s="4">
+      <c r="E67" s="2">
         <v>143</v>
       </c>
-      <c r="F67" s="5">
-        <v>15</v>
-      </c>
-      <c r="G67" s="4">
+      <c r="F67" s="3">
+        <v>15</v>
+      </c>
+      <c r="G67" s="2">
         <v>158</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A68" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B68" s="2">
+      <c r="B68" s="3">
         <v>14</v>
       </c>
       <c r="C68" s="1" t="s">
@@ -2990,21 +2985,21 @@
       <c r="D68" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E68" s="4">
+      <c r="E68" s="2">
         <v>134</v>
       </c>
-      <c r="F68" s="5">
+      <c r="F68" s="3">
         <v>16</v>
       </c>
-      <c r="G68" s="4">
+      <c r="G68" s="2">
         <v>150</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A69" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B69" s="2">
+      <c r="B69" s="3">
         <v>14</v>
       </c>
       <c r="C69" s="1" t="s">
@@ -3013,21 +3008,21 @@
       <c r="D69" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E69" s="4">
+      <c r="E69" s="2">
         <v>134</v>
       </c>
-      <c r="F69" s="5">
+      <c r="F69" s="3">
         <v>25</v>
       </c>
-      <c r="G69" s="4">
+      <c r="G69" s="2">
         <v>159</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A70" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B70" s="2">
+      <c r="B70" s="3">
         <v>14</v>
       </c>
       <c r="C70" s="1" t="s">
@@ -3036,21 +3031,21 @@
       <c r="D70" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E70" s="4">
+      <c r="E70" s="2">
         <v>134</v>
       </c>
-      <c r="F70" s="5">
-        <v>15</v>
-      </c>
-      <c r="G70" s="4">
+      <c r="F70" s="3">
+        <v>15</v>
+      </c>
+      <c r="G70" s="2">
         <v>149</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A71" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B71" s="2">
+      <c r="B71" s="3">
         <v>14</v>
       </c>
       <c r="C71" s="1" t="s">
@@ -3059,21 +3054,21 @@
       <c r="D71" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E71" s="4">
+      <c r="E71" s="2">
         <v>134</v>
       </c>
-      <c r="F71" s="4">
+      <c r="F71" s="2">
         <v>20</v>
       </c>
-      <c r="G71" s="4">
+      <c r="G71" s="2">
         <v>154</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A72" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B72" s="2">
+      <c r="B72" s="3">
         <v>15</v>
       </c>
       <c r="C72" s="1" t="s">
@@ -3082,21 +3077,21 @@
       <c r="D72" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="E72" s="4">
+      <c r="E72" s="2">
         <v>87</v>
       </c>
-      <c r="F72" s="5">
-        <v>15</v>
-      </c>
-      <c r="G72" s="4">
+      <c r="F72" s="3">
+        <v>15</v>
+      </c>
+      <c r="G72" s="2">
         <v>102</v>
       </c>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A73" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B73" s="2">
+      <c r="B73" s="3">
         <v>15</v>
       </c>
       <c r="C73" s="1" t="s">
@@ -3105,21 +3100,21 @@
       <c r="D73" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E73" s="4">
+      <c r="E73" s="2">
         <v>86</v>
       </c>
-      <c r="F73" s="5">
+      <c r="F73" s="3">
         <v>16</v>
       </c>
-      <c r="G73" s="4">
+      <c r="G73" s="2">
         <v>102</v>
       </c>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A74" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B74" s="2">
+      <c r="B74" s="3">
         <v>15</v>
       </c>
       <c r="C74" s="1" t="s">
@@ -3128,21 +3123,21 @@
       <c r="D74" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E74" s="4">
+      <c r="E74" s="2">
         <v>86</v>
       </c>
-      <c r="F74" s="5">
+      <c r="F74" s="3">
         <v>25</v>
       </c>
-      <c r="G74" s="4">
+      <c r="G74" s="2">
         <v>111</v>
       </c>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A75" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B75" s="2">
+      <c r="B75" s="3">
         <v>15</v>
       </c>
       <c r="C75" s="1" t="s">
@@ -3151,21 +3146,21 @@
       <c r="D75" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E75" s="4">
+      <c r="E75" s="2">
         <v>86</v>
       </c>
-      <c r="F75" s="5">
-        <v>15</v>
-      </c>
-      <c r="G75" s="4">
+      <c r="F75" s="3">
+        <v>15</v>
+      </c>
+      <c r="G75" s="2">
         <v>101</v>
       </c>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A76" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B76" s="2">
+      <c r="B76" s="3">
         <v>15</v>
       </c>
       <c r="C76" s="1" t="s">
@@ -3174,21 +3169,21 @@
       <c r="D76" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E76" s="4">
+      <c r="E76" s="2">
         <v>86</v>
       </c>
-      <c r="F76" s="4">
+      <c r="F76" s="2">
         <v>20</v>
       </c>
-      <c r="G76" s="4">
+      <c r="G76" s="2">
         <v>106</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A77" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B77" s="2">
+      <c r="B77" s="3">
         <v>16</v>
       </c>
       <c r="C77" s="1" t="s">
@@ -3197,21 +3192,21 @@
       <c r="D77" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E77" s="4">
+      <c r="E77" s="2">
         <v>75</v>
       </c>
-      <c r="F77" s="5">
-        <v>15</v>
-      </c>
-      <c r="G77" s="4">
+      <c r="F77" s="3">
+        <v>15</v>
+      </c>
+      <c r="G77" s="2">
         <v>90</v>
       </c>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A78" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B78" s="2">
+      <c r="B78" s="3">
         <v>16</v>
       </c>
       <c r="C78" s="1" t="s">
@@ -3220,21 +3215,21 @@
       <c r="D78" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E78" s="4">
+      <c r="E78" s="2">
         <v>69</v>
       </c>
-      <c r="F78" s="5">
+      <c r="F78" s="3">
         <v>16</v>
       </c>
-      <c r="G78" s="4">
+      <c r="G78" s="2">
         <v>85</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A79" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B79" s="2">
+      <c r="B79" s="3">
         <v>16</v>
       </c>
       <c r="C79" s="1" t="s">
@@ -3243,21 +3238,21 @@
       <c r="D79" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E79" s="4">
+      <c r="E79" s="2">
         <v>69</v>
       </c>
-      <c r="F79" s="5">
+      <c r="F79" s="3">
         <v>25</v>
       </c>
-      <c r="G79" s="4">
+      <c r="G79" s="2">
         <v>94</v>
       </c>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A80" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B80" s="2">
+      <c r="B80" s="3">
         <v>16</v>
       </c>
       <c r="C80" s="1" t="s">
@@ -3266,21 +3261,21 @@
       <c r="D80" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E80" s="4">
+      <c r="E80" s="2">
         <v>69</v>
       </c>
-      <c r="F80" s="5">
-        <v>15</v>
-      </c>
-      <c r="G80" s="4">
+      <c r="F80" s="3">
+        <v>15</v>
+      </c>
+      <c r="G80" s="2">
         <v>84</v>
       </c>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A81" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B81" s="2">
+      <c r="B81" s="3">
         <v>16</v>
       </c>
       <c r="C81" s="1" t="s">
@@ -3289,21 +3284,21 @@
       <c r="D81" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="E81" s="4">
+      <c r="E81" s="2">
         <v>69</v>
       </c>
-      <c r="F81" s="4">
+      <c r="F81" s="2">
         <v>20</v>
       </c>
-      <c r="G81" s="4">
+      <c r="G81" s="2">
         <v>89</v>
       </c>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A82" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B82" s="2">
+      <c r="B82" s="3">
         <v>17</v>
       </c>
       <c r="C82" s="1" t="s">
@@ -3312,21 +3307,21 @@
       <c r="D82" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E82" s="4">
+      <c r="E82" s="2">
         <v>85</v>
       </c>
-      <c r="F82" s="5">
-        <v>15</v>
-      </c>
-      <c r="G82" s="4">
+      <c r="F82" s="3">
+        <v>15</v>
+      </c>
+      <c r="G82" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A83" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B83" s="2">
+      <c r="B83" s="3">
         <v>17</v>
       </c>
       <c r="C83" s="1" t="s">
@@ -3335,21 +3330,21 @@
       <c r="D83" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E83" s="4">
+      <c r="E83" s="2">
         <v>83</v>
       </c>
-      <c r="F83" s="5">
+      <c r="F83" s="3">
         <v>16</v>
       </c>
-      <c r="G83" s="4">
+      <c r="G83" s="2">
         <v>99</v>
       </c>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A84" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B84" s="2">
+      <c r="B84" s="3">
         <v>17</v>
       </c>
       <c r="C84" s="1" t="s">
@@ -3358,21 +3353,21 @@
       <c r="D84" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E84" s="4">
+      <c r="E84" s="2">
         <v>83</v>
       </c>
-      <c r="F84" s="5">
+      <c r="F84" s="3">
         <v>25</v>
       </c>
-      <c r="G84" s="4">
+      <c r="G84" s="2">
         <v>108</v>
       </c>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A85" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B85" s="2">
+      <c r="B85" s="3">
         <v>17</v>
       </c>
       <c r="C85" s="1" t="s">
@@ -3381,21 +3376,21 @@
       <c r="D85" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E85" s="4">
+      <c r="E85" s="2">
         <v>83</v>
       </c>
-      <c r="F85" s="5">
-        <v>15</v>
-      </c>
-      <c r="G85" s="4">
+      <c r="F85" s="3">
+        <v>15</v>
+      </c>
+      <c r="G85" s="2">
         <v>98</v>
       </c>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A86" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B86" s="2">
+      <c r="B86" s="3">
         <v>17</v>
       </c>
       <c r="C86" s="1" t="s">
@@ -3404,21 +3399,21 @@
       <c r="D86" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E86" s="4">
+      <c r="E86" s="2">
         <v>83</v>
       </c>
-      <c r="F86" s="4">
+      <c r="F86" s="2">
         <v>20</v>
       </c>
-      <c r="G86" s="4">
+      <c r="G86" s="2">
         <v>103</v>
       </c>
     </row>
-    <row r="87" spans="1:7">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A87" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B87" s="2">
+      <c r="B87" s="3">
         <v>18</v>
       </c>
       <c r="C87" s="1" t="s">
@@ -3427,21 +3422,21 @@
       <c r="D87" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E87" s="4">
+      <c r="E87" s="2">
         <v>121</v>
       </c>
-      <c r="F87" s="5">
-        <v>15</v>
-      </c>
-      <c r="G87" s="4">
+      <c r="F87" s="3">
+        <v>15</v>
+      </c>
+      <c r="G87" s="2">
         <v>136</v>
       </c>
     </row>
-    <row r="88" spans="1:7">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A88" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B88" s="2">
+      <c r="B88" s="3">
         <v>18</v>
       </c>
       <c r="C88" s="1" t="s">
@@ -3450,21 +3445,21 @@
       <c r="D88" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="E88" s="4">
+      <c r="E88" s="2">
         <v>117</v>
       </c>
-      <c r="F88" s="5">
+      <c r="F88" s="3">
         <v>16</v>
       </c>
-      <c r="G88" s="4">
+      <c r="G88" s="2">
         <v>133</v>
       </c>
     </row>
-    <row r="89" spans="1:7">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A89" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B89" s="2">
+      <c r="B89" s="3">
         <v>18</v>
       </c>
       <c r="C89" s="1" t="s">
@@ -3473,21 +3468,21 @@
       <c r="D89" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E89" s="4">
+      <c r="E89" s="2">
         <v>117</v>
       </c>
-      <c r="F89" s="5">
+      <c r="F89" s="3">
         <v>25</v>
       </c>
-      <c r="G89" s="4">
+      <c r="G89" s="2">
         <v>142</v>
       </c>
     </row>
-    <row r="90" spans="1:7">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A90" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B90" s="2">
+      <c r="B90" s="3">
         <v>18</v>
       </c>
       <c r="C90" s="1" t="s">
@@ -3496,21 +3491,21 @@
       <c r="D90" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="E90" s="4">
+      <c r="E90" s="2">
         <v>117</v>
       </c>
-      <c r="F90" s="5">
-        <v>15</v>
-      </c>
-      <c r="G90" s="4">
+      <c r="F90" s="3">
+        <v>15</v>
+      </c>
+      <c r="G90" s="2">
         <v>132</v>
       </c>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A91" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B91" s="2">
+      <c r="B91" s="3">
         <v>18</v>
       </c>
       <c r="C91" s="1" t="s">
@@ -3519,21 +3514,21 @@
       <c r="D91" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="E91" s="4">
+      <c r="E91" s="2">
         <v>117</v>
       </c>
-      <c r="F91" s="4">
+      <c r="F91" s="2">
         <v>20</v>
       </c>
-      <c r="G91" s="4">
+      <c r="G91" s="2">
         <v>137</v>
       </c>
     </row>
-    <row r="92" spans="1:7">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A92" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B92" s="2">
+      <c r="B92" s="3">
         <v>19</v>
       </c>
       <c r="C92" s="1" t="s">
@@ -3542,21 +3537,21 @@
       <c r="D92" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="E92" s="4">
+      <c r="E92" s="2">
         <v>69</v>
       </c>
-      <c r="F92" s="5">
-        <v>15</v>
-      </c>
-      <c r="G92" s="4">
+      <c r="F92" s="3">
+        <v>15</v>
+      </c>
+      <c r="G92" s="2">
         <v>84</v>
       </c>
     </row>
-    <row r="93" spans="1:7">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A93" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B93" s="2">
+      <c r="B93" s="3">
         <v>19</v>
       </c>
       <c r="C93" s="1" t="s">
@@ -3565,21 +3560,21 @@
       <c r="D93" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E93" s="4">
+      <c r="E93" s="2">
         <v>74</v>
       </c>
-      <c r="F93" s="5">
+      <c r="F93" s="3">
         <v>16</v>
       </c>
-      <c r="G93" s="4">
+      <c r="G93" s="2">
         <v>90</v>
       </c>
     </row>
-    <row r="94" spans="1:7">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A94" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B94" s="2">
+      <c r="B94" s="3">
         <v>19</v>
       </c>
       <c r="C94" s="1" t="s">
@@ -3588,21 +3583,21 @@
       <c r="D94" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="E94" s="4">
+      <c r="E94" s="2">
         <v>74</v>
       </c>
-      <c r="F94" s="5">
+      <c r="F94" s="3">
         <v>25</v>
       </c>
-      <c r="G94" s="4">
+      <c r="G94" s="2">
         <v>99</v>
       </c>
     </row>
-    <row r="95" spans="1:7">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A95" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B95" s="2">
+      <c r="B95" s="3">
         <v>19</v>
       </c>
       <c r="C95" s="1" t="s">
@@ -3611,21 +3606,21 @@
       <c r="D95" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="E95" s="4">
+      <c r="E95" s="2">
         <v>74</v>
       </c>
-      <c r="F95" s="5">
-        <v>15</v>
-      </c>
-      <c r="G95" s="4">
+      <c r="F95" s="3">
+        <v>15</v>
+      </c>
+      <c r="G95" s="2">
         <v>89</v>
       </c>
     </row>
-    <row r="96" spans="1:7">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A96" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B96" s="2">
+      <c r="B96" s="3">
         <v>19</v>
       </c>
       <c r="C96" s="1" t="s">
@@ -3634,21 +3629,21 @@
       <c r="D96" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E96" s="4">
+      <c r="E96" s="2">
         <v>74</v>
       </c>
-      <c r="F96" s="4">
+      <c r="F96" s="2">
         <v>20</v>
       </c>
-      <c r="G96" s="4">
+      <c r="G96" s="2">
         <v>94</v>
       </c>
     </row>
-    <row r="97" spans="1:7">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A97" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B97" s="2">
+      <c r="B97" s="3">
         <v>20</v>
       </c>
       <c r="C97" s="1" t="s">
@@ -3657,21 +3652,21 @@
       <c r="D97" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="E97" s="4">
+      <c r="E97" s="2">
         <v>124</v>
       </c>
-      <c r="F97" s="5">
-        <v>15</v>
-      </c>
-      <c r="G97" s="4">
+      <c r="F97" s="3">
+        <v>15</v>
+      </c>
+      <c r="G97" s="2">
         <v>139</v>
       </c>
     </row>
-    <row r="98" spans="1:7">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A98" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B98" s="2">
+      <c r="B98" s="3">
         <v>20</v>
       </c>
       <c r="C98" s="1" t="s">
@@ -3680,21 +3675,21 @@
       <c r="D98" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="E98" s="4">
+      <c r="E98" s="2">
         <v>120</v>
       </c>
-      <c r="F98" s="5">
+      <c r="F98" s="3">
         <v>16</v>
       </c>
-      <c r="G98" s="4">
+      <c r="G98" s="2">
         <v>136</v>
       </c>
     </row>
-    <row r="99" spans="1:7">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A99" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B99" s="2">
+      <c r="B99" s="3">
         <v>20</v>
       </c>
       <c r="C99" s="1" t="s">
@@ -3703,21 +3698,21 @@
       <c r="D99" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E99" s="4">
+      <c r="E99" s="2">
         <v>120</v>
       </c>
-      <c r="F99" s="5">
+      <c r="F99" s="3">
         <v>25</v>
       </c>
-      <c r="G99" s="4">
+      <c r="G99" s="2">
         <v>145</v>
       </c>
     </row>
-    <row r="100" spans="1:7">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A100" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B100" s="2">
+      <c r="B100" s="3">
         <v>20</v>
       </c>
       <c r="C100" s="1" t="s">
@@ -3726,21 +3721,21 @@
       <c r="D100" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="E100" s="4">
+      <c r="E100" s="2">
         <v>120</v>
       </c>
-      <c r="F100" s="5">
-        <v>15</v>
-      </c>
-      <c r="G100" s="4">
+      <c r="F100" s="3">
+        <v>15</v>
+      </c>
+      <c r="G100" s="2">
         <v>135</v>
       </c>
     </row>
-    <row r="101" spans="1:7">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A101" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B101" s="2">
+      <c r="B101" s="3">
         <v>20</v>
       </c>
       <c r="C101" s="1" t="s">
@@ -3749,21 +3744,21 @@
       <c r="D101" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="E101" s="4">
+      <c r="E101" s="2">
         <v>120</v>
       </c>
-      <c r="F101" s="4">
+      <c r="F101" s="2">
         <v>20</v>
       </c>
-      <c r="G101" s="4">
+      <c r="G101" s="2">
         <v>140</v>
       </c>
     </row>
-    <row r="102" spans="1:7">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A102" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B102" s="2">
+      <c r="B102" s="3">
         <v>21</v>
       </c>
       <c r="C102" s="1" t="s">
@@ -3772,21 +3767,21 @@
       <c r="D102" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="E102" s="4">
+      <c r="E102" s="2">
         <v>123</v>
       </c>
-      <c r="F102" s="5">
-        <v>15</v>
-      </c>
-      <c r="G102" s="4">
+      <c r="F102" s="3">
+        <v>15</v>
+      </c>
+      <c r="G102" s="2">
         <v>138</v>
       </c>
     </row>
-    <row r="103" spans="1:7">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A103" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B103" s="2">
+      <c r="B103" s="3">
         <v>21</v>
       </c>
       <c r="C103" s="1" t="s">
@@ -3795,21 +3790,21 @@
       <c r="D103" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="E103" s="4">
+      <c r="E103" s="2">
         <v>114</v>
       </c>
-      <c r="F103" s="5">
+      <c r="F103" s="3">
         <v>16</v>
       </c>
-      <c r="G103" s="4">
+      <c r="G103" s="2">
         <v>130</v>
       </c>
     </row>
-    <row r="104" spans="1:7">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A104" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B104" s="2">
+      <c r="B104" s="3">
         <v>21</v>
       </c>
       <c r="C104" s="1" t="s">
@@ -3818,21 +3813,21 @@
       <c r="D104" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="E104" s="4">
+      <c r="E104" s="2">
         <v>114</v>
       </c>
-      <c r="F104" s="5">
+      <c r="F104" s="3">
         <v>25</v>
       </c>
-      <c r="G104" s="4">
+      <c r="G104" s="2">
         <v>139</v>
       </c>
     </row>
-    <row r="105" spans="1:7">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A105" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B105" s="2">
+      <c r="B105" s="3">
         <v>21</v>
       </c>
       <c r="C105" s="1" t="s">
@@ -3841,21 +3836,21 @@
       <c r="D105" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="E105" s="4">
+      <c r="E105" s="2">
         <v>114</v>
       </c>
-      <c r="F105" s="5">
-        <v>15</v>
-      </c>
-      <c r="G105" s="4">
+      <c r="F105" s="3">
+        <v>15</v>
+      </c>
+      <c r="G105" s="2">
         <v>129</v>
       </c>
     </row>
-    <row r="106" spans="1:7">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A106" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B106" s="2">
+      <c r="B106" s="3">
         <v>21</v>
       </c>
       <c r="C106" s="1" t="s">
@@ -3864,21 +3859,21 @@
       <c r="D106" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="E106" s="4">
+      <c r="E106" s="2">
         <v>114</v>
       </c>
-      <c r="F106" s="4">
+      <c r="F106" s="2">
         <v>20</v>
       </c>
-      <c r="G106" s="4">
+      <c r="G106" s="2">
         <v>134</v>
       </c>
     </row>
-    <row r="107" spans="1:7">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A107" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B107" s="2">
+      <c r="B107" s="3">
         <v>22</v>
       </c>
       <c r="C107" s="1" t="s">
@@ -3887,21 +3882,21 @@
       <c r="D107" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="E107" s="4">
+      <c r="E107" s="2">
         <v>74</v>
       </c>
-      <c r="F107" s="5">
-        <v>15</v>
-      </c>
-      <c r="G107" s="4">
+      <c r="F107" s="3">
+        <v>15</v>
+      </c>
+      <c r="G107" s="2">
         <v>89</v>
       </c>
     </row>
-    <row r="108" spans="1:7">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A108" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B108" s="2">
+      <c r="B108" s="3">
         <v>22</v>
       </c>
       <c r="C108" s="1" t="s">
@@ -3910,21 +3905,21 @@
       <c r="D108" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="E108" s="4">
+      <c r="E108" s="2">
         <v>73</v>
       </c>
-      <c r="F108" s="5">
+      <c r="F108" s="3">
         <v>16</v>
       </c>
-      <c r="G108" s="4">
+      <c r="G108" s="2">
         <v>89</v>
       </c>
     </row>
-    <row r="109" spans="1:7">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A109" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B109" s="2">
+      <c r="B109" s="3">
         <v>22</v>
       </c>
       <c r="C109" s="1" t="s">
@@ -3933,21 +3928,21 @@
       <c r="D109" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="E109" s="4">
+      <c r="E109" s="2">
         <v>73</v>
       </c>
-      <c r="F109" s="5">
+      <c r="F109" s="3">
         <v>25</v>
       </c>
-      <c r="G109" s="4">
+      <c r="G109" s="2">
         <v>98</v>
       </c>
     </row>
-    <row r="110" spans="1:7">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A110" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B110" s="2">
+      <c r="B110" s="3">
         <v>22</v>
       </c>
       <c r="C110" s="1" t="s">
@@ -3956,21 +3951,21 @@
       <c r="D110" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="E110" s="4">
+      <c r="E110" s="2">
         <v>73</v>
       </c>
-      <c r="F110" s="5">
-        <v>15</v>
-      </c>
-      <c r="G110" s="4">
+      <c r="F110" s="3">
+        <v>15</v>
+      </c>
+      <c r="G110" s="2">
         <v>88</v>
       </c>
     </row>
-    <row r="111" spans="1:7">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A111" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B111" s="2">
+      <c r="B111" s="3">
         <v>22</v>
       </c>
       <c r="C111" s="1" t="s">
@@ -3979,21 +3974,21 @@
       <c r="D111" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="E111" s="4">
+      <c r="E111" s="2">
         <v>73</v>
       </c>
-      <c r="F111" s="4">
+      <c r="F111" s="2">
         <v>20</v>
       </c>
-      <c r="G111" s="4">
+      <c r="G111" s="2">
         <v>93</v>
       </c>
     </row>
-    <row r="112" spans="1:7">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A112" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B112" s="2">
+      <c r="B112" s="3">
         <v>23</v>
       </c>
       <c r="C112" s="1" t="s">
@@ -4002,21 +3997,21 @@
       <c r="D112" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="E112" s="4">
+      <c r="E112" s="2">
         <v>84</v>
       </c>
-      <c r="F112" s="5">
-        <v>15</v>
-      </c>
-      <c r="G112" s="4">
+      <c r="F112" s="3">
+        <v>15</v>
+      </c>
+      <c r="G112" s="2">
         <v>99</v>
       </c>
     </row>
-    <row r="113" spans="1:7">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A113" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B113" s="2">
+      <c r="B113" s="3">
         <v>23</v>
       </c>
       <c r="C113" s="1" t="s">
@@ -4025,21 +4020,21 @@
       <c r="D113" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="E113" s="4">
+      <c r="E113" s="2">
         <v>78</v>
       </c>
-      <c r="F113" s="5">
+      <c r="F113" s="3">
         <v>16</v>
       </c>
-      <c r="G113" s="4">
+      <c r="G113" s="2">
         <v>94</v>
       </c>
     </row>
-    <row r="114" spans="1:7">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A114" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B114" s="2">
+      <c r="B114" s="3">
         <v>23</v>
       </c>
       <c r="C114" s="1" t="s">
@@ -4048,21 +4043,21 @@
       <c r="D114" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="E114" s="4">
+      <c r="E114" s="2">
         <v>78</v>
       </c>
-      <c r="F114" s="5">
+      <c r="F114" s="3">
         <v>25</v>
       </c>
-      <c r="G114" s="4">
+      <c r="G114" s="2">
         <v>103</v>
       </c>
     </row>
-    <row r="115" spans="1:7">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A115" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B115" s="2">
+      <c r="B115" s="3">
         <v>23</v>
       </c>
       <c r="C115" s="1" t="s">
@@ -4071,21 +4066,21 @@
       <c r="D115" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="E115" s="4">
+      <c r="E115" s="2">
         <v>78</v>
       </c>
-      <c r="F115" s="5">
-        <v>15</v>
-      </c>
-      <c r="G115" s="4">
+      <c r="F115" s="3">
+        <v>15</v>
+      </c>
+      <c r="G115" s="2">
         <v>93</v>
       </c>
     </row>
-    <row r="116" spans="1:7">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A116" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B116" s="2">
+      <c r="B116" s="3">
         <v>23</v>
       </c>
       <c r="C116" s="1" t="s">
@@ -4094,21 +4089,21 @@
       <c r="D116" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E116" s="4">
+      <c r="E116" s="2">
         <v>78</v>
       </c>
-      <c r="F116" s="4">
+      <c r="F116" s="2">
         <v>20</v>
       </c>
-      <c r="G116" s="4">
+      <c r="G116" s="2">
         <v>98</v>
       </c>
     </row>
-    <row r="117" spans="1:7">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A117" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B117" s="2">
+      <c r="B117" s="3">
         <v>24</v>
       </c>
       <c r="C117" s="1" t="s">
@@ -4117,21 +4112,21 @@
       <c r="D117" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="E117" s="4">
+      <c r="E117" s="2">
         <v>58</v>
       </c>
-      <c r="F117" s="5">
-        <v>15</v>
-      </c>
-      <c r="G117" s="4">
+      <c r="F117" s="3">
+        <v>15</v>
+      </c>
+      <c r="G117" s="2">
         <v>73</v>
       </c>
     </row>
-    <row r="118" spans="1:7">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A118" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B118" s="2">
+      <c r="B118" s="3">
         <v>24</v>
       </c>
       <c r="C118" s="1" t="s">
@@ -4140,21 +4135,21 @@
       <c r="D118" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="E118" s="4">
+      <c r="E118" s="2">
         <v>49</v>
       </c>
-      <c r="F118" s="5">
+      <c r="F118" s="3">
         <v>16</v>
       </c>
-      <c r="G118" s="4">
+      <c r="G118" s="2">
         <v>65</v>
       </c>
     </row>
-    <row r="119" spans="1:7">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A119" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B119" s="2">
+      <c r="B119" s="3">
         <v>24</v>
       </c>
       <c r="C119" s="1" t="s">
@@ -4163,21 +4158,21 @@
       <c r="D119" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E119" s="4">
+      <c r="E119" s="2">
         <v>49</v>
       </c>
-      <c r="F119" s="5">
+      <c r="F119" s="3">
         <v>25</v>
       </c>
-      <c r="G119" s="4">
+      <c r="G119" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="120" spans="1:7">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A120" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B120" s="2">
+      <c r="B120" s="3">
         <v>24</v>
       </c>
       <c r="C120" s="1" t="s">
@@ -4186,21 +4181,21 @@
       <c r="D120" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="E120" s="4">
+      <c r="E120" s="2">
         <v>49</v>
       </c>
-      <c r="F120" s="5">
-        <v>15</v>
-      </c>
-      <c r="G120" s="4">
+      <c r="F120" s="3">
+        <v>15</v>
+      </c>
+      <c r="G120" s="2">
         <v>64</v>
       </c>
     </row>
-    <row r="121" spans="1:7">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A121" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B121" s="2">
+      <c r="B121" s="3">
         <v>24</v>
       </c>
       <c r="C121" s="1" t="s">
@@ -4209,21 +4204,21 @@
       <c r="D121" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="E121" s="4">
+      <c r="E121" s="2">
         <v>49</v>
       </c>
-      <c r="F121" s="4">
+      <c r="F121" s="2">
         <v>20</v>
       </c>
-      <c r="G121" s="4">
+      <c r="G121" s="2">
         <v>69</v>
       </c>
     </row>
-    <row r="122" spans="1:7">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A122" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B122" s="2">
+      <c r="B122" s="3">
         <v>25</v>
       </c>
       <c r="C122" s="1" t="s">
@@ -4232,21 +4227,21 @@
       <c r="D122" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="E122" s="4">
+      <c r="E122" s="2">
         <v>57</v>
       </c>
-      <c r="F122" s="5">
-        <v>15</v>
-      </c>
-      <c r="G122" s="4">
+      <c r="F122" s="3">
+        <v>15</v>
+      </c>
+      <c r="G122" s="2">
         <v>72</v>
       </c>
     </row>
-    <row r="123" spans="1:7">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A123" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B123" s="2">
+      <c r="B123" s="3">
         <v>25</v>
       </c>
       <c r="C123" s="1" t="s">
@@ -4255,21 +4250,21 @@
       <c r="D123" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="E123" s="4">
+      <c r="E123" s="2">
         <v>68</v>
       </c>
-      <c r="F123" s="5">
+      <c r="F123" s="3">
         <v>16</v>
       </c>
-      <c r="G123" s="4">
+      <c r="G123" s="2">
         <v>84</v>
       </c>
     </row>
-    <row r="124" spans="1:7">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A124" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B124" s="2">
+      <c r="B124" s="3">
         <v>25</v>
       </c>
       <c r="C124" s="1" t="s">
@@ -4278,21 +4273,21 @@
       <c r="D124" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="E124" s="4">
+      <c r="E124" s="2">
         <v>68</v>
       </c>
-      <c r="F124" s="5">
+      <c r="F124" s="3">
         <v>25</v>
       </c>
-      <c r="G124" s="4">
+      <c r="G124" s="2">
         <v>93</v>
       </c>
     </row>
-    <row r="125" spans="1:7">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A125" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B125" s="2">
+      <c r="B125" s="3">
         <v>25</v>
       </c>
       <c r="C125" s="1" t="s">
@@ -4301,21 +4296,21 @@
       <c r="D125" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="E125" s="4">
+      <c r="E125" s="2">
         <v>68</v>
       </c>
-      <c r="F125" s="5">
-        <v>15</v>
-      </c>
-      <c r="G125" s="4">
+      <c r="F125" s="3">
+        <v>15</v>
+      </c>
+      <c r="G125" s="2">
         <v>83</v>
       </c>
     </row>
-    <row r="126" spans="1:7">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A126" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B126" s="2">
+      <c r="B126" s="3">
         <v>25</v>
       </c>
       <c r="C126" s="1" t="s">
@@ -4324,21 +4319,21 @@
       <c r="D126" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="E126" s="4">
+      <c r="E126" s="2">
         <v>68</v>
       </c>
-      <c r="F126" s="4">
+      <c r="F126" s="2">
         <v>20</v>
       </c>
-      <c r="G126" s="4">
+      <c r="G126" s="2">
         <v>88</v>
       </c>
     </row>
-    <row r="127" spans="1:7">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A127" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B127" s="2">
+      <c r="B127" s="3">
         <v>26</v>
       </c>
       <c r="C127" s="1" t="s">
@@ -4347,21 +4342,21 @@
       <c r="D127" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="E127" s="5">
+      <c r="E127" s="3">
         <v>138</v>
       </c>
-      <c r="F127" s="5">
-        <v>15</v>
-      </c>
-      <c r="G127" s="4">
+      <c r="F127" s="3">
+        <v>15</v>
+      </c>
+      <c r="G127" s="2">
         <v>153</v>
       </c>
     </row>
-    <row r="128" spans="1:7">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A128" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B128" s="2">
+      <c r="B128" s="3">
         <v>26</v>
       </c>
       <c r="C128" s="1" t="s">
@@ -4370,21 +4365,21 @@
       <c r="D128" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="E128" s="5">
+      <c r="E128" s="3">
         <v>125</v>
       </c>
-      <c r="F128" s="5">
+      <c r="F128" s="3">
         <v>16</v>
       </c>
-      <c r="G128" s="4">
+      <c r="G128" s="2">
         <v>141</v>
       </c>
     </row>
-    <row r="129" spans="1:7">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A129" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B129" s="2">
+      <c r="B129" s="3">
         <v>26</v>
       </c>
       <c r="C129" s="1" t="s">
@@ -4393,21 +4388,21 @@
       <c r="D129" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="E129" s="5">
+      <c r="E129" s="3">
         <v>125</v>
       </c>
-      <c r="F129" s="5">
+      <c r="F129" s="3">
         <v>25</v>
       </c>
-      <c r="G129" s="4">
+      <c r="G129" s="2">
         <v>150</v>
       </c>
     </row>
-    <row r="130" spans="1:7">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A130" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B130" s="2">
+      <c r="B130" s="3">
         <v>26</v>
       </c>
       <c r="C130" s="1" t="s">
@@ -4416,21 +4411,21 @@
       <c r="D130" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E130" s="5">
+      <c r="E130" s="3">
         <v>125</v>
       </c>
-      <c r="F130" s="5">
-        <v>15</v>
-      </c>
-      <c r="G130" s="4">
+      <c r="F130" s="3">
+        <v>15</v>
+      </c>
+      <c r="G130" s="2">
         <v>140</v>
       </c>
     </row>
-    <row r="131" spans="1:7">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A131" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B131" s="2">
+      <c r="B131" s="3">
         <v>26</v>
       </c>
       <c r="C131" s="1" t="s">
@@ -4439,21 +4434,21 @@
       <c r="D131" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="E131" s="5">
+      <c r="E131" s="3">
         <v>125</v>
       </c>
-      <c r="F131" s="4">
+      <c r="F131" s="2">
         <v>20</v>
       </c>
-      <c r="G131" s="4">
+      <c r="G131" s="2">
         <v>145</v>
       </c>
     </row>
-    <row r="132" spans="1:7">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A132" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B132" s="2">
+      <c r="B132" s="3">
         <v>27</v>
       </c>
       <c r="C132" s="1" t="s">
@@ -4462,21 +4457,21 @@
       <c r="D132" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="E132" s="4">
+      <c r="E132" s="2">
         <v>80</v>
       </c>
-      <c r="F132" s="5">
-        <v>15</v>
-      </c>
-      <c r="G132" s="4">
+      <c r="F132" s="3">
+        <v>15</v>
+      </c>
+      <c r="G132" s="2">
         <v>95</v>
       </c>
     </row>
-    <row r="133" spans="1:7">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A133" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B133" s="2">
+      <c r="B133" s="3">
         <v>27</v>
       </c>
       <c r="C133" s="1" t="s">
@@ -4485,21 +4480,21 @@
       <c r="D133" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="E133" s="4">
+      <c r="E133" s="2">
         <v>80</v>
       </c>
-      <c r="F133" s="5">
+      <c r="F133" s="3">
         <v>16</v>
       </c>
-      <c r="G133" s="4">
+      <c r="G133" s="2">
         <v>96</v>
       </c>
     </row>
-    <row r="134" spans="1:7">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A134" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B134" s="2">
+      <c r="B134" s="3">
         <v>27</v>
       </c>
       <c r="C134" s="1" t="s">
@@ -4508,21 +4503,21 @@
       <c r="D134" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="E134" s="4">
+      <c r="E134" s="2">
         <v>80</v>
       </c>
-      <c r="F134" s="5">
+      <c r="F134" s="3">
         <v>25</v>
       </c>
-      <c r="G134" s="4">
+      <c r="G134" s="2">
         <v>105</v>
       </c>
     </row>
-    <row r="135" spans="1:7">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A135" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B135" s="2">
+      <c r="B135" s="3">
         <v>27</v>
       </c>
       <c r="C135" s="1" t="s">
@@ -4531,21 +4526,21 @@
       <c r="D135" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E135" s="4">
+      <c r="E135" s="2">
         <v>80</v>
       </c>
-      <c r="F135" s="5">
-        <v>15</v>
-      </c>
-      <c r="G135" s="4">
+      <c r="F135" s="3">
+        <v>15</v>
+      </c>
+      <c r="G135" s="2">
         <v>95</v>
       </c>
     </row>
-    <row r="136" spans="1:7">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A136" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B136" s="2">
+      <c r="B136" s="3">
         <v>27</v>
       </c>
       <c r="C136" s="1" t="s">
@@ -4554,21 +4549,21 @@
       <c r="D136" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="E136" s="4">
+      <c r="E136" s="2">
         <v>80</v>
       </c>
-      <c r="F136" s="4">
+      <c r="F136" s="2">
         <v>20</v>
       </c>
-      <c r="G136" s="4">
+      <c r="G136" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="137" spans="1:7">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A137" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B137" s="2">
+      <c r="B137" s="3">
         <v>28</v>
       </c>
       <c r="C137" s="1" t="s">
@@ -4577,21 +4572,21 @@
       <c r="D137" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="E137" s="4">
+      <c r="E137" s="2">
         <v>83</v>
       </c>
-      <c r="F137" s="5">
-        <v>15</v>
-      </c>
-      <c r="G137" s="4">
+      <c r="F137" s="3">
+        <v>15</v>
+      </c>
+      <c r="G137" s="2">
         <v>98</v>
       </c>
     </row>
-    <row r="138" spans="1:7">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A138" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B138" s="2">
+      <c r="B138" s="3">
         <v>28</v>
       </c>
       <c r="C138" s="1" t="s">
@@ -4600,21 +4595,21 @@
       <c r="D138" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="E138" s="4">
+      <c r="E138" s="2">
         <v>76</v>
       </c>
-      <c r="F138" s="5">
+      <c r="F138" s="3">
         <v>16</v>
       </c>
-      <c r="G138" s="4">
+      <c r="G138" s="2">
         <v>92</v>
       </c>
     </row>
-    <row r="139" spans="1:7">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A139" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B139" s="2">
+      <c r="B139" s="3">
         <v>28</v>
       </c>
       <c r="C139" s="1" t="s">
@@ -4623,21 +4618,21 @@
       <c r="D139" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="E139" s="4">
+      <c r="E139" s="2">
         <v>76</v>
       </c>
-      <c r="F139" s="5">
+      <c r="F139" s="3">
         <v>25</v>
       </c>
-      <c r="G139" s="4">
+      <c r="G139" s="2">
         <v>101</v>
       </c>
     </row>
-    <row r="140" spans="1:7">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A140" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B140" s="2">
+      <c r="B140" s="3">
         <v>28</v>
       </c>
       <c r="C140" s="1" t="s">
@@ -4646,21 +4641,21 @@
       <c r="D140" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="E140" s="4">
+      <c r="E140" s="2">
         <v>76</v>
       </c>
-      <c r="F140" s="5">
-        <v>15</v>
-      </c>
-      <c r="G140" s="4">
+      <c r="F140" s="3">
+        <v>15</v>
+      </c>
+      <c r="G140" s="2">
         <v>91</v>
       </c>
     </row>
-    <row r="141" spans="1:7">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A141" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B141" s="2">
+      <c r="B141" s="3">
         <v>28</v>
       </c>
       <c r="C141" s="1" t="s">
@@ -4669,21 +4664,21 @@
       <c r="D141" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="E141" s="4">
+      <c r="E141" s="2">
         <v>76</v>
       </c>
-      <c r="F141" s="4">
+      <c r="F141" s="2">
         <v>20</v>
       </c>
-      <c r="G141" s="4">
+      <c r="G141" s="2">
         <v>96</v>
       </c>
     </row>
-    <row r="142" spans="1:7">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A142" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B142" s="2">
+      <c r="B142" s="3">
         <v>29</v>
       </c>
       <c r="C142" s="1" t="s">
@@ -4692,21 +4687,21 @@
       <c r="D142" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="E142" s="4">
+      <c r="E142" s="2">
         <v>78</v>
       </c>
-      <c r="F142" s="5">
-        <v>15</v>
-      </c>
-      <c r="G142" s="4">
+      <c r="F142" s="3">
+        <v>15</v>
+      </c>
+      <c r="G142" s="2">
         <v>93</v>
       </c>
     </row>
-    <row r="143" spans="1:7">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A143" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B143" s="2">
+      <c r="B143" s="3">
         <v>29</v>
       </c>
       <c r="C143" s="1" t="s">
@@ -4715,21 +4710,21 @@
       <c r="D143" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="E143" s="4">
+      <c r="E143" s="2">
         <v>86</v>
       </c>
-      <c r="F143" s="5">
+      <c r="F143" s="3">
         <v>16</v>
       </c>
-      <c r="G143" s="4">
+      <c r="G143" s="2">
         <v>102</v>
       </c>
     </row>
-    <row r="144" spans="1:7">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A144" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B144" s="2">
+      <c r="B144" s="3">
         <v>29</v>
       </c>
       <c r="C144" s="1" t="s">
@@ -4738,21 +4733,21 @@
       <c r="D144" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="E144" s="4">
+      <c r="E144" s="2">
         <v>86</v>
       </c>
-      <c r="F144" s="5">
+      <c r="F144" s="3">
         <v>25</v>
       </c>
-      <c r="G144" s="4">
+      <c r="G144" s="2">
         <v>111</v>
       </c>
     </row>
-    <row r="145" spans="1:7">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A145" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B145" s="2">
+      <c r="B145" s="3">
         <v>29</v>
       </c>
       <c r="C145" s="1" t="s">
@@ -4761,21 +4756,21 @@
       <c r="D145" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="E145" s="4">
+      <c r="E145" s="2">
         <v>86</v>
       </c>
-      <c r="F145" s="5">
-        <v>15</v>
-      </c>
-      <c r="G145" s="4">
+      <c r="F145" s="3">
+        <v>15</v>
+      </c>
+      <c r="G145" s="2">
         <v>101</v>
       </c>
     </row>
-    <row r="146" spans="1:7">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A146" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B146" s="2">
+      <c r="B146" s="3">
         <v>29</v>
       </c>
       <c r="C146" s="1" t="s">
@@ -4784,21 +4779,21 @@
       <c r="D146" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="E146" s="4">
+      <c r="E146" s="2">
         <v>86</v>
       </c>
-      <c r="F146" s="4">
+      <c r="F146" s="2">
         <v>20</v>
       </c>
-      <c r="G146" s="4">
+      <c r="G146" s="2">
         <v>106</v>
       </c>
     </row>
-    <row r="147" spans="1:7">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A147" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B147" s="2">
+      <c r="B147" s="3">
         <v>30</v>
       </c>
       <c r="C147" s="1" t="s">
@@ -4807,21 +4802,21 @@
       <c r="D147" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="E147" s="4">
+      <c r="E147" s="2">
         <v>80</v>
       </c>
-      <c r="F147" s="5">
-        <v>15</v>
-      </c>
-      <c r="G147" s="4">
+      <c r="F147" s="3">
+        <v>15</v>
+      </c>
+      <c r="G147" s="2">
         <v>95</v>
       </c>
     </row>
-    <row r="148" spans="1:7">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A148" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B148" s="2">
+      <c r="B148" s="3">
         <v>30</v>
       </c>
       <c r="C148" s="1" t="s">
@@ -4830,21 +4825,21 @@
       <c r="D148" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="E148" s="4">
+      <c r="E148" s="2">
         <v>76</v>
       </c>
-      <c r="F148" s="5">
+      <c r="F148" s="3">
         <v>16</v>
       </c>
-      <c r="G148" s="4">
+      <c r="G148" s="2">
         <v>92</v>
       </c>
     </row>
-    <row r="149" spans="1:7">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A149" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B149" s="2">
+      <c r="B149" s="3">
         <v>30</v>
       </c>
       <c r="C149" s="1" t="s">
@@ -4853,21 +4848,21 @@
       <c r="D149" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E149" s="4">
+      <c r="E149" s="2">
         <v>76</v>
       </c>
-      <c r="F149" s="5">
+      <c r="F149" s="3">
         <v>25</v>
       </c>
-      <c r="G149" s="4">
+      <c r="G149" s="2">
         <v>101</v>
       </c>
     </row>
-    <row r="150" spans="1:7">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A150" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B150" s="2">
+      <c r="B150" s="3">
         <v>30</v>
       </c>
       <c r="C150" s="1" t="s">
@@ -4876,21 +4871,21 @@
       <c r="D150" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="E150" s="4">
+      <c r="E150" s="2">
         <v>76</v>
       </c>
-      <c r="F150" s="5">
-        <v>15</v>
-      </c>
-      <c r="G150" s="4">
+      <c r="F150" s="3">
+        <v>15</v>
+      </c>
+      <c r="G150" s="2">
         <v>91</v>
       </c>
     </row>
-    <row r="151" spans="1:7">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A151" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B151" s="2">
+      <c r="B151" s="3">
         <v>30</v>
       </c>
       <c r="C151" s="1" t="s">
@@ -4899,21 +4894,21 @@
       <c r="D151" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="E151" s="4">
+      <c r="E151" s="2">
         <v>76</v>
       </c>
-      <c r="F151" s="4">
+      <c r="F151" s="2">
         <v>20</v>
       </c>
-      <c r="G151" s="4">
+      <c r="G151" s="2">
         <v>96</v>
       </c>
     </row>
-    <row r="152" spans="1:7">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A152" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B152" s="2">
+      <c r="B152" s="3">
         <v>31</v>
       </c>
       <c r="C152" s="1" t="s">
@@ -4922,21 +4917,21 @@
       <c r="D152" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="E152" s="4">
+      <c r="E152" s="2">
         <v>84</v>
       </c>
-      <c r="F152" s="5">
-        <v>15</v>
-      </c>
-      <c r="G152" s="4">
+      <c r="F152" s="3">
+        <v>15</v>
+      </c>
+      <c r="G152" s="2">
         <v>99</v>
       </c>
     </row>
-    <row r="153" spans="1:7">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A153" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B153" s="2">
+      <c r="B153" s="3">
         <v>31</v>
       </c>
       <c r="C153" s="1" t="s">
@@ -4945,21 +4940,21 @@
       <c r="D153" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="E153" s="4">
+      <c r="E153" s="2">
         <v>87</v>
       </c>
-      <c r="F153" s="5">
+      <c r="F153" s="3">
         <v>16</v>
       </c>
-      <c r="G153" s="4">
+      <c r="G153" s="2">
         <v>103</v>
       </c>
     </row>
-    <row r="154" spans="1:7">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A154" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B154" s="2">
+      <c r="B154" s="3">
         <v>31</v>
       </c>
       <c r="C154" s="1" t="s">
@@ -4968,21 +4963,21 @@
       <c r="D154" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="E154" s="4">
+      <c r="E154" s="2">
         <v>87</v>
       </c>
-      <c r="F154" s="5">
+      <c r="F154" s="3">
         <v>25</v>
       </c>
-      <c r="G154" s="4">
+      <c r="G154" s="2">
         <v>112</v>
       </c>
     </row>
-    <row r="155" spans="1:7">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A155" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B155" s="2">
+      <c r="B155" s="3">
         <v>31</v>
       </c>
       <c r="C155" s="1" t="s">
@@ -4991,21 +4986,21 @@
       <c r="D155" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="E155" s="4">
+      <c r="E155" s="2">
         <v>87</v>
       </c>
-      <c r="F155" s="5">
-        <v>15</v>
-      </c>
-      <c r="G155" s="4">
+      <c r="F155" s="3">
+        <v>15</v>
+      </c>
+      <c r="G155" s="2">
         <v>102</v>
       </c>
     </row>
-    <row r="156" spans="1:7">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A156" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B156" s="2">
+      <c r="B156" s="3">
         <v>31</v>
       </c>
       <c r="C156" s="1" t="s">
@@ -5014,21 +5009,21 @@
       <c r="D156" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="E156" s="4">
+      <c r="E156" s="2">
         <v>87</v>
       </c>
-      <c r="F156" s="4">
+      <c r="F156" s="2">
         <v>20</v>
       </c>
-      <c r="G156" s="4">
+      <c r="G156" s="2">
         <v>107</v>
       </c>
     </row>
-    <row r="157" spans="1:7">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A157" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B157" s="2">
+      <c r="B157" s="3">
         <v>32</v>
       </c>
       <c r="C157" s="1" t="s">
@@ -5037,21 +5032,21 @@
       <c r="D157" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="E157" s="4">
+      <c r="E157" s="2">
         <v>100</v>
       </c>
-      <c r="F157" s="5">
-        <v>15</v>
-      </c>
-      <c r="G157" s="4">
+      <c r="F157" s="3">
+        <v>15</v>
+      </c>
+      <c r="G157" s="2">
         <v>115</v>
       </c>
     </row>
-    <row r="158" spans="1:7">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A158" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B158" s="2">
+      <c r="B158" s="3">
         <v>32</v>
       </c>
       <c r="C158" s="1" t="s">
@@ -5060,21 +5055,21 @@
       <c r="D158" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="E158" s="4">
+      <c r="E158" s="2">
         <v>111</v>
       </c>
-      <c r="F158" s="5">
+      <c r="F158" s="3">
         <v>16</v>
       </c>
-      <c r="G158" s="4">
+      <c r="G158" s="2">
         <v>127</v>
       </c>
     </row>
-    <row r="159" spans="1:7">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A159" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B159" s="2">
+      <c r="B159" s="3">
         <v>32</v>
       </c>
       <c r="C159" s="1" t="s">
@@ -5083,21 +5078,21 @@
       <c r="D159" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="E159" s="4">
+      <c r="E159" s="2">
         <v>111</v>
       </c>
-      <c r="F159" s="5">
+      <c r="F159" s="3">
         <v>25</v>
       </c>
-      <c r="G159" s="4">
+      <c r="G159" s="2">
         <v>136</v>
       </c>
     </row>
-    <row r="160" spans="1:7">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A160" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B160" s="2">
+      <c r="B160" s="3">
         <v>32</v>
       </c>
       <c r="C160" s="1" t="s">
@@ -5106,21 +5101,21 @@
       <c r="D160" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="E160" s="4">
+      <c r="E160" s="2">
         <v>111</v>
       </c>
-      <c r="F160" s="5">
-        <v>15</v>
-      </c>
-      <c r="G160" s="4">
+      <c r="F160" s="3">
+        <v>15</v>
+      </c>
+      <c r="G160" s="2">
         <v>126</v>
       </c>
     </row>
-    <row r="161" spans="1:7">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A161" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B161" s="2">
+      <c r="B161" s="3">
         <v>32</v>
       </c>
       <c r="C161" s="1" t="s">
@@ -5129,21 +5124,21 @@
       <c r="D161" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="E161" s="4">
+      <c r="E161" s="2">
         <v>111</v>
       </c>
-      <c r="F161" s="4">
+      <c r="F161" s="2">
         <v>20</v>
       </c>
-      <c r="G161" s="4">
+      <c r="G161" s="2">
         <v>131</v>
       </c>
     </row>
-    <row r="162" spans="1:7">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A162" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B162" s="2">
+      <c r="B162" s="3">
         <v>33</v>
       </c>
       <c r="C162" s="1" t="s">
@@ -5152,21 +5147,21 @@
       <c r="D162" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="E162" s="4">
+      <c r="E162" s="2">
         <v>114</v>
       </c>
-      <c r="F162" s="5">
-        <v>15</v>
-      </c>
-      <c r="G162" s="4">
+      <c r="F162" s="3">
+        <v>15</v>
+      </c>
+      <c r="G162" s="2">
         <v>129</v>
       </c>
     </row>
-    <row r="163" spans="1:7">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A163" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B163" s="2">
+      <c r="B163" s="3">
         <v>33</v>
       </c>
       <c r="C163" s="1" t="s">
@@ -5175,21 +5170,21 @@
       <c r="D163" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="E163" s="4">
+      <c r="E163" s="2">
         <v>110</v>
       </c>
-      <c r="F163" s="5">
+      <c r="F163" s="3">
         <v>16</v>
       </c>
-      <c r="G163" s="4">
+      <c r="G163" s="2">
         <v>126</v>
       </c>
     </row>
-    <row r="164" spans="1:7">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A164" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B164" s="2">
+      <c r="B164" s="3">
         <v>33</v>
       </c>
       <c r="C164" s="1" t="s">
@@ -5198,21 +5193,21 @@
       <c r="D164" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="E164" s="4">
+      <c r="E164" s="2">
         <v>110</v>
       </c>
-      <c r="F164" s="5">
+      <c r="F164" s="3">
         <v>25</v>
       </c>
-      <c r="G164" s="4">
+      <c r="G164" s="2">
         <v>135</v>
       </c>
     </row>
-    <row r="165" spans="1:7">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A165" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B165" s="2">
+      <c r="B165" s="3">
         <v>33</v>
       </c>
       <c r="C165" s="1" t="s">
@@ -5221,21 +5216,21 @@
       <c r="D165" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="E165" s="4">
+      <c r="E165" s="2">
         <v>110</v>
       </c>
-      <c r="F165" s="5">
-        <v>15</v>
-      </c>
-      <c r="G165" s="4">
+      <c r="F165" s="3">
+        <v>15</v>
+      </c>
+      <c r="G165" s="2">
         <v>125</v>
       </c>
     </row>
-    <row r="166" spans="1:7">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A166" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B166" s="2">
+      <c r="B166" s="3">
         <v>33</v>
       </c>
       <c r="C166" s="1" t="s">
@@ -5244,21 +5239,21 @@
       <c r="D166" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="E166" s="4">
+      <c r="E166" s="2">
         <v>110</v>
       </c>
-      <c r="F166" s="4">
+      <c r="F166" s="2">
         <v>20</v>
       </c>
-      <c r="G166" s="4">
+      <c r="G166" s="2">
         <v>130</v>
       </c>
     </row>
-    <row r="167" spans="1:7">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A167" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B167" s="2">
+      <c r="B167" s="3">
         <v>34</v>
       </c>
       <c r="C167" s="1" t="s">
@@ -5267,21 +5262,21 @@
       <c r="D167" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="E167" s="4">
+      <c r="E167" s="2">
         <v>116</v>
       </c>
-      <c r="F167" s="5">
-        <v>15</v>
-      </c>
-      <c r="G167" s="4">
+      <c r="F167" s="3">
+        <v>15</v>
+      </c>
+      <c r="G167" s="2">
         <v>131</v>
       </c>
     </row>
-    <row r="168" spans="1:7">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A168" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B168" s="2">
+      <c r="B168" s="3">
         <v>34</v>
       </c>
       <c r="C168" s="1" t="s">
@@ -5290,21 +5285,21 @@
       <c r="D168" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="E168" s="4">
+      <c r="E168" s="2">
         <v>118</v>
       </c>
-      <c r="F168" s="5">
+      <c r="F168" s="3">
         <v>16</v>
       </c>
-      <c r="G168" s="4">
+      <c r="G168" s="2">
         <v>134</v>
       </c>
     </row>
-    <row r="169" spans="1:7">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A169" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B169" s="2">
+      <c r="B169" s="3">
         <v>34</v>
       </c>
       <c r="C169" s="1" t="s">
@@ -5313,21 +5308,21 @@
       <c r="D169" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="E169" s="4">
+      <c r="E169" s="2">
         <v>118</v>
       </c>
-      <c r="F169" s="5">
+      <c r="F169" s="3">
         <v>25</v>
       </c>
-      <c r="G169" s="4">
+      <c r="G169" s="2">
         <v>143</v>
       </c>
     </row>
-    <row r="170" spans="1:7">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A170" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B170" s="2">
+      <c r="B170" s="3">
         <v>34</v>
       </c>
       <c r="C170" s="1" t="s">
@@ -5336,21 +5331,21 @@
       <c r="D170" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="E170" s="4">
+      <c r="E170" s="2">
         <v>118</v>
       </c>
-      <c r="F170" s="5">
-        <v>15</v>
-      </c>
-      <c r="G170" s="4">
+      <c r="F170" s="3">
+        <v>15</v>
+      </c>
+      <c r="G170" s="2">
         <v>133</v>
       </c>
     </row>
-    <row r="171" spans="1:7">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A171" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B171" s="2">
+      <c r="B171" s="3">
         <v>34</v>
       </c>
       <c r="C171" s="1" t="s">
@@ -5359,21 +5354,21 @@
       <c r="D171" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="E171" s="4">
+      <c r="E171" s="2">
         <v>118</v>
       </c>
-      <c r="F171" s="4">
+      <c r="F171" s="2">
         <v>20</v>
       </c>
-      <c r="G171" s="4">
+      <c r="G171" s="2">
         <v>138</v>
       </c>
     </row>
-    <row r="172" spans="1:7">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A172" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B172" s="2">
+      <c r="B172" s="3">
         <v>35</v>
       </c>
       <c r="C172" s="1" t="s">
@@ -5382,21 +5377,21 @@
       <c r="D172" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="E172" s="4">
+      <c r="E172" s="2">
         <v>72</v>
       </c>
-      <c r="F172" s="5">
-        <v>15</v>
-      </c>
-      <c r="G172" s="4">
+      <c r="F172" s="3">
+        <v>15</v>
+      </c>
+      <c r="G172" s="2">
         <v>87</v>
       </c>
     </row>
-    <row r="173" spans="1:7">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A173" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B173" s="2">
+      <c r="B173" s="3">
         <v>35</v>
       </c>
       <c r="C173" s="1" t="s">
@@ -5405,21 +5400,21 @@
       <c r="D173" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="E173" s="4">
+      <c r="E173" s="2">
         <v>78</v>
       </c>
-      <c r="F173" s="5">
+      <c r="F173" s="3">
         <v>16</v>
       </c>
-      <c r="G173" s="4">
+      <c r="G173" s="2">
         <v>94</v>
       </c>
     </row>
-    <row r="174" spans="1:7">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A174" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B174" s="2">
+      <c r="B174" s="3">
         <v>35</v>
       </c>
       <c r="C174" s="1" t="s">
@@ -5428,21 +5423,21 @@
       <c r="D174" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="E174" s="4">
+      <c r="E174" s="2">
         <v>78</v>
       </c>
-      <c r="F174" s="5">
+      <c r="F174" s="3">
         <v>25</v>
       </c>
-      <c r="G174" s="4">
+      <c r="G174" s="2">
         <v>103</v>
       </c>
     </row>
-    <row r="175" spans="1:7">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A175" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B175" s="2">
+      <c r="B175" s="3">
         <v>35</v>
       </c>
       <c r="C175" s="1" t="s">
@@ -5451,21 +5446,21 @@
       <c r="D175" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="E175" s="4">
+      <c r="E175" s="2">
         <v>78</v>
       </c>
-      <c r="F175" s="5">
-        <v>15</v>
-      </c>
-      <c r="G175" s="4">
+      <c r="F175" s="3">
+        <v>15</v>
+      </c>
+      <c r="G175" s="2">
         <v>93</v>
       </c>
     </row>
-    <row r="176" spans="1:7">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A176" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B176" s="2">
+      <c r="B176" s="3">
         <v>35</v>
       </c>
       <c r="C176" s="1" t="s">
@@ -5474,21 +5469,21 @@
       <c r="D176" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="E176" s="4">
+      <c r="E176" s="2">
         <v>78</v>
       </c>
-      <c r="F176" s="4">
+      <c r="F176" s="2">
         <v>20</v>
       </c>
-      <c r="G176" s="4">
+      <c r="G176" s="2">
         <v>98</v>
       </c>
     </row>
-    <row r="177" spans="1:7">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A177" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B177" s="2">
+      <c r="B177" s="3">
         <v>36</v>
       </c>
       <c r="C177" s="1" t="s">
@@ -5497,21 +5492,21 @@
       <c r="D177" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="E177" s="4">
+      <c r="E177" s="2">
         <v>111</v>
       </c>
-      <c r="F177" s="5">
-        <v>15</v>
-      </c>
-      <c r="G177" s="4">
+      <c r="F177" s="3">
+        <v>15</v>
+      </c>
+      <c r="G177" s="2">
         <v>126</v>
       </c>
     </row>
-    <row r="178" spans="1:7">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A178" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B178" s="2">
+      <c r="B178" s="3">
         <v>36</v>
       </c>
       <c r="C178" s="1" t="s">
@@ -5520,21 +5515,21 @@
       <c r="D178" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="E178" s="4">
+      <c r="E178" s="2">
         <v>103</v>
       </c>
-      <c r="F178" s="5">
+      <c r="F178" s="3">
         <v>16</v>
       </c>
-      <c r="G178" s="4">
+      <c r="G178" s="2">
         <v>119</v>
       </c>
     </row>
-    <row r="179" spans="1:7">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A179" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B179" s="2">
+      <c r="B179" s="3">
         <v>36</v>
       </c>
       <c r="C179" s="1" t="s">
@@ -5543,21 +5538,21 @@
       <c r="D179" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="E179" s="4">
+      <c r="E179" s="2">
         <v>103</v>
       </c>
-      <c r="F179" s="5">
+      <c r="F179" s="3">
         <v>25</v>
       </c>
-      <c r="G179" s="4">
+      <c r="G179" s="2">
         <v>128</v>
       </c>
     </row>
-    <row r="180" spans="1:7">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A180" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B180" s="2">
+      <c r="B180" s="3">
         <v>36</v>
       </c>
       <c r="C180" s="1" t="s">
@@ -5566,21 +5561,21 @@
       <c r="D180" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="E180" s="4">
+      <c r="E180" s="2">
         <v>103</v>
       </c>
-      <c r="F180" s="5">
-        <v>15</v>
-      </c>
-      <c r="G180" s="4">
+      <c r="F180" s="3">
+        <v>15</v>
+      </c>
+      <c r="G180" s="2">
         <v>118</v>
       </c>
     </row>
-    <row r="181" spans="1:7">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A181" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B181" s="2">
+      <c r="B181" s="3">
         <v>36</v>
       </c>
       <c r="C181" s="1" t="s">
@@ -5589,21 +5584,21 @@
       <c r="D181" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="E181" s="4">
+      <c r="E181" s="2">
         <v>103</v>
       </c>
-      <c r="F181" s="4">
+      <c r="F181" s="2">
         <v>20</v>
       </c>
-      <c r="G181" s="4">
+      <c r="G181" s="2">
         <v>123</v>
       </c>
     </row>
-    <row r="182" spans="1:7">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A182" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B182" s="2">
+      <c r="B182" s="3">
         <v>37</v>
       </c>
       <c r="C182" s="1" t="s">
@@ -5612,21 +5607,21 @@
       <c r="D182" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="E182" s="4">
+      <c r="E182" s="2">
         <v>85</v>
       </c>
-      <c r="F182" s="5">
-        <v>15</v>
-      </c>
-      <c r="G182" s="4">
+      <c r="F182" s="3">
+        <v>15</v>
+      </c>
+      <c r="G182" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="183" spans="1:7">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A183" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B183" s="2">
+      <c r="B183" s="3">
         <v>37</v>
       </c>
       <c r="C183" s="1" t="s">
@@ -5635,21 +5630,21 @@
       <c r="D183" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="E183" s="4">
+      <c r="E183" s="2">
         <v>92</v>
       </c>
-      <c r="F183" s="5">
+      <c r="F183" s="3">
         <v>16</v>
       </c>
-      <c r="G183" s="4">
+      <c r="G183" s="2">
         <v>108</v>
       </c>
     </row>
-    <row r="184" spans="1:7">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A184" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B184" s="2">
+      <c r="B184" s="3">
         <v>37</v>
       </c>
       <c r="C184" s="1" t="s">
@@ -5658,21 +5653,21 @@
       <c r="D184" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="E184" s="4">
+      <c r="E184" s="2">
         <v>92</v>
       </c>
-      <c r="F184" s="5">
+      <c r="F184" s="3">
         <v>25</v>
       </c>
-      <c r="G184" s="4">
+      <c r="G184" s="2">
         <v>117</v>
       </c>
     </row>
-    <row r="185" spans="1:7">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A185" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B185" s="2">
+      <c r="B185" s="3">
         <v>37</v>
       </c>
       <c r="C185" s="1" t="s">
@@ -5681,21 +5676,21 @@
       <c r="D185" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="E185" s="4">
+      <c r="E185" s="2">
         <v>92</v>
       </c>
-      <c r="F185" s="5">
-        <v>15</v>
-      </c>
-      <c r="G185" s="4">
+      <c r="F185" s="3">
+        <v>15</v>
+      </c>
+      <c r="G185" s="2">
         <v>107</v>
       </c>
     </row>
-    <row r="186" spans="1:7">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A186" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B186" s="2">
+      <c r="B186" s="3">
         <v>37</v>
       </c>
       <c r="C186" s="1" t="s">
@@ -5704,21 +5699,21 @@
       <c r="D186" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="E186" s="4">
+      <c r="E186" s="2">
         <v>92</v>
       </c>
-      <c r="F186" s="4">
+      <c r="F186" s="2">
         <v>20</v>
       </c>
-      <c r="G186" s="4">
+      <c r="G186" s="2">
         <v>112</v>
       </c>
     </row>
-    <row r="187" spans="1:7">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A187" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B187" s="2">
+      <c r="B187" s="3">
         <v>38</v>
       </c>
       <c r="C187" s="1" t="s">
@@ -5727,21 +5722,21 @@
       <c r="D187" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="E187" s="5">
+      <c r="E187" s="3">
         <v>91</v>
       </c>
-      <c r="F187" s="5">
-        <v>15</v>
-      </c>
-      <c r="G187" s="4">
+      <c r="F187" s="3">
+        <v>15</v>
+      </c>
+      <c r="G187" s="2">
         <v>106</v>
       </c>
     </row>
-    <row r="188" spans="1:7">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A188" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B188" s="2">
+      <c r="B188" s="3">
         <v>38</v>
       </c>
       <c r="C188" s="1" t="s">
@@ -5750,21 +5745,21 @@
       <c r="D188" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="E188" s="5">
+      <c r="E188" s="3">
         <v>92</v>
       </c>
-      <c r="F188" s="5">
+      <c r="F188" s="3">
         <v>16</v>
       </c>
-      <c r="G188" s="4">
+      <c r="G188" s="2">
         <v>108</v>
       </c>
     </row>
-    <row r="189" spans="1:7">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A189" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B189" s="2">
+      <c r="B189" s="3">
         <v>38</v>
       </c>
       <c r="C189" s="1" t="s">
@@ -5773,21 +5768,21 @@
       <c r="D189" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="E189" s="5">
+      <c r="E189" s="3">
         <v>92</v>
       </c>
-      <c r="F189" s="5">
+      <c r="F189" s="3">
         <v>25</v>
       </c>
-      <c r="G189" s="4">
+      <c r="G189" s="2">
         <v>117</v>
       </c>
     </row>
-    <row r="190" spans="1:7">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A190" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B190" s="2">
+      <c r="B190" s="3">
         <v>38</v>
       </c>
       <c r="C190" s="1" t="s">
@@ -5796,21 +5791,21 @@
       <c r="D190" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="E190" s="5">
+      <c r="E190" s="3">
         <v>92</v>
       </c>
-      <c r="F190" s="5">
-        <v>15</v>
-      </c>
-      <c r="G190" s="4">
+      <c r="F190" s="3">
+        <v>15</v>
+      </c>
+      <c r="G190" s="2">
         <v>107</v>
       </c>
     </row>
-    <row r="191" spans="1:7">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A191" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B191" s="2">
+      <c r="B191" s="3">
         <v>38</v>
       </c>
       <c r="C191" s="1" t="s">
@@ -5819,21 +5814,21 @@
       <c r="D191" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="E191" s="5">
+      <c r="E191" s="3">
         <v>92</v>
       </c>
-      <c r="F191" s="4">
+      <c r="F191" s="2">
         <v>20</v>
       </c>
-      <c r="G191" s="4">
+      <c r="G191" s="2">
         <v>112</v>
       </c>
     </row>
-    <row r="192" spans="1:7">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A192" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B192" s="2">
+      <c r="B192" s="3">
         <v>39</v>
       </c>
       <c r="C192" s="1" t="s">
@@ -5842,21 +5837,21 @@
       <c r="D192" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="E192" s="4">
+      <c r="E192" s="2">
         <v>97</v>
       </c>
-      <c r="F192" s="5">
-        <v>15</v>
-      </c>
-      <c r="G192" s="4">
+      <c r="F192" s="3">
+        <v>15</v>
+      </c>
+      <c r="G192" s="2">
         <v>112</v>
       </c>
     </row>
-    <row r="193" spans="1:7">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A193" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B193" s="2">
+      <c r="B193" s="3">
         <v>39</v>
       </c>
       <c r="C193" s="1" t="s">
@@ -5865,21 +5860,21 @@
       <c r="D193" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="E193" s="4">
+      <c r="E193" s="2">
         <v>92</v>
       </c>
-      <c r="F193" s="5">
+      <c r="F193" s="3">
         <v>16</v>
       </c>
-      <c r="G193" s="4">
+      <c r="G193" s="2">
         <v>108</v>
       </c>
     </row>
-    <row r="194" spans="1:7">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A194" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B194" s="2">
+      <c r="B194" s="3">
         <v>39</v>
       </c>
       <c r="C194" s="1" t="s">
@@ -5888,21 +5883,21 @@
       <c r="D194" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="E194" s="4">
+      <c r="E194" s="2">
         <v>92</v>
       </c>
-      <c r="F194" s="5">
+      <c r="F194" s="3">
         <v>25</v>
       </c>
-      <c r="G194" s="4">
+      <c r="G194" s="2">
         <v>117</v>
       </c>
     </row>
-    <row r="195" spans="1:7">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A195" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B195" s="2">
+      <c r="B195" s="3">
         <v>39</v>
       </c>
       <c r="C195" s="1" t="s">
@@ -5911,21 +5906,21 @@
       <c r="D195" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="E195" s="4">
+      <c r="E195" s="2">
         <v>92</v>
       </c>
-      <c r="F195" s="5">
-        <v>15</v>
-      </c>
-      <c r="G195" s="4">
+      <c r="F195" s="3">
+        <v>15</v>
+      </c>
+      <c r="G195" s="2">
         <v>107</v>
       </c>
     </row>
-    <row r="196" spans="1:7">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A196" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B196" s="2">
+      <c r="B196" s="3">
         <v>39</v>
       </c>
       <c r="C196" s="1" t="s">
@@ -5934,21 +5929,21 @@
       <c r="D196" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="E196" s="4">
+      <c r="E196" s="2">
         <v>92</v>
       </c>
-      <c r="F196" s="4">
+      <c r="F196" s="2">
         <v>20</v>
       </c>
-      <c r="G196" s="4">
+      <c r="G196" s="2">
         <v>112</v>
       </c>
     </row>
-    <row r="197" spans="1:7">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A197" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B197" s="2">
+      <c r="B197" s="3">
         <v>40</v>
       </c>
       <c r="C197" s="1" t="s">
@@ -5957,21 +5952,21 @@
       <c r="D197" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="E197" s="4">
+      <c r="E197" s="2">
         <v>106</v>
       </c>
-      <c r="F197" s="5">
-        <v>15</v>
-      </c>
-      <c r="G197" s="4">
+      <c r="F197" s="3">
+        <v>15</v>
+      </c>
+      <c r="G197" s="2">
         <v>121</v>
       </c>
     </row>
-    <row r="198" spans="1:7">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A198" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B198" s="2">
+      <c r="B198" s="3">
         <v>40</v>
       </c>
       <c r="C198" s="1" t="s">
@@ -5980,21 +5975,21 @@
       <c r="D198" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="E198" s="4">
+      <c r="E198" s="2">
         <v>100</v>
       </c>
-      <c r="F198" s="5">
+      <c r="F198" s="3">
         <v>16</v>
       </c>
-      <c r="G198" s="4">
+      <c r="G198" s="2">
         <v>116</v>
       </c>
     </row>
-    <row r="199" spans="1:7">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A199" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B199" s="2">
+      <c r="B199" s="3">
         <v>40</v>
       </c>
       <c r="C199" s="1" t="s">
@@ -6003,21 +5998,21 @@
       <c r="D199" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="E199" s="4">
+      <c r="E199" s="2">
         <v>100</v>
       </c>
-      <c r="F199" s="5">
+      <c r="F199" s="3">
         <v>25</v>
       </c>
-      <c r="G199" s="4">
+      <c r="G199" s="2">
         <v>125</v>
       </c>
     </row>
-    <row r="200" spans="1:7">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A200" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B200" s="2">
+      <c r="B200" s="3">
         <v>40</v>
       </c>
       <c r="C200" s="1" t="s">
@@ -6026,21 +6021,21 @@
       <c r="D200" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="E200" s="4">
+      <c r="E200" s="2">
         <v>100</v>
       </c>
-      <c r="F200" s="5">
-        <v>15</v>
-      </c>
-      <c r="G200" s="4">
+      <c r="F200" s="3">
+        <v>15</v>
+      </c>
+      <c r="G200" s="2">
         <v>115</v>
       </c>
     </row>
-    <row r="201" spans="1:7">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A201" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B201" s="2">
+      <c r="B201" s="3">
         <v>40</v>
       </c>
       <c r="C201" s="1" t="s">
@@ -6049,21 +6044,21 @@
       <c r="D201" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="E201" s="4">
+      <c r="E201" s="2">
         <v>100</v>
       </c>
-      <c r="F201" s="4">
+      <c r="F201" s="2">
         <v>20</v>
       </c>
-      <c r="G201" s="4">
+      <c r="G201" s="2">
         <v>120</v>
       </c>
     </row>
-    <row r="202" spans="1:7">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A202" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B202" s="2">
+      <c r="B202" s="3">
         <v>41</v>
       </c>
       <c r="C202" s="1" t="s">
@@ -6072,21 +6067,21 @@
       <c r="D202" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="E202" s="4">
+      <c r="E202" s="2">
         <v>101</v>
       </c>
-      <c r="F202" s="5">
-        <v>15</v>
-      </c>
-      <c r="G202" s="4">
+      <c r="F202" s="3">
+        <v>15</v>
+      </c>
+      <c r="G202" s="2">
         <v>116</v>
       </c>
     </row>
-    <row r="203" spans="1:7">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A203" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B203" s="2">
+      <c r="B203" s="3">
         <v>41</v>
       </c>
       <c r="C203" s="1" t="s">
@@ -6095,21 +6090,21 @@
       <c r="D203" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="E203" s="4">
+      <c r="E203" s="2">
         <v>114</v>
       </c>
-      <c r="F203" s="5">
+      <c r="F203" s="3">
         <v>16</v>
       </c>
-      <c r="G203" s="4">
+      <c r="G203" s="2">
         <v>130</v>
       </c>
     </row>
-    <row r="204" spans="1:7">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A204" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B204" s="2">
+      <c r="B204" s="3">
         <v>41</v>
       </c>
       <c r="C204" s="1" t="s">
@@ -6118,21 +6113,21 @@
       <c r="D204" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="E204" s="4">
+      <c r="E204" s="2">
         <v>114</v>
       </c>
-      <c r="F204" s="5">
+      <c r="F204" s="3">
         <v>25</v>
       </c>
-      <c r="G204" s="4">
+      <c r="G204" s="2">
         <v>139</v>
       </c>
     </row>
-    <row r="205" spans="1:7">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A205" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B205" s="2">
+      <c r="B205" s="3">
         <v>41</v>
       </c>
       <c r="C205" s="1" t="s">
@@ -6141,21 +6136,21 @@
       <c r="D205" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="E205" s="4">
+      <c r="E205" s="2">
         <v>114</v>
       </c>
-      <c r="F205" s="5">
-        <v>15</v>
-      </c>
-      <c r="G205" s="4">
+      <c r="F205" s="3">
+        <v>15</v>
+      </c>
+      <c r="G205" s="2">
         <v>129</v>
       </c>
     </row>
-    <row r="206" spans="1:7">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A206" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B206" s="2">
+      <c r="B206" s="3">
         <v>41</v>
       </c>
       <c r="C206" s="1" t="s">
@@ -6164,21 +6159,21 @@
       <c r="D206" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="E206" s="4">
+      <c r="E206" s="2">
         <v>114</v>
       </c>
-      <c r="F206" s="4">
+      <c r="F206" s="2">
         <v>20</v>
       </c>
-      <c r="G206" s="4">
+      <c r="G206" s="2">
         <v>134</v>
       </c>
     </row>
-    <row r="207" spans="1:7">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A207" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B207" s="2">
+      <c r="B207" s="3">
         <v>42</v>
       </c>
       <c r="C207" s="1" t="s">
@@ -6187,21 +6182,21 @@
       <c r="D207" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="E207" s="4">
+      <c r="E207" s="2">
         <v>114</v>
       </c>
-      <c r="F207" s="5">
-        <v>15</v>
-      </c>
-      <c r="G207" s="4">
+      <c r="F207" s="3">
+        <v>15</v>
+      </c>
+      <c r="G207" s="2">
         <v>129</v>
       </c>
     </row>
-    <row r="208" spans="1:7">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A208" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B208" s="2">
+      <c r="B208" s="3">
         <v>42</v>
       </c>
       <c r="C208" s="1" t="s">
@@ -6210,21 +6205,21 @@
       <c r="D208" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="E208" s="4">
+      <c r="E208" s="2">
         <v>112</v>
       </c>
-      <c r="F208" s="5">
+      <c r="F208" s="3">
         <v>16</v>
       </c>
-      <c r="G208" s="4">
+      <c r="G208" s="2">
         <v>128</v>
       </c>
     </row>
-    <row r="209" spans="1:7">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A209" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B209" s="2">
+      <c r="B209" s="3">
         <v>42</v>
       </c>
       <c r="C209" s="1" t="s">
@@ -6233,21 +6228,21 @@
       <c r="D209" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="E209" s="4">
+      <c r="E209" s="2">
         <v>112</v>
       </c>
-      <c r="F209" s="5">
+      <c r="F209" s="3">
         <v>25</v>
       </c>
-      <c r="G209" s="4">
+      <c r="G209" s="2">
         <v>137</v>
       </c>
     </row>
-    <row r="210" spans="1:7">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A210" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B210" s="2">
+      <c r="B210" s="3">
         <v>42</v>
       </c>
       <c r="C210" s="1" t="s">
@@ -6256,21 +6251,21 @@
       <c r="D210" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="E210" s="4">
+      <c r="E210" s="2">
         <v>112</v>
       </c>
-      <c r="F210" s="5">
-        <v>15</v>
-      </c>
-      <c r="G210" s="4">
+      <c r="F210" s="3">
+        <v>15</v>
+      </c>
+      <c r="G210" s="2">
         <v>127</v>
       </c>
     </row>
-    <row r="211" spans="1:7">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A211" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B211" s="2">
+      <c r="B211" s="3">
         <v>42</v>
       </c>
       <c r="C211" s="1" t="s">
@@ -6279,21 +6274,21 @@
       <c r="D211" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="E211" s="4">
+      <c r="E211" s="2">
         <v>112</v>
       </c>
-      <c r="F211" s="4">
+      <c r="F211" s="2">
         <v>20</v>
       </c>
-      <c r="G211" s="4">
+      <c r="G211" s="2">
         <v>132</v>
       </c>
     </row>
-    <row r="212" spans="1:7">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A212" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B212" s="2">
+      <c r="B212" s="3">
         <v>43</v>
       </c>
       <c r="C212" s="1" t="s">
@@ -6302,21 +6297,21 @@
       <c r="D212" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="E212" s="4">
+      <c r="E212" s="2">
         <v>96</v>
       </c>
-      <c r="F212" s="5">
-        <v>15</v>
-      </c>
-      <c r="G212" s="4">
+      <c r="F212" s="3">
+        <v>15</v>
+      </c>
+      <c r="G212" s="2">
         <v>111</v>
       </c>
     </row>
-    <row r="213" spans="1:7">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A213" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B213" s="2">
+      <c r="B213" s="3">
         <v>43</v>
       </c>
       <c r="C213" s="1" t="s">
@@ -6325,21 +6320,21 @@
       <c r="D213" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="E213" s="4">
+      <c r="E213" s="2">
         <v>90</v>
       </c>
-      <c r="F213" s="5">
+      <c r="F213" s="3">
         <v>16</v>
       </c>
-      <c r="G213" s="4">
+      <c r="G213" s="2">
         <v>106</v>
       </c>
     </row>
-    <row r="214" spans="1:7">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A214" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B214" s="2">
+      <c r="B214" s="3">
         <v>43</v>
       </c>
       <c r="C214" s="1" t="s">
@@ -6348,21 +6343,21 @@
       <c r="D214" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="E214" s="4">
+      <c r="E214" s="2">
         <v>90</v>
       </c>
-      <c r="F214" s="5">
+      <c r="F214" s="3">
         <v>25</v>
       </c>
-      <c r="G214" s="4">
+      <c r="G214" s="2">
         <v>115</v>
       </c>
     </row>
-    <row r="215" spans="1:7">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A215" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B215" s="2">
+      <c r="B215" s="3">
         <v>43</v>
       </c>
       <c r="C215" s="1" t="s">
@@ -6371,21 +6366,21 @@
       <c r="D215" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="E215" s="4">
+      <c r="E215" s="2">
         <v>90</v>
       </c>
-      <c r="F215" s="5">
-        <v>15</v>
-      </c>
-      <c r="G215" s="4">
+      <c r="F215" s="3">
+        <v>15</v>
+      </c>
+      <c r="G215" s="2">
         <v>105</v>
       </c>
     </row>
-    <row r="216" spans="1:7">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A216" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B216" s="2">
+      <c r="B216" s="3">
         <v>43</v>
       </c>
       <c r="C216" s="1" t="s">
@@ -6394,21 +6389,21 @@
       <c r="D216" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="E216" s="4">
+      <c r="E216" s="2">
         <v>90</v>
       </c>
-      <c r="F216" s="4">
+      <c r="F216" s="2">
         <v>20</v>
       </c>
-      <c r="G216" s="4">
+      <c r="G216" s="2">
         <v>110</v>
       </c>
     </row>
-    <row r="217" spans="1:7">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A217" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B217" s="2">
+      <c r="B217" s="3">
         <v>44</v>
       </c>
       <c r="C217" s="1" t="s">
@@ -6417,21 +6412,21 @@
       <c r="D217" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="E217" s="4">
+      <c r="E217" s="2">
         <v>124</v>
       </c>
-      <c r="F217" s="5">
-        <v>15</v>
-      </c>
-      <c r="G217" s="4">
+      <c r="F217" s="3">
+        <v>15</v>
+      </c>
+      <c r="G217" s="2">
         <v>139</v>
       </c>
     </row>
-    <row r="218" spans="1:7">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A218" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B218" s="2">
+      <c r="B218" s="3">
         <v>44</v>
       </c>
       <c r="C218" s="1" t="s">
@@ -6440,21 +6435,21 @@
       <c r="D218" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="E218" s="4">
+      <c r="E218" s="2">
         <v>115</v>
       </c>
-      <c r="F218" s="5">
+      <c r="F218" s="3">
         <v>16</v>
       </c>
-      <c r="G218" s="4">
+      <c r="G218" s="2">
         <v>131</v>
       </c>
     </row>
-    <row r="219" spans="1:7">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A219" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B219" s="2">
+      <c r="B219" s="3">
         <v>44</v>
       </c>
       <c r="C219" s="1" t="s">
@@ -6463,21 +6458,21 @@
       <c r="D219" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="E219" s="4">
+      <c r="E219" s="2">
         <v>115</v>
       </c>
-      <c r="F219" s="5">
+      <c r="F219" s="3">
         <v>25</v>
       </c>
-      <c r="G219" s="4">
+      <c r="G219" s="2">
         <v>140</v>
       </c>
     </row>
-    <row r="220" spans="1:7">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A220" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B220" s="2">
+      <c r="B220" s="3">
         <v>44</v>
       </c>
       <c r="C220" s="1" t="s">
@@ -6486,21 +6481,21 @@
       <c r="D220" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="E220" s="4">
+      <c r="E220" s="2">
         <v>115</v>
       </c>
-      <c r="F220" s="5">
-        <v>15</v>
-      </c>
-      <c r="G220" s="4">
+      <c r="F220" s="3">
+        <v>15</v>
+      </c>
+      <c r="G220" s="2">
         <v>130</v>
       </c>
     </row>
-    <row r="221" spans="1:7">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A221" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B221" s="2">
+      <c r="B221" s="3">
         <v>44</v>
       </c>
       <c r="C221" s="1" t="s">
@@ -6509,21 +6504,21 @@
       <c r="D221" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="E221" s="4">
+      <c r="E221" s="2">
         <v>115</v>
       </c>
-      <c r="F221" s="4">
+      <c r="F221" s="2">
         <v>20</v>
       </c>
-      <c r="G221" s="4">
+      <c r="G221" s="2">
         <v>135</v>
       </c>
     </row>
-    <row r="222" spans="1:7">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A222" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B222" s="2">
+      <c r="B222" s="3">
         <v>45</v>
       </c>
       <c r="C222" s="1" t="s">
@@ -6532,21 +6527,21 @@
       <c r="D222" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="E222" s="4">
+      <c r="E222" s="2">
         <v>77</v>
       </c>
-      <c r="F222" s="5">
-        <v>15</v>
-      </c>
-      <c r="G222" s="4">
+      <c r="F222" s="3">
+        <v>15</v>
+      </c>
+      <c r="G222" s="2">
         <v>92</v>
       </c>
     </row>
-    <row r="223" spans="1:7">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A223" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B223" s="2">
+      <c r="B223" s="3">
         <v>45</v>
       </c>
       <c r="C223" s="1" t="s">
@@ -6555,21 +6550,21 @@
       <c r="D223" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="E223" s="4">
+      <c r="E223" s="2">
         <v>103</v>
       </c>
-      <c r="F223" s="5">
+      <c r="F223" s="3">
         <v>16</v>
       </c>
-      <c r="G223" s="4">
+      <c r="G223" s="2">
         <v>119</v>
       </c>
     </row>
-    <row r="224" spans="1:7">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A224" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B224" s="2">
+      <c r="B224" s="3">
         <v>45</v>
       </c>
       <c r="C224" s="1" t="s">
@@ -6578,21 +6573,21 @@
       <c r="D224" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="E224" s="4">
+      <c r="E224" s="2">
         <v>103</v>
       </c>
-      <c r="F224" s="5">
+      <c r="F224" s="3">
         <v>25</v>
       </c>
-      <c r="G224" s="4">
+      <c r="G224" s="2">
         <v>128</v>
       </c>
     </row>
-    <row r="225" spans="1:7">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A225" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B225" s="2">
+      <c r="B225" s="3">
         <v>45</v>
       </c>
       <c r="C225" s="1" t="s">
@@ -6601,21 +6596,21 @@
       <c r="D225" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="E225" s="4">
+      <c r="E225" s="2">
         <v>103</v>
       </c>
-      <c r="F225" s="5">
-        <v>15</v>
-      </c>
-      <c r="G225" s="4">
+      <c r="F225" s="3">
+        <v>15</v>
+      </c>
+      <c r="G225" s="2">
         <v>118</v>
       </c>
     </row>
-    <row r="226" spans="1:7">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A226" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B226" s="2">
+      <c r="B226" s="3">
         <v>45</v>
       </c>
       <c r="C226" s="1" t="s">
@@ -6624,21 +6619,21 @@
       <c r="D226" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="E226" s="4">
+      <c r="E226" s="2">
         <v>103</v>
       </c>
-      <c r="F226" s="4">
+      <c r="F226" s="2">
         <v>20</v>
       </c>
-      <c r="G226" s="4">
+      <c r="G226" s="2">
         <v>123</v>
       </c>
     </row>
-    <row r="227" spans="1:7">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A227" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B227" s="2">
+      <c r="B227" s="3">
         <v>46</v>
       </c>
       <c r="C227" s="1" t="s">
@@ -6647,21 +6642,21 @@
       <c r="D227" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="E227" s="5">
+      <c r="E227" s="3">
         <v>91</v>
       </c>
-      <c r="F227" s="5">
+      <c r="F227" s="3">
         <v>16</v>
       </c>
-      <c r="G227" s="4">
+      <c r="G227" s="2">
         <v>107</v>
       </c>
     </row>
-    <row r="228" spans="1:7">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A228" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B228" s="3">
+      <c r="B228" s="2">
         <v>46</v>
       </c>
       <c r="C228" s="1" t="s">
@@ -6670,21 +6665,21 @@
       <c r="D228" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="E228" s="5">
+      <c r="E228" s="3">
         <v>91</v>
       </c>
-      <c r="F228" s="5">
+      <c r="F228" s="3">
         <v>25</v>
       </c>
-      <c r="G228" s="4">
+      <c r="G228" s="2">
         <v>116</v>
       </c>
     </row>
-    <row r="229" spans="1:7">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A229" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B229" s="3">
+      <c r="B229" s="2">
         <v>46</v>
       </c>
       <c r="C229" s="1" t="s">
@@ -6693,21 +6688,21 @@
       <c r="D229" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="E229" s="5">
+      <c r="E229" s="3">
         <v>91</v>
       </c>
-      <c r="F229" s="5">
-        <v>15</v>
-      </c>
-      <c r="G229" s="4">
+      <c r="F229" s="3">
+        <v>15</v>
+      </c>
+      <c r="G229" s="2">
         <v>106</v>
       </c>
     </row>
-    <row r="230" spans="1:7">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A230" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B230" s="3">
+      <c r="B230" s="2">
         <v>46</v>
       </c>
       <c r="C230" s="1" t="s">
@@ -6716,21 +6711,21 @@
       <c r="D230" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="E230" s="5">
+      <c r="E230" s="3">
         <v>91</v>
       </c>
-      <c r="F230" s="4">
+      <c r="F230" s="2">
         <v>20</v>
       </c>
-      <c r="G230" s="4">
+      <c r="G230" s="2">
         <v>111</v>
       </c>
     </row>
-    <row r="231" spans="1:7">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A231" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B231" s="2">
+      <c r="B231" s="3">
         <v>47</v>
       </c>
       <c r="C231" s="1" t="s">
@@ -6739,21 +6734,21 @@
       <c r="D231" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="E231" s="4">
+      <c r="E231" s="2">
         <v>107</v>
       </c>
-      <c r="F231" s="5">
+      <c r="F231" s="3">
         <v>16</v>
       </c>
-      <c r="G231" s="4">
+      <c r="G231" s="2">
         <v>123</v>
       </c>
     </row>
-    <row r="232" spans="1:7">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A232" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B232" s="3">
+      <c r="B232" s="2">
         <v>47</v>
       </c>
       <c r="C232" s="1" t="s">
@@ -6762,21 +6757,21 @@
       <c r="D232" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="E232" s="4">
+      <c r="E232" s="2">
         <v>107</v>
       </c>
-      <c r="F232" s="5">
+      <c r="F232" s="3">
         <v>25</v>
       </c>
-      <c r="G232" s="4">
+      <c r="G232" s="2">
         <v>132</v>
       </c>
     </row>
-    <row r="233" spans="1:7">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A233" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B233" s="3">
+      <c r="B233" s="2">
         <v>47</v>
       </c>
       <c r="C233" s="1" t="s">
@@ -6785,21 +6780,21 @@
       <c r="D233" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="E233" s="4">
+      <c r="E233" s="2">
         <v>107</v>
       </c>
-      <c r="F233" s="5">
-        <v>15</v>
-      </c>
-      <c r="G233" s="4">
+      <c r="F233" s="3">
+        <v>15</v>
+      </c>
+      <c r="G233" s="2">
         <v>122</v>
       </c>
     </row>
-    <row r="234" spans="1:7">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A234" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B234" s="3">
+      <c r="B234" s="2">
         <v>47</v>
       </c>
       <c r="C234" s="1" t="s">
@@ -6808,21 +6803,21 @@
       <c r="D234" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="E234" s="4">
+      <c r="E234" s="2">
         <v>107</v>
       </c>
-      <c r="F234" s="4">
+      <c r="F234" s="2">
         <v>20</v>
       </c>
-      <c r="G234" s="4">
+      <c r="G234" s="2">
         <v>127</v>
       </c>
     </row>
-    <row r="235" spans="1:7">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A235" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B235" s="2">
+      <c r="B235" s="3">
         <v>48</v>
       </c>
       <c r="C235" s="1" t="s">
@@ -6831,21 +6826,21 @@
       <c r="D235" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="E235" s="4">
+      <c r="E235" s="2">
         <v>53</v>
       </c>
-      <c r="F235" s="5">
+      <c r="F235" s="3">
         <v>16</v>
       </c>
-      <c r="G235" s="4">
+      <c r="G235" s="2">
         <v>69</v>
       </c>
     </row>
-    <row r="236" spans="1:7">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A236" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B236" s="3">
+      <c r="B236" s="2">
         <v>48</v>
       </c>
       <c r="C236" s="1" t="s">
@@ -6854,21 +6849,21 @@
       <c r="D236" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="E236" s="4">
+      <c r="E236" s="2">
         <v>53</v>
       </c>
-      <c r="F236" s="5">
+      <c r="F236" s="3">
         <v>25</v>
       </c>
-      <c r="G236" s="4">
+      <c r="G236" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="237" spans="1:7">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A237" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B237" s="3">
+      <c r="B237" s="2">
         <v>48</v>
       </c>
       <c r="C237" s="1" t="s">
@@ -6877,21 +6872,21 @@
       <c r="D237" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="E237" s="4">
+      <c r="E237" s="2">
         <v>53</v>
       </c>
-      <c r="F237" s="5">
-        <v>15</v>
-      </c>
-      <c r="G237" s="4">
+      <c r="F237" s="3">
+        <v>15</v>
+      </c>
+      <c r="G237" s="2">
         <v>68</v>
       </c>
     </row>
-    <row r="238" spans="1:7">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A238" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B238" s="3">
+      <c r="B238" s="2">
         <v>48</v>
       </c>
       <c r="C238" s="1" t="s">
@@ -6900,21 +6895,21 @@
       <c r="D238" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="E238" s="4">
+      <c r="E238" s="2">
         <v>53</v>
       </c>
-      <c r="F238" s="4">
+      <c r="F238" s="2">
         <v>20</v>
       </c>
-      <c r="G238" s="4">
+      <c r="G238" s="2">
         <v>73</v>
       </c>
     </row>
-    <row r="239" spans="1:7">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A239" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B239" s="2">
+      <c r="B239" s="3">
         <v>49</v>
       </c>
       <c r="C239" s="1" t="s">
@@ -6923,21 +6918,21 @@
       <c r="D239" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="E239" s="4">
+      <c r="E239" s="2">
         <v>122</v>
       </c>
-      <c r="F239" s="5">
+      <c r="F239" s="3">
         <v>16</v>
       </c>
-      <c r="G239" s="4">
+      <c r="G239" s="2">
         <v>138</v>
       </c>
     </row>
-    <row r="240" spans="1:7">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A240" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B240" s="3">
+      <c r="B240" s="2">
         <v>49</v>
       </c>
       <c r="C240" s="1" t="s">
@@ -6946,21 +6941,21 @@
       <c r="D240" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="E240" s="4">
+      <c r="E240" s="2">
         <v>122</v>
       </c>
-      <c r="F240" s="5">
+      <c r="F240" s="3">
         <v>25</v>
       </c>
-      <c r="G240" s="4">
+      <c r="G240" s="2">
         <v>147</v>
       </c>
     </row>
-    <row r="241" spans="1:7">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A241" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B241" s="3">
+      <c r="B241" s="2">
         <v>49</v>
       </c>
       <c r="C241" s="1" t="s">
@@ -6969,21 +6964,21 @@
       <c r="D241" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="E241" s="4">
+      <c r="E241" s="2">
         <v>122</v>
       </c>
-      <c r="F241" s="5">
-        <v>15</v>
-      </c>
-      <c r="G241" s="4">
+      <c r="F241" s="3">
+        <v>15</v>
+      </c>
+      <c r="G241" s="2">
         <v>137</v>
       </c>
     </row>
-    <row r="242" spans="1:7">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A242" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B242" s="3">
+      <c r="B242" s="2">
         <v>49</v>
       </c>
       <c r="C242" s="1" t="s">
@@ -6992,21 +6987,21 @@
       <c r="D242" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="E242" s="4">
+      <c r="E242" s="2">
         <v>122</v>
       </c>
-      <c r="F242" s="4">
+      <c r="F242" s="2">
         <v>20</v>
       </c>
-      <c r="G242" s="4">
+      <c r="G242" s="2">
         <v>142</v>
       </c>
     </row>
-    <row r="243" spans="1:7">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A243" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B243" s="2">
+      <c r="B243" s="3">
         <v>50</v>
       </c>
       <c r="C243" s="1" t="s">
@@ -7015,21 +7010,21 @@
       <c r="D243" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="E243" s="4">
+      <c r="E243" s="2">
         <v>83</v>
       </c>
-      <c r="F243" s="5">
+      <c r="F243" s="3">
         <v>16</v>
       </c>
-      <c r="G243" s="4">
+      <c r="G243" s="2">
         <v>99</v>
       </c>
     </row>
-    <row r="244" spans="1:7">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A244" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B244" s="3">
+      <c r="B244" s="2">
         <v>50</v>
       </c>
       <c r="C244" s="1" t="s">
@@ -7038,21 +7033,21 @@
       <c r="D244" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="E244" s="4">
+      <c r="E244" s="2">
         <v>83</v>
       </c>
-      <c r="F244" s="5">
+      <c r="F244" s="3">
         <v>25</v>
       </c>
-      <c r="G244" s="4">
+      <c r="G244" s="2">
         <v>108</v>
       </c>
     </row>
-    <row r="245" spans="1:7">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A245" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B245" s="3">
+      <c r="B245" s="2">
         <v>50</v>
       </c>
       <c r="C245" s="1" t="s">
@@ -7061,21 +7056,21 @@
       <c r="D245" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="E245" s="4">
+      <c r="E245" s="2">
         <v>83</v>
       </c>
-      <c r="F245" s="5">
-        <v>15</v>
-      </c>
-      <c r="G245" s="4">
+      <c r="F245" s="3">
+        <v>15</v>
+      </c>
+      <c r="G245" s="2">
         <v>98</v>
       </c>
     </row>
-    <row r="246" spans="1:7">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A246" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B246" s="3">
+      <c r="B246" s="2">
         <v>50</v>
       </c>
       <c r="C246" s="1" t="s">
@@ -7084,21 +7079,21 @@
       <c r="D246" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="E246" s="4">
+      <c r="E246" s="2">
         <v>83</v>
       </c>
-      <c r="F246" s="4">
+      <c r="F246" s="2">
         <v>20</v>
       </c>
-      <c r="G246" s="4">
+      <c r="G246" s="2">
         <v>103</v>
       </c>
     </row>
-    <row r="247" spans="1:7">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A247" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B247" s="2">
+      <c r="B247" s="3">
         <v>51</v>
       </c>
       <c r="C247" s="1" t="s">
@@ -7107,21 +7102,21 @@
       <c r="D247" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="E247" s="4">
+      <c r="E247" s="2">
         <v>130</v>
       </c>
-      <c r="F247" s="5">
+      <c r="F247" s="3">
         <v>16</v>
       </c>
-      <c r="G247" s="4">
+      <c r="G247" s="2">
         <v>146</v>
       </c>
     </row>
-    <row r="248" spans="1:7">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A248" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B248" s="3">
+      <c r="B248" s="2">
         <v>51</v>
       </c>
       <c r="C248" s="1" t="s">
@@ -7130,21 +7125,21 @@
       <c r="D248" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="E248" s="4">
+      <c r="E248" s="2">
         <v>130</v>
       </c>
-      <c r="F248" s="5">
+      <c r="F248" s="3">
         <v>25</v>
       </c>
-      <c r="G248" s="4">
+      <c r="G248" s="2">
         <v>155</v>
       </c>
     </row>
-    <row r="249" spans="1:7">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A249" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B249" s="3">
+      <c r="B249" s="2">
         <v>51</v>
       </c>
       <c r="C249" s="1" t="s">
@@ -7153,21 +7148,21 @@
       <c r="D249" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="E249" s="4">
+      <c r="E249" s="2">
         <v>130</v>
       </c>
-      <c r="F249" s="5">
-        <v>15</v>
-      </c>
-      <c r="G249" s="4">
+      <c r="F249" s="3">
+        <v>15</v>
+      </c>
+      <c r="G249" s="2">
         <v>145</v>
       </c>
     </row>
-    <row r="250" spans="1:7">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A250" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B250" s="3">
+      <c r="B250" s="2">
         <v>51</v>
       </c>
       <c r="C250" s="1" t="s">
@@ -7176,21 +7171,21 @@
       <c r="D250" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="E250" s="4">
+      <c r="E250" s="2">
         <v>130</v>
       </c>
-      <c r="F250" s="4">
+      <c r="F250" s="2">
         <v>20</v>
       </c>
-      <c r="G250" s="4">
+      <c r="G250" s="2">
         <v>150</v>
       </c>
     </row>
-    <row r="251" spans="1:7">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A251" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B251" s="2">
+      <c r="B251" s="3">
         <v>52</v>
       </c>
       <c r="C251" s="1" t="s">
@@ -7199,21 +7194,21 @@
       <c r="D251" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="E251" s="4">
+      <c r="E251" s="2">
         <v>80</v>
       </c>
-      <c r="F251" s="5">
+      <c r="F251" s="3">
         <v>16</v>
       </c>
-      <c r="G251" s="4">
+      <c r="G251" s="2">
         <v>96</v>
       </c>
     </row>
-    <row r="252" spans="1:7">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A252" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B252" s="3">
+      <c r="B252" s="2">
         <v>52</v>
       </c>
       <c r="C252" s="1" t="s">
@@ -7222,21 +7217,21 @@
       <c r="D252" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="E252" s="4">
+      <c r="E252" s="2">
         <v>80</v>
       </c>
-      <c r="F252" s="5">
+      <c r="F252" s="3">
         <v>25</v>
       </c>
-      <c r="G252" s="4">
+      <c r="G252" s="2">
         <v>105</v>
       </c>
     </row>
-    <row r="253" spans="1:7">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A253" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B253" s="3">
+      <c r="B253" s="2">
         <v>52</v>
       </c>
       <c r="C253" s="1" t="s">
@@ -7245,21 +7240,21 @@
       <c r="D253" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="E253" s="4">
+      <c r="E253" s="2">
         <v>80</v>
       </c>
-      <c r="F253" s="5">
-        <v>15</v>
-      </c>
-      <c r="G253" s="4">
+      <c r="F253" s="3">
+        <v>15</v>
+      </c>
+      <c r="G253" s="2">
         <v>95</v>
       </c>
     </row>
-    <row r="254" spans="1:7">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A254" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B254" s="3">
+      <c r="B254" s="2">
         <v>52</v>
       </c>
       <c r="C254" s="1" t="s">
@@ -7268,21 +7263,21 @@
       <c r="D254" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="E254" s="4">
+      <c r="E254" s="2">
         <v>80</v>
       </c>
-      <c r="F254" s="4">
+      <c r="F254" s="2">
         <v>20</v>
       </c>
-      <c r="G254" s="4">
+      <c r="G254" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="255" spans="1:7">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A255" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B255" s="2">
+      <c r="B255" s="3">
         <v>53</v>
       </c>
       <c r="C255" s="1" t="s">
@@ -7291,21 +7286,21 @@
       <c r="D255" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="E255" s="4">
+      <c r="E255" s="2">
         <v>58</v>
       </c>
-      <c r="F255" s="5">
+      <c r="F255" s="3">
         <v>16</v>
       </c>
-      <c r="G255" s="4">
+      <c r="G255" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="256" spans="1:7">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A256" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B256" s="3">
+      <c r="B256" s="2">
         <v>53</v>
       </c>
       <c r="C256" s="1" t="s">
@@ -7314,21 +7309,21 @@
       <c r="D256" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="E256" s="4">
+      <c r="E256" s="2">
         <v>58</v>
       </c>
-      <c r="F256" s="5">
+      <c r="F256" s="3">
         <v>25</v>
       </c>
-      <c r="G256" s="4">
+      <c r="G256" s="2">
         <v>83</v>
       </c>
     </row>
-    <row r="257" spans="1:7">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A257" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B257" s="3">
+      <c r="B257" s="2">
         <v>53</v>
       </c>
       <c r="C257" s="1" t="s">
@@ -7337,21 +7332,21 @@
       <c r="D257" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="E257" s="4">
+      <c r="E257" s="2">
         <v>58</v>
       </c>
-      <c r="F257" s="5">
-        <v>15</v>
-      </c>
-      <c r="G257" s="4">
+      <c r="F257" s="3">
+        <v>15</v>
+      </c>
+      <c r="G257" s="2">
         <v>73</v>
       </c>
     </row>
-    <row r="258" spans="1:7">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A258" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B258" s="3">
+      <c r="B258" s="2">
         <v>53</v>
       </c>
       <c r="C258" s="1" t="s">
@@ -7360,21 +7355,21 @@
       <c r="D258" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="E258" s="4">
+      <c r="E258" s="2">
         <v>58</v>
       </c>
-      <c r="F258" s="4">
+      <c r="F258" s="2">
         <v>20</v>
       </c>
-      <c r="G258" s="4">
+      <c r="G258" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="259" spans="1:7">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A259" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B259" s="2">
+      <c r="B259" s="3">
         <v>54</v>
       </c>
       <c r="C259" s="1" t="s">
@@ -7383,21 +7378,21 @@
       <c r="D259" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="E259" s="4">
+      <c r="E259" s="2">
         <v>69</v>
       </c>
-      <c r="F259" s="5">
+      <c r="F259" s="3">
         <v>16</v>
       </c>
-      <c r="G259" s="4">
+      <c r="G259" s="2">
         <v>85</v>
       </c>
     </row>
-    <row r="260" spans="1:7">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A260" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B260" s="3">
+      <c r="B260" s="2">
         <v>54</v>
       </c>
       <c r="C260" s="1" t="s">
@@ -7406,21 +7401,21 @@
       <c r="D260" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="E260" s="4">
+      <c r="E260" s="2">
         <v>69</v>
       </c>
-      <c r="F260" s="5">
+      <c r="F260" s="3">
         <v>25</v>
       </c>
-      <c r="G260" s="4">
+      <c r="G260" s="2">
         <v>94</v>
       </c>
     </row>
-    <row r="261" spans="1:7">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A261" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B261" s="3">
+      <c r="B261" s="2">
         <v>54</v>
       </c>
       <c r="C261" s="1" t="s">
@@ -7429,21 +7424,21 @@
       <c r="D261" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="E261" s="4">
+      <c r="E261" s="2">
         <v>69</v>
       </c>
-      <c r="F261" s="5">
-        <v>15</v>
-      </c>
-      <c r="G261" s="4">
+      <c r="F261" s="3">
+        <v>15</v>
+      </c>
+      <c r="G261" s="2">
         <v>84</v>
       </c>
     </row>
-    <row r="262" spans="1:7">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A262" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B262" s="3">
+      <c r="B262" s="2">
         <v>54</v>
       </c>
       <c r="C262" s="1" t="s">
@@ -7452,21 +7447,21 @@
       <c r="D262" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="E262" s="4">
+      <c r="E262" s="2">
         <v>69</v>
       </c>
-      <c r="F262" s="4">
+      <c r="F262" s="2">
         <v>20</v>
       </c>
-      <c r="G262" s="4">
+      <c r="G262" s="2">
         <v>89</v>
       </c>
     </row>
-    <row r="263" spans="1:7">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A263" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B263" s="2">
+      <c r="B263" s="3">
         <v>55</v>
       </c>
       <c r="C263" s="1" t="s">
@@ -7475,21 +7470,21 @@
       <c r="D263" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="E263" s="4">
+      <c r="E263" s="2">
         <v>56</v>
       </c>
-      <c r="F263" s="5">
+      <c r="F263" s="3">
         <v>16</v>
       </c>
-      <c r="G263" s="4">
+      <c r="G263" s="2">
         <v>72</v>
       </c>
     </row>
-    <row r="264" spans="1:7">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A264" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B264" s="3">
+      <c r="B264" s="2">
         <v>55</v>
       </c>
       <c r="C264" s="1" t="s">
@@ -7498,21 +7493,21 @@
       <c r="D264" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="E264" s="4">
+      <c r="E264" s="2">
         <v>56</v>
       </c>
-      <c r="F264" s="5">
+      <c r="F264" s="3">
         <v>25</v>
       </c>
-      <c r="G264" s="4">
+      <c r="G264" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="265" spans="1:7">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A265" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B265" s="3">
+      <c r="B265" s="2">
         <v>55</v>
       </c>
       <c r="C265" s="1" t="s">
@@ -7521,21 +7516,21 @@
       <c r="D265" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="E265" s="4">
+      <c r="E265" s="2">
         <v>56</v>
       </c>
-      <c r="F265" s="5">
-        <v>15</v>
-      </c>
-      <c r="G265" s="4">
+      <c r="F265" s="3">
+        <v>15</v>
+      </c>
+      <c r="G265" s="2">
         <v>71</v>
       </c>
     </row>
-    <row r="266" spans="1:7">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A266" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B266" s="3">
+      <c r="B266" s="2">
         <v>55</v>
       </c>
       <c r="C266" s="1" t="s">
@@ -7544,21 +7539,21 @@
       <c r="D266" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="E266" s="4">
+      <c r="E266" s="2">
         <v>56</v>
       </c>
-      <c r="F266" s="4">
+      <c r="F266" s="2">
         <v>20</v>
       </c>
-      <c r="G266" s="4">
+      <c r="G266" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="267" spans="1:7">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A267" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B267" s="2">
+      <c r="B267" s="3">
         <v>56</v>
       </c>
       <c r="C267" s="1" t="s">
@@ -7567,21 +7562,21 @@
       <c r="D267" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="E267" s="4">
+      <c r="E267" s="2">
         <v>80</v>
       </c>
-      <c r="F267" s="5">
+      <c r="F267" s="3">
         <v>16</v>
       </c>
-      <c r="G267" s="4">
+      <c r="G267" s="2">
         <v>96</v>
       </c>
     </row>
-    <row r="268" spans="1:7">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A268" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B268" s="3">
+      <c r="B268" s="2">
         <v>56</v>
       </c>
       <c r="C268" s="1" t="s">
@@ -7590,21 +7585,21 @@
       <c r="D268" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="E268" s="4">
+      <c r="E268" s="2">
         <v>80</v>
       </c>
-      <c r="F268" s="5">
+      <c r="F268" s="3">
         <v>25</v>
       </c>
-      <c r="G268" s="4">
+      <c r="G268" s="2">
         <v>105</v>
       </c>
     </row>
-    <row r="269" spans="1:7">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A269" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B269" s="3">
+      <c r="B269" s="2">
         <v>56</v>
       </c>
       <c r="C269" s="1" t="s">
@@ -7613,21 +7608,21 @@
       <c r="D269" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="E269" s="4">
+      <c r="E269" s="2">
         <v>80</v>
       </c>
-      <c r="F269" s="5">
-        <v>15</v>
-      </c>
-      <c r="G269" s="4">
+      <c r="F269" s="3">
+        <v>15</v>
+      </c>
+      <c r="G269" s="2">
         <v>95</v>
       </c>
     </row>
-    <row r="270" spans="1:7">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A270" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B270" s="3">
+      <c r="B270" s="2">
         <v>56</v>
       </c>
       <c r="C270" s="1" t="s">
@@ -7636,21 +7631,21 @@
       <c r="D270" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="E270" s="4">
+      <c r="E270" s="2">
         <v>80</v>
       </c>
-      <c r="F270" s="4">
+      <c r="F270" s="2">
         <v>20</v>
       </c>
-      <c r="G270" s="4">
+      <c r="G270" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="271" spans="1:7">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A271" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B271" s="2">
+      <c r="B271" s="3">
         <v>57</v>
       </c>
       <c r="C271" s="1" t="s">
@@ -7659,21 +7654,21 @@
       <c r="D271" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="E271" s="4">
+      <c r="E271" s="2">
         <v>61</v>
       </c>
-      <c r="F271" s="5">
+      <c r="F271" s="3">
         <v>16</v>
       </c>
-      <c r="G271" s="4">
+      <c r="G271" s="2">
         <v>77</v>
       </c>
     </row>
-    <row r="272" spans="1:7">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A272" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B272" s="3">
+      <c r="B272" s="2">
         <v>57</v>
       </c>
       <c r="C272" s="1" t="s">
@@ -7682,21 +7677,21 @@
       <c r="D272" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="E272" s="4">
+      <c r="E272" s="2">
         <v>61</v>
       </c>
-      <c r="F272" s="5">
+      <c r="F272" s="3">
         <v>25</v>
       </c>
-      <c r="G272" s="4">
+      <c r="G272" s="2">
         <v>86</v>
       </c>
     </row>
-    <row r="273" spans="1:7">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A273" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B273" s="3">
+      <c r="B273" s="2">
         <v>57</v>
       </c>
       <c r="C273" s="1" t="s">
@@ -7705,21 +7700,21 @@
       <c r="D273" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="E273" s="4">
+      <c r="E273" s="2">
         <v>61</v>
       </c>
-      <c r="F273" s="5">
-        <v>15</v>
-      </c>
-      <c r="G273" s="4">
+      <c r="F273" s="3">
+        <v>15</v>
+      </c>
+      <c r="G273" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="274" spans="1:7">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A274" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B274" s="3">
+      <c r="B274" s="2">
         <v>57</v>
       </c>
       <c r="C274" s="1" t="s">
@@ -7728,21 +7723,21 @@
       <c r="D274" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="E274" s="4">
+      <c r="E274" s="2">
         <v>61</v>
       </c>
-      <c r="F274" s="4">
+      <c r="F274" s="2">
         <v>20</v>
       </c>
-      <c r="G274" s="4">
+      <c r="G274" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="275" spans="1:7">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A275" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B275" s="2">
+      <c r="B275" s="3">
         <v>58</v>
       </c>
       <c r="C275" s="1" t="s">
@@ -7751,21 +7746,21 @@
       <c r="D275" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="E275" s="4">
+      <c r="E275" s="2">
         <v>61</v>
       </c>
-      <c r="F275" s="5">
+      <c r="F275" s="3">
         <v>16</v>
       </c>
-      <c r="G275" s="4">
+      <c r="G275" s="2">
         <v>77</v>
       </c>
     </row>
-    <row r="276" spans="1:7">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A276" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B276" s="3">
+      <c r="B276" s="2">
         <v>58</v>
       </c>
       <c r="C276" s="1" t="s">
@@ -7774,21 +7769,21 @@
       <c r="D276" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="E276" s="4">
+      <c r="E276" s="2">
         <v>61</v>
       </c>
-      <c r="F276" s="5">
+      <c r="F276" s="3">
         <v>25</v>
       </c>
-      <c r="G276" s="4">
+      <c r="G276" s="2">
         <v>86</v>
       </c>
     </row>
-    <row r="277" spans="1:7">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A277" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B277" s="3">
+      <c r="B277" s="2">
         <v>58</v>
       </c>
       <c r="C277" s="1" t="s">
@@ -7797,21 +7792,21 @@
       <c r="D277" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="E277" s="4">
+      <c r="E277" s="2">
         <v>61</v>
       </c>
-      <c r="F277" s="5">
-        <v>15</v>
-      </c>
-      <c r="G277" s="4">
+      <c r="F277" s="3">
+        <v>15</v>
+      </c>
+      <c r="G277" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="278" spans="1:7">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A278" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B278" s="3">
+      <c r="B278" s="2">
         <v>58</v>
       </c>
       <c r="C278" s="1" t="s">
@@ -7820,21 +7815,21 @@
       <c r="D278" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="E278" s="4">
+      <c r="E278" s="2">
         <v>61</v>
       </c>
-      <c r="F278" s="4">
+      <c r="F278" s="2">
         <v>20</v>
       </c>
-      <c r="G278" s="4">
+      <c r="G278" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="279" spans="1:7">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A279" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B279" s="2">
+      <c r="B279" s="3">
         <v>59</v>
       </c>
       <c r="C279" s="1" t="s">
@@ -7843,21 +7838,21 @@
       <c r="D279" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="E279" s="4">
+      <c r="E279" s="2">
         <v>72</v>
       </c>
-      <c r="F279" s="5">
+      <c r="F279" s="3">
         <v>16</v>
       </c>
-      <c r="G279" s="4">
+      <c r="G279" s="2">
         <v>88</v>
       </c>
     </row>
-    <row r="280" spans="1:7">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A280" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B280" s="3">
+      <c r="B280" s="2">
         <v>59</v>
       </c>
       <c r="C280" s="1" t="s">
@@ -7866,21 +7861,21 @@
       <c r="D280" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="E280" s="4">
+      <c r="E280" s="2">
         <v>72</v>
       </c>
-      <c r="F280" s="5">
+      <c r="F280" s="3">
         <v>25</v>
       </c>
-      <c r="G280" s="4">
+      <c r="G280" s="2">
         <v>97</v>
       </c>
     </row>
-    <row r="281" spans="1:7">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A281" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B281" s="3">
+      <c r="B281" s="2">
         <v>59</v>
       </c>
       <c r="C281" s="1" t="s">
@@ -7889,21 +7884,21 @@
       <c r="D281" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="E281" s="4">
+      <c r="E281" s="2">
         <v>72</v>
       </c>
-      <c r="F281" s="5">
-        <v>15</v>
-      </c>
-      <c r="G281" s="4">
+      <c r="F281" s="3">
+        <v>15</v>
+      </c>
+      <c r="G281" s="2">
         <v>87</v>
       </c>
     </row>
-    <row r="282" spans="1:7">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A282" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B282" s="3">
+      <c r="B282" s="2">
         <v>59</v>
       </c>
       <c r="C282" s="1" t="s">
@@ -7912,21 +7907,21 @@
       <c r="D282" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="E282" s="4">
+      <c r="E282" s="2">
         <v>72</v>
       </c>
-      <c r="F282" s="4">
+      <c r="F282" s="2">
         <v>20</v>
       </c>
-      <c r="G282" s="4">
+      <c r="G282" s="2">
         <v>92</v>
       </c>
     </row>
-    <row r="283" spans="1:7">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A283" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B283" s="2">
+      <c r="B283" s="3">
         <v>60</v>
       </c>
       <c r="C283" s="1" t="s">
@@ -7935,21 +7930,21 @@
       <c r="D283" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="E283" s="4">
+      <c r="E283" s="2">
         <v>75</v>
       </c>
-      <c r="F283" s="5">
+      <c r="F283" s="3">
         <v>16</v>
       </c>
-      <c r="G283" s="4">
+      <c r="G283" s="2">
         <v>91</v>
       </c>
     </row>
-    <row r="284" spans="1:7">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A284" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B284" s="3">
+      <c r="B284" s="2">
         <v>60</v>
       </c>
       <c r="C284" s="1" t="s">
@@ -7958,21 +7953,21 @@
       <c r="D284" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="E284" s="4">
+      <c r="E284" s="2">
         <v>75</v>
       </c>
-      <c r="F284" s="5">
+      <c r="F284" s="3">
         <v>25</v>
       </c>
-      <c r="G284" s="4">
+      <c r="G284" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="285" spans="1:7">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A285" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B285" s="3">
+      <c r="B285" s="2">
         <v>60</v>
       </c>
       <c r="C285" s="1" t="s">
@@ -7981,21 +7976,21 @@
       <c r="D285" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="E285" s="4">
+      <c r="E285" s="2">
         <v>75</v>
       </c>
-      <c r="F285" s="5">
-        <v>15</v>
-      </c>
-      <c r="G285" s="4">
+      <c r="F285" s="3">
+        <v>15</v>
+      </c>
+      <c r="G285" s="2">
         <v>90</v>
       </c>
     </row>
-    <row r="286" spans="1:7">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A286" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B286" s="3">
+      <c r="B286" s="2">
         <v>60</v>
       </c>
       <c r="C286" s="1" t="s">
@@ -8004,21 +7999,21 @@
       <c r="D286" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="E286" s="4">
+      <c r="E286" s="2">
         <v>75</v>
       </c>
-      <c r="F286" s="4">
+      <c r="F286" s="2">
         <v>20</v>
       </c>
-      <c r="G286" s="4">
+      <c r="G286" s="2">
         <v>95</v>
       </c>
     </row>
-    <row r="287" spans="1:7">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A287" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B287" s="2">
+      <c r="B287" s="3">
         <v>61</v>
       </c>
       <c r="C287" s="1" t="s">
@@ -8027,21 +8022,21 @@
       <c r="D287" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="E287" s="4">
+      <c r="E287" s="2">
         <v>74</v>
       </c>
-      <c r="F287" s="5">
+      <c r="F287" s="3">
         <v>16</v>
       </c>
-      <c r="G287" s="4">
+      <c r="G287" s="2">
         <v>90</v>
       </c>
     </row>
-    <row r="288" spans="1:7">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A288" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B288" s="3">
+      <c r="B288" s="2">
         <v>61</v>
       </c>
       <c r="C288" s="1" t="s">
@@ -8050,21 +8045,21 @@
       <c r="D288" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="E288" s="4">
+      <c r="E288" s="2">
         <v>74</v>
       </c>
-      <c r="F288" s="5">
+      <c r="F288" s="3">
         <v>25</v>
       </c>
-      <c r="G288" s="4">
+      <c r="G288" s="2">
         <v>99</v>
       </c>
     </row>
-    <row r="289" spans="1:7">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A289" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B289" s="3">
+      <c r="B289" s="2">
         <v>61</v>
       </c>
       <c r="C289" s="1" t="s">
@@ -8073,21 +8068,21 @@
       <c r="D289" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="E289" s="4">
+      <c r="E289" s="2">
         <v>74</v>
       </c>
-      <c r="F289" s="5">
-        <v>15</v>
-      </c>
-      <c r="G289" s="4">
+      <c r="F289" s="3">
+        <v>15</v>
+      </c>
+      <c r="G289" s="2">
         <v>89</v>
       </c>
     </row>
-    <row r="290" spans="1:7">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A290" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B290" s="3">
+      <c r="B290" s="2">
         <v>61</v>
       </c>
       <c r="C290" s="1" t="s">
@@ -8096,21 +8091,21 @@
       <c r="D290" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="E290" s="4">
+      <c r="E290" s="2">
         <v>74</v>
       </c>
-      <c r="F290" s="4">
+      <c r="F290" s="2">
         <v>20</v>
       </c>
-      <c r="G290" s="4">
+      <c r="G290" s="2">
         <v>94</v>
       </c>
     </row>
-    <row r="291" spans="1:7">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A291" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B291" s="2">
+      <c r="B291" s="3">
         <v>62</v>
       </c>
       <c r="C291" s="1" t="s">
@@ -8119,21 +8114,21 @@
       <c r="D291" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="E291" s="4">
+      <c r="E291" s="2">
         <v>104</v>
       </c>
-      <c r="F291" s="5">
+      <c r="F291" s="3">
         <v>16</v>
       </c>
-      <c r="G291" s="4">
+      <c r="G291" s="2">
         <v>120</v>
       </c>
     </row>
-    <row r="292" spans="1:7">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A292" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B292" s="3">
+      <c r="B292" s="2">
         <v>62</v>
       </c>
       <c r="C292" s="1" t="s">
@@ -8142,21 +8137,21 @@
       <c r="D292" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="E292" s="4">
+      <c r="E292" s="2">
         <v>104</v>
       </c>
-      <c r="F292" s="5">
+      <c r="F292" s="3">
         <v>25</v>
       </c>
-      <c r="G292" s="4">
+      <c r="G292" s="2">
         <v>129</v>
       </c>
     </row>
-    <row r="293" spans="1:7">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A293" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B293" s="3">
+      <c r="B293" s="2">
         <v>62</v>
       </c>
       <c r="C293" s="1" t="s">
@@ -8165,21 +8160,21 @@
       <c r="D293" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="E293" s="4">
+      <c r="E293" s="2">
         <v>104</v>
       </c>
-      <c r="F293" s="5">
-        <v>15</v>
-      </c>
-      <c r="G293" s="4">
+      <c r="F293" s="3">
+        <v>15</v>
+      </c>
+      <c r="G293" s="2">
         <v>119</v>
       </c>
     </row>
-    <row r="294" spans="1:7">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A294" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B294" s="3">
+      <c r="B294" s="2">
         <v>62</v>
       </c>
       <c r="C294" s="1" t="s">
@@ -8188,21 +8183,21 @@
       <c r="D294" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="E294" s="4">
+      <c r="E294" s="2">
         <v>104</v>
       </c>
-      <c r="F294" s="4">
+      <c r="F294" s="2">
         <v>20</v>
       </c>
-      <c r="G294" s="4">
+      <c r="G294" s="2">
         <v>124</v>
       </c>
     </row>
-    <row r="295" spans="1:7">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A295" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B295" s="2">
+      <c r="B295" s="3">
         <v>63</v>
       </c>
       <c r="C295" s="1" t="s">
@@ -8211,21 +8206,21 @@
       <c r="D295" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="E295" s="4">
+      <c r="E295" s="2">
         <v>69</v>
       </c>
-      <c r="F295" s="5">
+      <c r="F295" s="3">
         <v>16</v>
       </c>
-      <c r="G295" s="4">
+      <c r="G295" s="2">
         <v>85</v>
       </c>
     </row>
-    <row r="296" spans="1:7">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A296" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B296" s="3">
+      <c r="B296" s="2">
         <v>63</v>
       </c>
       <c r="C296" s="1" t="s">
@@ -8234,21 +8229,21 @@
       <c r="D296" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="E296" s="4">
+      <c r="E296" s="2">
         <v>69</v>
       </c>
-      <c r="F296" s="5">
+      <c r="F296" s="3">
         <v>25</v>
       </c>
-      <c r="G296" s="4">
+      <c r="G296" s="2">
         <v>94</v>
       </c>
     </row>
-    <row r="297" spans="1:7">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A297" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B297" s="3">
+      <c r="B297" s="2">
         <v>63</v>
       </c>
       <c r="C297" s="1" t="s">
@@ -8257,21 +8252,21 @@
       <c r="D297" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="E297" s="4">
+      <c r="E297" s="2">
         <v>69</v>
       </c>
-      <c r="F297" s="5">
-        <v>15</v>
-      </c>
-      <c r="G297" s="4">
+      <c r="F297" s="3">
+        <v>15</v>
+      </c>
+      <c r="G297" s="2">
         <v>84</v>
       </c>
     </row>
-    <row r="298" spans="1:7">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A298" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B298" s="3">
+      <c r="B298" s="2">
         <v>63</v>
       </c>
       <c r="C298" s="1" t="s">
@@ -8280,21 +8275,21 @@
       <c r="D298" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="E298" s="4">
+      <c r="E298" s="2">
         <v>69</v>
       </c>
-      <c r="F298" s="4">
+      <c r="F298" s="2">
         <v>20</v>
       </c>
-      <c r="G298" s="4">
+      <c r="G298" s="2">
         <v>89</v>
       </c>
     </row>
-    <row r="299" spans="1:7">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A299" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B299" s="2">
+      <c r="B299" s="3">
         <v>64</v>
       </c>
       <c r="C299" s="1" t="s">
@@ -8303,21 +8298,21 @@
       <c r="D299" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="E299" s="4">
+      <c r="E299" s="2">
         <v>73</v>
       </c>
-      <c r="F299" s="5">
+      <c r="F299" s="3">
         <v>16</v>
       </c>
-      <c r="G299" s="4">
+      <c r="G299" s="2">
         <v>89</v>
       </c>
     </row>
-    <row r="300" spans="1:7">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A300" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B300" s="3">
+      <c r="B300" s="2">
         <v>64</v>
       </c>
       <c r="C300" s="1" t="s">
@@ -8326,21 +8321,21 @@
       <c r="D300" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="E300" s="4">
+      <c r="E300" s="2">
         <v>73</v>
       </c>
-      <c r="F300" s="5">
+      <c r="F300" s="3">
         <v>25</v>
       </c>
-      <c r="G300" s="4">
+      <c r="G300" s="2">
         <v>98</v>
       </c>
     </row>
-    <row r="301" spans="1:7">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A301" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B301" s="3">
+      <c r="B301" s="2">
         <v>64</v>
       </c>
       <c r="C301" s="1" t="s">
@@ -8349,21 +8344,21 @@
       <c r="D301" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="E301" s="4">
+      <c r="E301" s="2">
         <v>73</v>
       </c>
-      <c r="F301" s="5">
-        <v>15</v>
-      </c>
-      <c r="G301" s="4">
+      <c r="F301" s="3">
+        <v>15</v>
+      </c>
+      <c r="G301" s="2">
         <v>88</v>
       </c>
     </row>
-    <row r="302" spans="1:7">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A302" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B302" s="3">
+      <c r="B302" s="2">
         <v>64</v>
       </c>
       <c r="C302" s="1" t="s">
@@ -8372,21 +8367,21 @@
       <c r="D302" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="E302" s="4">
+      <c r="E302" s="2">
         <v>73</v>
       </c>
-      <c r="F302" s="4">
+      <c r="F302" s="2">
         <v>20</v>
       </c>
-      <c r="G302" s="4">
+      <c r="G302" s="2">
         <v>93</v>
       </c>
     </row>
-    <row r="303" spans="1:7">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A303" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B303" s="2">
+      <c r="B303" s="3">
         <v>65</v>
       </c>
       <c r="C303" s="1" t="s">
@@ -8395,21 +8390,21 @@
       <c r="D303" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="E303" s="4">
+      <c r="E303" s="2">
         <v>152</v>
       </c>
-      <c r="F303" s="5">
+      <c r="F303" s="3">
         <v>16</v>
       </c>
-      <c r="G303" s="4">
+      <c r="G303" s="2">
         <v>168</v>
       </c>
     </row>
-    <row r="304" spans="1:7">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A304" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B304" s="3">
+      <c r="B304" s="2">
         <v>65</v>
       </c>
       <c r="C304" s="1" t="s">
@@ -8418,21 +8413,21 @@
       <c r="D304" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="E304" s="4">
+      <c r="E304" s="2">
         <v>152</v>
       </c>
-      <c r="F304" s="5">
+      <c r="F304" s="3">
         <v>25</v>
       </c>
-      <c r="G304" s="4">
+      <c r="G304" s="2">
         <v>177</v>
       </c>
     </row>
-    <row r="305" spans="1:7">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A305" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B305" s="3">
+      <c r="B305" s="2">
         <v>65</v>
       </c>
       <c r="C305" s="1" t="s">
@@ -8441,21 +8436,21 @@
       <c r="D305" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="E305" s="4">
+      <c r="E305" s="2">
         <v>152</v>
       </c>
-      <c r="F305" s="5">
-        <v>15</v>
-      </c>
-      <c r="G305" s="4">
+      <c r="F305" s="3">
+        <v>15</v>
+      </c>
+      <c r="G305" s="2">
         <v>167</v>
       </c>
     </row>
-    <row r="306" spans="1:7">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A306" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B306" s="3">
+      <c r="B306" s="2">
         <v>65</v>
       </c>
       <c r="C306" s="1" t="s">
@@ -8464,21 +8459,21 @@
       <c r="D306" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="E306" s="4">
+      <c r="E306" s="2">
         <v>152</v>
       </c>
-      <c r="F306" s="4">
+      <c r="F306" s="2">
         <v>20</v>
       </c>
-      <c r="G306" s="4">
+      <c r="G306" s="2">
         <v>172</v>
       </c>
     </row>
-    <row r="307" spans="1:7">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A307" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B307" s="2">
+      <c r="B307" s="3">
         <v>66</v>
       </c>
       <c r="C307" s="1" t="s">
@@ -8487,21 +8482,21 @@
       <c r="D307" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="E307" s="4">
+      <c r="E307" s="2">
         <v>69</v>
       </c>
-      <c r="F307" s="5">
+      <c r="F307" s="3">
         <v>16</v>
       </c>
-      <c r="G307" s="4">
+      <c r="G307" s="2">
         <v>85</v>
       </c>
     </row>
-    <row r="308" spans="1:7">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A308" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B308" s="3">
+      <c r="B308" s="2">
         <v>66</v>
       </c>
       <c r="C308" s="1" t="s">
@@ -8510,21 +8505,21 @@
       <c r="D308" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="E308" s="4">
+      <c r="E308" s="2">
         <v>69</v>
       </c>
-      <c r="F308" s="5">
+      <c r="F308" s="3">
         <v>25</v>
       </c>
-      <c r="G308" s="4">
+      <c r="G308" s="2">
         <v>94</v>
       </c>
     </row>
-    <row r="309" spans="1:7">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A309" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B309" s="3">
+      <c r="B309" s="2">
         <v>66</v>
       </c>
       <c r="C309" s="1" t="s">
@@ -8533,21 +8528,21 @@
       <c r="D309" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="E309" s="4">
+      <c r="E309" s="2">
         <v>69</v>
       </c>
-      <c r="F309" s="5">
-        <v>15</v>
-      </c>
-      <c r="G309" s="4">
+      <c r="F309" s="3">
+        <v>15</v>
+      </c>
+      <c r="G309" s="2">
         <v>84</v>
       </c>
     </row>
-    <row r="310" spans="1:7">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A310" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B310" s="3">
+      <c r="B310" s="2">
         <v>66</v>
       </c>
       <c r="C310" s="1" t="s">
@@ -8556,21 +8551,21 @@
       <c r="D310" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="E310" s="4">
+      <c r="E310" s="2">
         <v>69</v>
       </c>
-      <c r="F310" s="4">
+      <c r="F310" s="2">
         <v>20</v>
       </c>
-      <c r="G310" s="4">
+      <c r="G310" s="2">
         <v>89</v>
       </c>
     </row>
-    <row r="311" spans="1:7">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A311" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B311" s="2">
+      <c r="B311" s="3">
         <v>67</v>
       </c>
       <c r="C311" s="1" t="s">
@@ -8579,21 +8574,21 @@
       <c r="D311" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="E311" s="4">
+      <c r="E311" s="2">
         <v>90</v>
       </c>
-      <c r="F311" s="5">
+      <c r="F311" s="3">
         <v>16</v>
       </c>
-      <c r="G311" s="4">
+      <c r="G311" s="2">
         <v>106</v>
       </c>
     </row>
-    <row r="312" spans="1:7">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A312" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B312" s="3">
+      <c r="B312" s="2">
         <v>67</v>
       </c>
       <c r="C312" s="1" t="s">
@@ -8602,21 +8597,21 @@
       <c r="D312" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="E312" s="4">
+      <c r="E312" s="2">
         <v>90</v>
       </c>
-      <c r="F312" s="5">
+      <c r="F312" s="3">
         <v>25</v>
       </c>
-      <c r="G312" s="4">
+      <c r="G312" s="2">
         <v>115</v>
       </c>
     </row>
-    <row r="313" spans="1:7">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A313" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B313" s="3">
+      <c r="B313" s="2">
         <v>67</v>
       </c>
       <c r="C313" s="1" t="s">
@@ -8625,21 +8620,21 @@
       <c r="D313" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="E313" s="4">
+      <c r="E313" s="2">
         <v>90</v>
       </c>
-      <c r="F313" s="5">
-        <v>15</v>
-      </c>
-      <c r="G313" s="4">
+      <c r="F313" s="3">
+        <v>15</v>
+      </c>
+      <c r="G313" s="2">
         <v>105</v>
       </c>
     </row>
-    <row r="314" spans="1:7">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A314" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B314" s="3">
+      <c r="B314" s="2">
         <v>67</v>
       </c>
       <c r="C314" s="1" t="s">
@@ -8648,21 +8643,21 @@
       <c r="D314" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="E314" s="4">
+      <c r="E314" s="2">
         <v>90</v>
       </c>
-      <c r="F314" s="4">
+      <c r="F314" s="2">
         <v>20</v>
       </c>
-      <c r="G314" s="4">
+      <c r="G314" s="2">
         <v>110</v>
       </c>
     </row>
-    <row r="315" spans="1:7">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A315" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B315" s="2">
+      <c r="B315" s="3">
         <v>68</v>
       </c>
       <c r="C315" s="1" t="s">
@@ -8671,21 +8666,21 @@
       <c r="D315" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="E315" s="4">
+      <c r="E315" s="2">
         <v>83</v>
       </c>
-      <c r="F315" s="5">
+      <c r="F315" s="3">
         <v>16</v>
       </c>
-      <c r="G315" s="4">
+      <c r="G315" s="2">
         <v>99</v>
       </c>
     </row>
-    <row r="316" spans="1:7">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A316" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B316" s="3">
+      <c r="B316" s="2">
         <v>68</v>
       </c>
       <c r="C316" s="1" t="s">
@@ -8694,21 +8689,21 @@
       <c r="D316" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="E316" s="4">
+      <c r="E316" s="2">
         <v>83</v>
       </c>
-      <c r="F316" s="5">
+      <c r="F316" s="3">
         <v>25</v>
       </c>
-      <c r="G316" s="4">
+      <c r="G316" s="2">
         <v>108</v>
       </c>
     </row>
-    <row r="317" spans="1:7">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A317" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B317" s="3">
+      <c r="B317" s="2">
         <v>68</v>
       </c>
       <c r="C317" s="1" t="s">
@@ -8717,21 +8712,21 @@
       <c r="D317" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="E317" s="4">
+      <c r="E317" s="2">
         <v>83</v>
       </c>
-      <c r="F317" s="5">
-        <v>15</v>
-      </c>
-      <c r="G317" s="4">
+      <c r="F317" s="3">
+        <v>15</v>
+      </c>
+      <c r="G317" s="2">
         <v>98</v>
       </c>
     </row>
-    <row r="318" spans="1:7">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A318" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B318" s="3">
+      <c r="B318" s="2">
         <v>68</v>
       </c>
       <c r="C318" s="1" t="s">
@@ -8740,21 +8735,21 @@
       <c r="D318" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="E318" s="4">
+      <c r="E318" s="2">
         <v>83</v>
       </c>
-      <c r="F318" s="4">
+      <c r="F318" s="2">
         <v>20</v>
       </c>
-      <c r="G318" s="4">
+      <c r="G318" s="2">
         <v>103</v>
       </c>
     </row>
-    <row r="319" spans="1:7">
+    <row r="319" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A319" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B319" s="2">
+      <c r="B319" s="3">
         <v>69</v>
       </c>
       <c r="C319" s="1" t="s">
@@ -8763,21 +8758,21 @@
       <c r="D319" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="E319" s="4">
+      <c r="E319" s="2">
         <v>82</v>
       </c>
-      <c r="F319" s="5">
+      <c r="F319" s="3">
         <v>16</v>
       </c>
-      <c r="G319" s="4">
+      <c r="G319" s="2">
         <v>98</v>
       </c>
     </row>
-    <row r="320" spans="1:7">
+    <row r="320" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A320" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B320" s="3">
+      <c r="B320" s="2">
         <v>69</v>
       </c>
       <c r="C320" s="1" t="s">
@@ -8786,21 +8781,21 @@
       <c r="D320" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="E320" s="4">
+      <c r="E320" s="2">
         <v>82</v>
       </c>
-      <c r="F320" s="5">
+      <c r="F320" s="3">
         <v>25</v>
       </c>
-      <c r="G320" s="4">
+      <c r="G320" s="2">
         <v>107</v>
       </c>
     </row>
-    <row r="321" spans="1:7">
+    <row r="321" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A321" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B321" s="3">
+      <c r="B321" s="2">
         <v>69</v>
       </c>
       <c r="C321" s="1" t="s">
@@ -8809,21 +8804,21 @@
       <c r="D321" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="E321" s="4">
+      <c r="E321" s="2">
         <v>82</v>
       </c>
-      <c r="F321" s="5">
-        <v>15</v>
-      </c>
-      <c r="G321" s="4">
+      <c r="F321" s="3">
+        <v>15</v>
+      </c>
+      <c r="G321" s="2">
         <v>97</v>
       </c>
     </row>
-    <row r="322" spans="1:7">
+    <row r="322" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A322" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B322" s="3">
+      <c r="B322" s="2">
         <v>69</v>
       </c>
       <c r="C322" s="1" t="s">
@@ -8832,21 +8827,21 @@
       <c r="D322" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="E322" s="4">
+      <c r="E322" s="2">
         <v>82</v>
       </c>
-      <c r="F322" s="4">
+      <c r="F322" s="2">
         <v>20</v>
       </c>
-      <c r="G322" s="4">
+      <c r="G322" s="2">
         <v>102</v>
       </c>
     </row>
-    <row r="323" spans="1:7">
+    <row r="323" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A323" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B323" s="2">
+      <c r="B323" s="3">
         <v>70</v>
       </c>
       <c r="C323" s="1" t="s">
@@ -8855,21 +8850,21 @@
       <c r="D323" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="E323" s="4">
+      <c r="E323" s="2">
         <v>105</v>
       </c>
-      <c r="F323" s="5">
+      <c r="F323" s="3">
         <v>16</v>
       </c>
-      <c r="G323" s="4">
+      <c r="G323" s="2">
         <v>121</v>
       </c>
     </row>
-    <row r="324" spans="1:7">
+    <row r="324" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A324" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B324" s="3">
+      <c r="B324" s="2">
         <v>70</v>
       </c>
       <c r="C324" s="1" t="s">
@@ -8878,21 +8873,21 @@
       <c r="D324" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="E324" s="4">
+      <c r="E324" s="2">
         <v>105</v>
       </c>
-      <c r="F324" s="5">
+      <c r="F324" s="3">
         <v>25</v>
       </c>
-      <c r="G324" s="4">
+      <c r="G324" s="2">
         <v>130</v>
       </c>
     </row>
-    <row r="325" spans="1:7">
+    <row r="325" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A325" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B325" s="3">
+      <c r="B325" s="2">
         <v>70</v>
       </c>
       <c r="C325" s="1" t="s">
@@ -8901,21 +8896,21 @@
       <c r="D325" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="E325" s="4">
+      <c r="E325" s="2">
         <v>105</v>
       </c>
-      <c r="F325" s="5">
-        <v>15</v>
-      </c>
-      <c r="G325" s="4">
+      <c r="F325" s="3">
+        <v>15</v>
+      </c>
+      <c r="G325" s="2">
         <v>120</v>
       </c>
     </row>
-    <row r="326" spans="1:7">
+    <row r="326" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A326" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B326" s="3">
+      <c r="B326" s="2">
         <v>70</v>
       </c>
       <c r="C326" s="1" t="s">
@@ -8924,21 +8919,21 @@
       <c r="D326" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="E326" s="4">
+      <c r="E326" s="2">
         <v>105</v>
       </c>
-      <c r="F326" s="4">
+      <c r="F326" s="2">
         <v>20</v>
       </c>
-      <c r="G326" s="4">
+      <c r="G326" s="2">
         <v>125</v>
       </c>
     </row>
-    <row r="327" spans="1:7">
+    <row r="327" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A327" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B327" s="2">
+      <c r="B327" s="3">
         <v>71</v>
       </c>
       <c r="C327" s="1" t="s">
@@ -8947,21 +8942,21 @@
       <c r="D327" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E327" s="4">
+      <c r="E327" s="2">
         <v>101</v>
       </c>
-      <c r="F327" s="5">
+      <c r="F327" s="3">
         <v>16</v>
       </c>
-      <c r="G327" s="4">
+      <c r="G327" s="2">
         <v>117</v>
       </c>
     </row>
-    <row r="328" spans="1:7">
+    <row r="328" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A328" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B328" s="3">
+      <c r="B328" s="2">
         <v>71</v>
       </c>
       <c r="C328" s="1" t="s">
@@ -8970,21 +8965,21 @@
       <c r="D328" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E328" s="4">
+      <c r="E328" s="2">
         <v>101</v>
       </c>
-      <c r="F328" s="5">
+      <c r="F328" s="3">
         <v>25</v>
       </c>
-      <c r="G328" s="4">
+      <c r="G328" s="2">
         <v>126</v>
       </c>
     </row>
-    <row r="329" spans="1:7">
+    <row r="329" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A329" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B329" s="3">
+      <c r="B329" s="2">
         <v>71</v>
       </c>
       <c r="C329" s="1" t="s">
@@ -8993,21 +8988,21 @@
       <c r="D329" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E329" s="4">
+      <c r="E329" s="2">
         <v>101</v>
       </c>
-      <c r="F329" s="5">
-        <v>15</v>
-      </c>
-      <c r="G329" s="4">
+      <c r="F329" s="3">
+        <v>15</v>
+      </c>
+      <c r="G329" s="2">
         <v>116</v>
       </c>
     </row>
-    <row r="330" spans="1:7">
+    <row r="330" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A330" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B330" s="3">
+      <c r="B330" s="2">
         <v>71</v>
       </c>
       <c r="C330" s="1" t="s">
@@ -9016,13 +9011,13 @@
       <c r="D330" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E330" s="4">
+      <c r="E330" s="2">
         <v>101</v>
       </c>
-      <c r="F330" s="4">
+      <c r="F330" s="2">
         <v>20</v>
       </c>
-      <c r="G330" s="4">
+      <c r="G330" s="2">
         <v>121</v>
       </c>
     </row>
